--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_workspace\new-repo\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_workspace\gitlab\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1043">
   <si>
     <r>
       <rPr>
@@ -4996,6 +4996,10 @@
   </si>
   <si>
     <t>organization.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_default</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -6524,8 +6528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6586,6 +6590,9 @@
       <c r="M7" t="s">
         <v>81</v>
       </c>
+      <c r="N7" t="s">
+        <v>1042</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
@@ -6617,6 +6624,9 @@
         <v>59</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
@@ -6637,7 +6647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -4999,7 +4999,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>is_default</t>
+    <t>is_admin</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -6529,7 +6529,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1045">
   <si>
     <r>
       <rPr>
@@ -5001,6 +5001,13 @@
   <si>
     <t>is_admin</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_class</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>please edit</t>
   </si>
 </sst>
 </file>
@@ -6267,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H8"/>
+  <dimension ref="D7:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6282,7 +6289,7 @@
     <col min="8" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
         <v>1013</v>
       </c>
@@ -6298,8 +6305,11 @@
       <c r="H7" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="8" spans="4:8">
+      <c r="I7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
       <c r="E8" t="s">
         <v>1020</v>
       </c>
@@ -6311,6 +6321,9 @@
       </c>
       <c r="H8" t="s">
         <v>1017</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1047">
   <si>
     <r>
       <rPr>
@@ -5008,6 +5008,13 @@
   </si>
   <si>
     <t>please edit</t>
+  </si>
+  <si>
+    <t>gitlab.orgowner</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6276,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6462,10 +6469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G11"/>
+  <dimension ref="D7:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6529,6 +6536,17 @@
       </c>
       <c r="G11" t="s">
         <v>1004</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="E12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1045">
   <si>
     <r>
       <rPr>
@@ -5008,13 +5008,6 @@
   </si>
   <si>
     <t>please edit</t>
-  </si>
-  <si>
-    <t>gitlab.orgowner</t>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6469,10 +6462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G12"/>
+  <dimension ref="D7:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6536,17 +6529,6 @@
       </c>
       <c r="G11" t="s">
         <v>1004</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
-      <c r="E12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1054">
   <si>
     <r>
       <rPr>
@@ -1970,10 +1970,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Project Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Organization Administrator</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -5008,6 +5004,46 @@
   </si>
   <si>
     <t>please edit</t>
+  </si>
+  <si>
+    <t>部署管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deploy Administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/deploy-administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5944,10 +5980,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>94</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6072,22 +6108,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="40" t="s">
+        <v>977</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>978</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>979</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="G7" s="40" t="s">
         <v>980</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>981</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>982</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>983</v>
       </c>
       <c r="J7" s="40"/>
     </row>
@@ -6099,31 +6135,31 @@
         <v>57</v>
       </c>
       <c r="G8" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>984</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="I8" s="39" t="s">
         <v>985</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>986</v>
       </c>
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="39" t="s">
+        <v>986</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>986</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>987</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>987</v>
-      </c>
-      <c r="G9" s="39" t="s">
+      <c r="H9" s="41" t="s">
         <v>988</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="39" t="s">
         <v>989</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -6151,35 +6187,35 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>991</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>992</v>
-      </c>
       <c r="F7" s="39" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>981</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>982</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>983</v>
       </c>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>993</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>993</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="H8" s="39" t="s">
         <v>994</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>995</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -6206,42 +6242,42 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="39" t="s">
+        <v>995</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>991</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>979</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>996</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>992</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>980</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>997</v>
-      </c>
       <c r="H7" s="39" t="s">
+        <v>981</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>982</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>983</v>
       </c>
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>fd_lookup!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>999</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>1000</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -6258,10 +6294,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>1001</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>1002</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -6291,39 +6327,39 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E7" t="s">
+        <v>978</v>
+      </c>
+      <c r="F7" t="s">
         <v>1013</v>
       </c>
-      <c r="E7" t="s">
-        <v>979</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>1014</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>1015</v>
       </c>
-      <c r="H7" t="s">
-        <v>1016</v>
-      </c>
       <c r="I7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -6351,30 +6387,30 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E7" t="s">
         <v>1018</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1019</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
       </c>
       <c r="G7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H7" t="s">
         <v>1014</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G8" t="s">
         <v>1020</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1021</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -6426,24 +6462,24 @@
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>100</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -6464,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6475,60 +6511,60 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G7" t="s">
         <v>1005</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="E8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G8" t="s">
         <v>1027</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="E9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="E10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="E11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6640,7 @@
         <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
@@ -6658,10 +6694,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N10"/>
+  <dimension ref="B7:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="E11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6685,7 +6721,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -6712,18 +6748,18 @@
         <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -6744,21 +6780,21 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6776,21 +6812,21 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>1047</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6808,7 +6844,103 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
+      <c r="E11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14">
+      <c r="E12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14">
+      <c r="E13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6843,16 +6975,16 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1036</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7021,25 +7153,25 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" t="s">
         <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -7056,13 +7188,13 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="4:10">
@@ -7079,13 +7211,13 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -7114,7 +7246,7 @@
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -7125,3154 +7257,3154 @@
     </row>
     <row r="8" spans="4:6">
       <c r="E8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="E14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="4:6">
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="5:6">
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="5:6">
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="5:6">
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="5:6">
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="5:6">
       <c r="E27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="5:6">
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="5:6">
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="5:6">
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="5:6">
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="5:6">
       <c r="E41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="5:6">
       <c r="E42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="5:6">
       <c r="E43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="5:6">
       <c r="E45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="5:6">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="5:6">
       <c r="E47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="5:6">
       <c r="E48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="5:6">
       <c r="E49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="5:6">
       <c r="E52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="5:6">
       <c r="E53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="5:6">
       <c r="E54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="5:6">
       <c r="E55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="5:6">
       <c r="E56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="5:6">
       <c r="E57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="5:6">
       <c r="E58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="5:6">
       <c r="E59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="5:6">
       <c r="E60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="5:6">
       <c r="E61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="5:6">
       <c r="E63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="5:6">
       <c r="E64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="E65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="5:6">
       <c r="E66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="5:6">
       <c r="E67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="5:6">
       <c r="E68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="5:6">
       <c r="E69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="5:6">
       <c r="E70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="5:6">
       <c r="E71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="E72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="5:6">
       <c r="E73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="5:6">
       <c r="E74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="5:6">
       <c r="E75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="5:6">
       <c r="E76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="5:6">
       <c r="E77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="5:6">
       <c r="E78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="5:6">
       <c r="E79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="5:6">
       <c r="E80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="5:6">
       <c r="E81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="5:6">
       <c r="E82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="5:6">
       <c r="E83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="5:6">
       <c r="E84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="5:6">
       <c r="E85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="5:6">
       <c r="E86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="5:6">
       <c r="E87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="5:6">
       <c r="E88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="5:6">
       <c r="E89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="5:6">
       <c r="E90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="5:6">
       <c r="E91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="5:6">
       <c r="E92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="5:6">
       <c r="E93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="5:6">
       <c r="E94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="5:6">
       <c r="E95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="5:6">
       <c r="E96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="5:6">
       <c r="E97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="5:6">
       <c r="E98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="5:6">
       <c r="E99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="5:6">
       <c r="E100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="5:6">
       <c r="E101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="5:6">
       <c r="E102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="5:6">
       <c r="E103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="5:6">
       <c r="E104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="5:6">
       <c r="E105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="5:6">
       <c r="E106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="5:6">
       <c r="E107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="5:6">
       <c r="E108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="5:6">
       <c r="E109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="5:6">
       <c r="E110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="5:6">
       <c r="E111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="5:6">
       <c r="E112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="5:6">
       <c r="E113" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="5:6">
       <c r="E114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="5:6">
       <c r="E115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="5:6">
       <c r="E116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="5:6">
       <c r="E117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="5:6">
       <c r="E118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="5:6">
       <c r="E119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="5:6">
       <c r="E120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="5:6">
       <c r="E121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="5:6">
       <c r="E122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="5:6">
       <c r="E123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="5:6">
       <c r="E124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="5:6">
       <c r="E125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="5:6">
       <c r="E126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="5:6">
       <c r="E127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="5:6">
       <c r="E128" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F128" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="5:6">
       <c r="E129" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F129" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="5:6">
       <c r="E130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="5:6">
       <c r="E131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="5:6">
       <c r="E132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="5:6">
       <c r="E133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="5:6">
       <c r="E134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="5:6">
       <c r="E135" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F135" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="5:6">
       <c r="E136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="5:6">
       <c r="E137" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F137" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="5:6">
       <c r="E138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="5:6">
       <c r="E139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="5:6">
       <c r="E140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="5:6">
       <c r="E141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="5:6">
       <c r="E142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="5:6">
       <c r="E143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="5:6">
       <c r="E144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="5:6">
       <c r="E145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="5:6">
       <c r="E146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="5:6">
       <c r="E147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="5:6">
       <c r="E148" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F148" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="5:6">
       <c r="E149" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F149" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="5:6">
       <c r="E150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="5:6">
       <c r="E151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="5:6">
       <c r="E152" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F152" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="5:6">
       <c r="E153" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F153" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="5:6">
       <c r="E154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="5:6">
       <c r="E155" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F155" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="5:6">
       <c r="E156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="5:6">
       <c r="E157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="5:6">
       <c r="E158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="5:6">
       <c r="E159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="5:6">
       <c r="E160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="5:6">
       <c r="E161" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F161" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="5:6">
       <c r="E162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="5:6">
       <c r="E163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="5:6">
       <c r="E164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="5:6">
       <c r="E165" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F165" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="5:6">
       <c r="E166" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F166" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="5:6">
       <c r="E167" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F167" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="5:6">
       <c r="E168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="5:6">
       <c r="E169" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F169" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="5:6">
       <c r="E170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="5:6">
       <c r="E171" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F171" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="5:6">
       <c r="E172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="5:6">
       <c r="E173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="5:6">
       <c r="E174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F174" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="5:6">
       <c r="E175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="5:6">
       <c r="E176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="5:6">
       <c r="E177" t="s">
+        <v>271</v>
+      </c>
+      <c r="F177" t="s">
         <v>272</v>
-      </c>
-      <c r="F177" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="178" spans="5:6">
       <c r="E178" t="s">
+        <v>273</v>
+      </c>
+      <c r="F178" t="s">
         <v>274</v>
-      </c>
-      <c r="F178" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="179" spans="5:6">
       <c r="E179" t="s">
+        <v>275</v>
+      </c>
+      <c r="F179" t="s">
         <v>276</v>
-      </c>
-      <c r="F179" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="180" spans="5:6">
       <c r="E180" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F180" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="5:6">
       <c r="E181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="5:6">
       <c r="E182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="5:6">
       <c r="E183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="5:6">
       <c r="E184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="5:6">
       <c r="E185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" spans="5:6">
       <c r="E186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="5:6">
       <c r="E187" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F187" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="5:6">
       <c r="E188" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F188" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="189" spans="5:6">
       <c r="E189" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F189" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="190" spans="5:6">
       <c r="E190" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F190" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="191" spans="5:6">
       <c r="E191" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F191" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="5:6">
       <c r="E192" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F192" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="5:6">
       <c r="E193" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F193" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="194" spans="5:6">
       <c r="E194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="5:6">
       <c r="E195" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F195" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="5:6">
       <c r="E196" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F196" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="5:6">
       <c r="E197" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F197" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="198" spans="5:6">
       <c r="E198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="199" spans="5:6">
       <c r="E199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="5:6">
       <c r="E200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="201" spans="5:6">
       <c r="E201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="5:6">
       <c r="E202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="5:6">
       <c r="E203" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F203" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" spans="5:6">
       <c r="E204" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F204" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="5:6">
       <c r="E205" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F205" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="5:6">
       <c r="E206" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F206" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="207" spans="5:6">
       <c r="E207" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F207" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" spans="5:6">
       <c r="E208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="5:6">
       <c r="E209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="5:6">
       <c r="E210" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F210" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="211" spans="5:6">
       <c r="E211" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F211" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="212" spans="5:6">
       <c r="E212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213" spans="5:6">
       <c r="E213" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F213" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="214" spans="5:6">
       <c r="E214" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F214" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="5:6">
       <c r="E215" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F215" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="5:6">
       <c r="E216" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F216" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="217" spans="5:6">
       <c r="E217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="5:6">
       <c r="E218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="5:6">
       <c r="E219" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F219" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="5:6">
       <c r="E220" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F220" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="221" spans="5:6">
       <c r="E221" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F221" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="5:6">
       <c r="E222" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F222" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="223" spans="5:6">
       <c r="E223" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F223" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="5:6">
       <c r="E224" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F224" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="5:6">
       <c r="E225" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F225" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="226" spans="5:6">
       <c r="E226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="227" spans="5:6">
       <c r="E227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="228" spans="5:6">
       <c r="E228" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F228" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229" spans="5:6">
       <c r="E229" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F229" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="230" spans="5:6">
       <c r="E230" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F230" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="231" spans="5:6">
       <c r="E231" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F231" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="5:6">
       <c r="E232" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F232" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="233" spans="5:6">
       <c r="E233" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F233" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="234" spans="5:6">
       <c r="E234" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F234" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="235" spans="5:6">
       <c r="E235" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F235" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236" spans="5:6">
       <c r="E236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="237" spans="5:6">
       <c r="E237" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F237" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238" spans="5:6">
       <c r="E238" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F238" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="239" spans="5:6">
       <c r="E239" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F239" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="240" spans="5:6">
       <c r="E240" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F240" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="241" spans="5:6">
       <c r="E241" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F241" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="242" spans="5:6">
       <c r="E242" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F242" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="243" spans="5:6">
       <c r="E243" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F243" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="244" spans="5:6">
       <c r="E244" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F244" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="245" spans="5:6">
       <c r="E245" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F245" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="246" spans="5:6">
       <c r="E246" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F246" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="247" spans="5:6">
       <c r="E247" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F247" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="5:6">
       <c r="E248" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F248" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="249" spans="5:6">
       <c r="E249" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F249" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="5:6">
       <c r="E250" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F250" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="5:6">
       <c r="E251" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F251" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="5:6">
       <c r="E252" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F252" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="253" spans="5:6">
       <c r="E253" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F253" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="254" spans="5:6">
       <c r="E254" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F254" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="255" spans="5:6">
       <c r="E255" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F255" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="256" spans="5:6">
       <c r="E256" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F256" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="257" spans="5:6">
       <c r="E257" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F257" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="258" spans="5:6">
       <c r="E258" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F258" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="259" spans="5:6">
       <c r="E259" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F259" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="260" spans="5:6">
       <c r="E260" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F260" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="5:6">
       <c r="E261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="262" spans="5:6">
       <c r="E262" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F262" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="263" spans="5:6">
       <c r="E263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="264" spans="5:6">
       <c r="E264" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F264" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="265" spans="5:6">
       <c r="E265" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F265" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="5:6">
       <c r="E266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="267" spans="5:6">
       <c r="E267" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F267" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="268" spans="5:6">
       <c r="E268" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F268" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="5:6">
       <c r="E269" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F269" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="270" spans="5:6">
       <c r="E270" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F270" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="271" spans="5:6">
       <c r="E271" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F271" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="272" spans="5:6">
       <c r="E272" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F272" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="273" spans="5:6">
       <c r="E273" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F273" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="274" spans="5:6">
       <c r="E274" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F274" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="5:6">
       <c r="E275" t="s">
+        <v>372</v>
+      </c>
+      <c r="F275" t="s">
         <v>373</v>
-      </c>
-      <c r="F275" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="276" spans="5:6">
       <c r="E276" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F276" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="5:6">
       <c r="E277" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F277" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="278" spans="5:6">
       <c r="E278" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F278" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="279" spans="5:6">
       <c r="E279" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F279" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="5:6">
       <c r="E280" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F280" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="281" spans="5:6">
       <c r="E281" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F281" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282" spans="5:6">
       <c r="E282" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F282" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="283" spans="5:6">
       <c r="E283" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F283" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="284" spans="5:6">
       <c r="E284" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F284" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="5:6">
       <c r="E285" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F285" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="286" spans="5:6">
       <c r="E286" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F286" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="5:6">
       <c r="E287" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F287" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="288" spans="5:6">
       <c r="E288" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F288" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="5:6">
       <c r="E289" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F289" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="5:6">
       <c r="E290" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F290" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="291" spans="5:6">
       <c r="E291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F291" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="292" spans="5:6">
       <c r="E292" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F292" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="293" spans="5:6">
       <c r="E293" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F293" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="294" spans="5:6">
       <c r="E294" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F294" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="295" spans="5:6">
       <c r="E295" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F295" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="296" spans="5:6">
       <c r="E296" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F296" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="297" spans="5:6">
       <c r="E297" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F297" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="298" spans="5:6">
       <c r="E298" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F298" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="299" spans="5:6">
       <c r="E299" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F299" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="300" spans="5:6">
       <c r="E300" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F300" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="301" spans="5:6">
       <c r="E301" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F301" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="302" spans="5:6">
       <c r="E302" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F302" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="303" spans="5:6">
       <c r="E303" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F303" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="304" spans="5:6">
       <c r="E304" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F304" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="305" spans="5:6">
       <c r="E305" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F305" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="306" spans="5:6">
       <c r="E306" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F306" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="307" spans="5:6">
       <c r="E307" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F307" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="308" spans="5:6">
       <c r="E308" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F308" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="309" spans="5:6">
       <c r="E309" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F309" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="310" spans="5:6">
       <c r="E310" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F310" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="5:6">
       <c r="E311" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F311" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="312" spans="5:6">
       <c r="E312" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F312" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="313" spans="5:6">
       <c r="E313" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F313" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="314" spans="5:6">
       <c r="E314" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F314" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="315" spans="5:6">
       <c r="E315" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F315" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="316" spans="5:6">
       <c r="E316" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F316" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="317" spans="5:6">
       <c r="E317" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F317" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="318" spans="5:6">
       <c r="E318" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F318" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="319" spans="5:6">
       <c r="E319" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F319" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="320" spans="5:6">
       <c r="E320" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F320" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="321" spans="5:6">
       <c r="E321" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F321" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="322" spans="5:6">
       <c r="E322" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F322" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="323" spans="5:6">
       <c r="E323" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F323" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="324" spans="5:6">
       <c r="E324" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F324" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="325" spans="5:6">
       <c r="E325" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F325" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" spans="5:6">
       <c r="E326" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F326" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="327" spans="5:6">
       <c r="E327" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F327" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="328" spans="5:6">
       <c r="E328" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F328" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="329" spans="5:6">
       <c r="E329" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F329" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="330" spans="5:6">
       <c r="E330" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F330" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="331" spans="5:6">
       <c r="E331" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F331" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="332" spans="5:6">
       <c r="E332" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F332" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="333" spans="5:6">
       <c r="E333" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F333" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="334" spans="5:6">
       <c r="E334" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F334" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="335" spans="5:6">
       <c r="E335" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F335" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" spans="5:6">
       <c r="E336" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F336" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="337" spans="5:6">
       <c r="E337" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F337" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="338" spans="5:6">
       <c r="E338" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F338" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="339" spans="5:6">
       <c r="E339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="340" spans="5:6">
       <c r="E340" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F340" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="341" spans="5:6">
       <c r="E341" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F341" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="342" spans="5:6">
       <c r="E342" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F342" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="343" spans="5:6">
       <c r="E343" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F343" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="344" spans="5:6">
       <c r="E344" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F344" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="345" spans="5:6">
       <c r="E345" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F345" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="346" spans="5:6">
       <c r="E346" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F346" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="347" spans="5:6">
       <c r="E347" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F347" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="348" spans="5:6">
       <c r="E348" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F348" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="349" spans="5:6">
       <c r="E349" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F349" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="350" spans="5:6">
       <c r="E350" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F350" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="351" spans="5:6">
       <c r="E351" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F351" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="352" spans="5:6">
       <c r="E352" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F352" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353" spans="5:6">
       <c r="E353" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F353" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="5:6">
       <c r="E354" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F354" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="355" spans="5:6">
       <c r="E355" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F355" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="5:6">
       <c r="E356" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F356" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="357" spans="5:6">
       <c r="E357" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F357" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="5:6">
       <c r="E358" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F358" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="359" spans="5:6">
       <c r="E359" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F359" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="360" spans="5:6">
       <c r="E360" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F360" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="361" spans="5:6">
       <c r="E361" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F361" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="362" spans="5:6">
       <c r="E362" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F362" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="363" spans="5:6">
       <c r="E363" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F363" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="364" spans="5:6">
       <c r="E364" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F364" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="365" spans="5:6">
       <c r="E365" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F365" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="366" spans="5:6">
       <c r="E366" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F366" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="5:6">
       <c r="E367" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F367" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="5:6">
       <c r="E368" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F368" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="369" spans="5:6">
       <c r="E369" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F369" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="370" spans="5:6">
       <c r="E370" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F370" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="371" spans="5:6">
       <c r="E371" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F371" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="372" spans="5:6">
       <c r="E372" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F372" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="373" spans="5:6">
       <c r="E373" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F373" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="374" spans="5:6">
       <c r="E374" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F374" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="375" spans="5:6">
       <c r="E375" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F375" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="376" spans="5:6">
       <c r="E376" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F376" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="377" spans="5:6">
       <c r="E377" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F377" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="5:6">
       <c r="E378" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F378" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="379" spans="5:6">
       <c r="E379" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F379" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="5:6">
       <c r="E380" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F380" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="381" spans="5:6">
       <c r="E381" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F381" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="382" spans="5:6">
       <c r="E382" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F382" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="5:6">
       <c r="E383" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F383" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="5:6">
       <c r="E384" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F384" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="385" spans="5:6">
       <c r="E385" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F385" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="386" spans="5:6">
       <c r="E386" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F386" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="387" spans="5:6">
       <c r="E387" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F387" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="388" spans="5:6">
       <c r="E388" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F388" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="5:6">
       <c r="E389" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F389" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="390" spans="5:6">
       <c r="E390" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F390" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="391" spans="5:6">
       <c r="E391" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F391" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="392" spans="5:6">
       <c r="E392" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F392" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="5:6">
       <c r="E393" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F393" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="5:6">
       <c r="E394" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F394" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="395" spans="5:6">
       <c r="E395" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F395" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" spans="5:6">
       <c r="E396" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F396" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="397" spans="5:6">
       <c r="E397" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F397" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="398" spans="5:6">
       <c r="E398" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F398" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="399" spans="5:6">
       <c r="E399" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F399" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="400" spans="5:6">
       <c r="E400" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F400" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="401" spans="5:6">
       <c r="E401" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F401" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="5:6">
@@ -10285,3770 +10417,3770 @@
     </row>
     <row r="403" spans="5:6">
       <c r="E403" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F403" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="404" spans="5:6">
       <c r="E404" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F404" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="405" spans="5:6">
       <c r="E405" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F405" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="406" spans="5:6">
       <c r="E406" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F406" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="407" spans="5:6">
       <c r="E407" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F407" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="408" spans="5:6">
       <c r="E408" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F408" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="409" spans="5:6">
       <c r="E409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F409" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="410" spans="5:6">
       <c r="E410" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F410" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="411" spans="5:6">
       <c r="E411" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F411" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="412" spans="5:6">
       <c r="E412" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F412" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="413" spans="5:6">
       <c r="E413" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F413" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="414" spans="5:6">
       <c r="E414" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F414" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="415" spans="5:6">
       <c r="E415" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F415" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="416" spans="5:6">
       <c r="E416" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F416" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="417" spans="5:6">
       <c r="E417" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F417" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="418" spans="5:6">
       <c r="E418" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F418" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="419" spans="5:6">
       <c r="E419" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F419" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="420" spans="5:6">
       <c r="E420" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F420" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="421" spans="5:6">
       <c r="E421" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F421" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="422" spans="5:6">
       <c r="E422" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F422" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="423" spans="5:6">
       <c r="E423" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F423" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="424" spans="5:6">
       <c r="E424" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F424" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="425" spans="5:6">
       <c r="E425" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F425" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="426" spans="5:6">
       <c r="E426" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F426" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="427" spans="5:6">
       <c r="E427" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F427" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="428" spans="5:6">
       <c r="E428" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F428" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" spans="5:6">
       <c r="E429" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F429" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="430" spans="5:6">
       <c r="E430" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F430" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="431" spans="5:6">
       <c r="E431" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F431" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="432" spans="5:6">
       <c r="E432" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F432" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="433" spans="5:6">
       <c r="E433" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F433" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="434" spans="5:6">
       <c r="E434" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F434" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="435" spans="5:6">
       <c r="E435" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F435" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="436" spans="5:6">
       <c r="E436" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F436" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="437" spans="5:6">
       <c r="E437" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F437" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="438" spans="5:6">
       <c r="E438" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F438" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="439" spans="5:6">
       <c r="E439" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F439" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="440" spans="5:6">
       <c r="E440" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F440" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="441" spans="5:6">
       <c r="E441" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F441" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="442" spans="5:6">
       <c r="E442" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F442" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="443" spans="5:6">
       <c r="E443" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F443" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="444" spans="5:6">
       <c r="E444" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F444" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="445" spans="5:6">
       <c r="E445" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F445" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="446" spans="5:6">
       <c r="E446" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F446" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="447" spans="5:6">
       <c r="E447" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F447" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="448" spans="5:6">
       <c r="E448" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F448" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="449" spans="5:6">
       <c r="E449" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F449" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="450" spans="5:6">
       <c r="E450" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F450" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="451" spans="5:6">
       <c r="E451" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F451" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="452" spans="5:6">
       <c r="E452" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F452" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="453" spans="5:6">
       <c r="E453" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F453" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="454" spans="5:6">
       <c r="E454" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F454" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="455" spans="5:6">
       <c r="E455" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F455" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="456" spans="5:6">
       <c r="E456" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F456" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="5:6">
       <c r="E457" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F457" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="458" spans="5:6">
       <c r="E458" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F458" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="459" spans="5:6">
       <c r="E459" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F459" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460" spans="5:6">
       <c r="E460" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F460" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="461" spans="5:6">
       <c r="E461" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F461" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="462" spans="5:6">
       <c r="E462" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F462" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="463" spans="5:6">
       <c r="E463" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F463" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="464" spans="5:6">
       <c r="E464" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F464" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="465" spans="5:6">
       <c r="E465" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F465" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="466" spans="5:6">
       <c r="E466" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F466" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="467" spans="5:6">
       <c r="E467" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F467" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="468" spans="5:6">
       <c r="E468" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F468" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="469" spans="5:6">
       <c r="E469" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F469" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="470" spans="5:6">
       <c r="E470" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F470" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="5:6">
       <c r="E471" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F471" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="472" spans="5:6">
       <c r="E472" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F472" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="473" spans="5:6">
       <c r="E473" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F473" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="474" spans="5:6">
       <c r="E474" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F474" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="5:6">
       <c r="E475" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F475" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="476" spans="5:6">
       <c r="E476" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F476" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="477" spans="5:6">
       <c r="E477" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F477" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="478" spans="5:6">
       <c r="E478" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F478" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="479" spans="5:6">
       <c r="E479" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F479" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="480" spans="5:6">
       <c r="E480" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F480" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="481" spans="5:6">
       <c r="E481" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F481" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="482" spans="5:6">
       <c r="E482" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F482" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="5:6">
       <c r="E483" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F483" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="484" spans="5:6">
       <c r="E484" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F484" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="5:6">
       <c r="E485" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F485" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="486" spans="5:6">
       <c r="E486" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F486" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="487" spans="5:6">
       <c r="E487" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F487" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="488" spans="5:6">
       <c r="E488" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F488" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="489" spans="5:6">
       <c r="E489" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F489" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="490" spans="5:6">
       <c r="E490" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F490" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="491" spans="5:6">
       <c r="E491" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F491" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="492" spans="5:6">
       <c r="E492" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F492" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="493" spans="5:6">
       <c r="E493" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F493" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="494" spans="5:6">
       <c r="E494" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F494" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="495" spans="5:6">
       <c r="E495" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F495" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="496" spans="5:6">
       <c r="E496" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F496" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="497" spans="5:6">
       <c r="E497" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F497" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="498" spans="5:6">
       <c r="E498" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F498" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="499" spans="5:6">
       <c r="E499" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F499" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="500" spans="5:6">
       <c r="E500" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F500" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="501" spans="5:6">
       <c r="E501" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F501" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="502" spans="5:6">
       <c r="E502" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F502" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="503" spans="5:6">
       <c r="E503" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F503" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="504" spans="5:6">
       <c r="E504" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F504" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="505" spans="5:6">
       <c r="E505" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F505" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="506" spans="5:6">
       <c r="E506" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F506" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="507" spans="5:6">
       <c r="E507" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F507" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="508" spans="5:6">
       <c r="E508" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F508" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="509" spans="5:6">
       <c r="E509" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F509" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="510" spans="5:6">
       <c r="E510" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F510" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="511" spans="5:6">
       <c r="E511" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F511" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="512" spans="5:6">
       <c r="E512" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F512" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="513" spans="5:6">
       <c r="E513" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F513" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="514" spans="5:6">
       <c r="E514" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F514" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="515" spans="5:6">
       <c r="E515" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F515" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="516" spans="5:6">
       <c r="E516" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F516" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="517" spans="5:6">
       <c r="E517" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F517" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="518" spans="5:6">
       <c r="E518" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F518" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="519" spans="5:6">
       <c r="E519" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F519" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="520" spans="5:6">
       <c r="E520" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F520" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="521" spans="5:6">
       <c r="E521" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F521" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="522" spans="5:6">
       <c r="E522" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F522" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="523" spans="5:6">
       <c r="E523" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F523" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="524" spans="5:6">
       <c r="E524" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F524" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="525" spans="5:6">
       <c r="E525" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F525" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="526" spans="5:6">
       <c r="E526" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F526" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="527" spans="5:6">
       <c r="E527" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F527" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="528" spans="5:6">
       <c r="E528" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F528" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="529" spans="5:6">
       <c r="E529" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F529" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="530" spans="5:6">
       <c r="E530" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F530" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="531" spans="5:6">
       <c r="E531" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F531" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="532" spans="5:6">
       <c r="E532" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F532" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="533" spans="5:6">
       <c r="E533" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F533" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="534" spans="5:6">
       <c r="E534" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F534" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="535" spans="5:6">
       <c r="E535" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F535" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="536" spans="5:6">
       <c r="E536" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F536" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="537" spans="5:6">
       <c r="E537" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F537" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="538" spans="5:6">
       <c r="E538" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F538" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="539" spans="5:6">
       <c r="E539" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F539" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="540" spans="5:6">
       <c r="E540" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F540" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="541" spans="5:6">
       <c r="E541" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F541" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="542" spans="5:6">
       <c r="E542" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F542" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="543" spans="5:6">
       <c r="E543" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F543" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="544" spans="5:6">
       <c r="E544" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F544" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="545" spans="5:6">
       <c r="E545" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F545" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="546" spans="5:6">
       <c r="E546" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F546" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="547" spans="5:6">
       <c r="E547" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F547" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="548" spans="5:6">
       <c r="E548" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F548" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="549" spans="5:6">
       <c r="E549" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F549" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="550" spans="5:6">
       <c r="E550" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F550" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="551" spans="5:6">
       <c r="E551" t="s">
+        <v>648</v>
+      </c>
+      <c r="F551" t="s">
         <v>649</v>
-      </c>
-      <c r="F551" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="552" spans="5:6">
       <c r="E552" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F552" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="553" spans="5:6">
       <c r="E553" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F553" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="554" spans="5:6">
       <c r="E554" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F554" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="555" spans="5:6">
       <c r="E555" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F555" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="556" spans="5:6">
       <c r="E556" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F556" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="557" spans="5:6">
       <c r="E557" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F557" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="558" spans="5:6">
       <c r="E558" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F558" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="559" spans="5:6">
       <c r="E559" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F559" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="560" spans="5:6">
       <c r="E560" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F560" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="561" spans="5:6">
       <c r="E561" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F561" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="562" spans="5:6">
       <c r="E562" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F562" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="563" spans="5:6">
       <c r="E563" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F563" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="564" spans="5:6">
       <c r="E564" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F564" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="565" spans="5:6">
       <c r="E565" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F565" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="566" spans="5:6">
       <c r="E566" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F566" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="567" spans="5:6">
       <c r="E567" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F567" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="568" spans="5:6">
       <c r="E568" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F568" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="569" spans="5:6">
       <c r="E569" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F569" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="570" spans="5:6">
       <c r="E570" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F570" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="571" spans="5:6">
       <c r="E571" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F571" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="572" spans="5:6">
       <c r="E572" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F572" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="573" spans="5:6">
       <c r="E573" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F573" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="574" spans="5:6">
       <c r="E574" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F574" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="575" spans="5:6">
       <c r="E575" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F575" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="576" spans="5:6">
       <c r="E576" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F576" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="577" spans="5:6">
       <c r="E577" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F577" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="578" spans="5:6">
       <c r="E578" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F578" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="579" spans="5:6">
       <c r="E579" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F579" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="580" spans="5:6">
       <c r="E580" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F580" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="581" spans="5:6">
       <c r="E581" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F581" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="582" spans="5:6">
       <c r="E582" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F582" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="583" spans="5:6">
       <c r="E583" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F583" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="584" spans="5:6">
       <c r="E584" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F584" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="585" spans="5:6">
       <c r="E585" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F585" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="586" spans="5:6">
       <c r="E586" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F586" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="587" spans="5:6">
       <c r="E587" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F587" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="588" spans="5:6">
       <c r="E588" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F588" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="589" spans="5:6">
       <c r="E589" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F589" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="590" spans="5:6">
       <c r="E590" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F590" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="591" spans="5:6">
       <c r="E591" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F591" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="592" spans="5:6">
       <c r="E592" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F592" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="593" spans="5:6">
       <c r="E593" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F593" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="594" spans="5:6">
       <c r="E594" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F594" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="595" spans="5:6">
       <c r="E595" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F595" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="596" spans="5:6">
       <c r="E596" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F596" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="597" spans="5:6">
       <c r="E597" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F597" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="598" spans="5:6">
       <c r="E598" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F598" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="599" spans="5:6">
       <c r="E599" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F599" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="600" spans="5:6">
       <c r="E600" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F600" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="601" spans="5:6">
       <c r="E601" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F601" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="602" spans="5:6">
       <c r="E602" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F602" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="603" spans="5:6">
       <c r="E603" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F603" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="604" spans="5:6">
       <c r="E604" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F604" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="605" spans="5:6">
       <c r="E605" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F605" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="606" spans="5:6">
       <c r="E606" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F606" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="607" spans="5:6">
       <c r="E607" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F607" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="608" spans="5:6">
       <c r="E608" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F608" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="609" spans="5:6">
       <c r="E609" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F609" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="610" spans="5:6">
       <c r="E610" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F610" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="611" spans="5:6">
       <c r="E611" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F611" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="612" spans="5:6">
       <c r="E612" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F612" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="613" spans="5:6">
       <c r="E613" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F613" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="614" spans="5:6">
       <c r="E614" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F614" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="615" spans="5:6">
       <c r="E615" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F615" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="616" spans="5:6">
       <c r="E616" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F616" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="617" spans="5:6">
       <c r="E617" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F617" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="618" spans="5:6">
       <c r="E618" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F618" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="619" spans="5:6">
       <c r="E619" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F619" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="620" spans="5:6">
       <c r="E620" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F620" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="621" spans="5:6">
       <c r="E621" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F621" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="622" spans="5:6">
       <c r="E622" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F622" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="623" spans="5:6">
       <c r="E623" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F623" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="624" spans="5:6">
       <c r="E624" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F624" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="625" spans="5:6">
       <c r="E625" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F625" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="626" spans="5:6">
       <c r="E626" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F626" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="627" spans="5:6">
       <c r="E627" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F627" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="628" spans="5:6">
       <c r="E628" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F628" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="629" spans="5:6">
       <c r="E629" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F629" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="630" spans="5:6">
       <c r="E630" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F630" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="631" spans="5:6">
       <c r="E631" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F631" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="632" spans="5:6">
       <c r="E632" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F632" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="633" spans="5:6">
       <c r="E633" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F633" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="634" spans="5:6">
       <c r="E634" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F634" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="635" spans="5:6">
       <c r="E635" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F635" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="636" spans="5:6">
       <c r="E636" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F636" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="637" spans="5:6">
       <c r="E637" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F637" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="638" spans="5:6">
       <c r="E638" t="s">
+        <v>736</v>
+      </c>
+      <c r="F638" t="s">
         <v>737</v>
-      </c>
-      <c r="F638" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="639" spans="5:6">
       <c r="E639" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F639" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="640" spans="5:6">
       <c r="E640" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F640" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="641" spans="5:6">
       <c r="E641" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F641" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="642" spans="5:6">
       <c r="E642" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F642" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="643" spans="5:6">
       <c r="E643" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F643" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="644" spans="5:6">
       <c r="E644" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F644" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="645" spans="5:6">
       <c r="E645" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F645" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="646" spans="5:6">
       <c r="E646" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F646" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="647" spans="5:6">
       <c r="E647" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F647" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="648" spans="5:6">
       <c r="E648" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F648" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="649" spans="5:6">
       <c r="E649" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F649" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="650" spans="5:6">
       <c r="E650" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F650" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="651" spans="5:6">
       <c r="E651" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F651" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="652" spans="5:6">
       <c r="E652" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F652" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="653" spans="5:6">
       <c r="E653" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F653" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="654" spans="5:6">
       <c r="E654" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F654" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="655" spans="5:6">
       <c r="E655" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F655" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="656" spans="5:6">
       <c r="E656" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F656" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="657" spans="5:6">
       <c r="E657" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F657" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="658" spans="5:6">
       <c r="E658" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F658" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="659" spans="5:6">
       <c r="E659" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F659" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="660" spans="5:6">
       <c r="E660" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F660" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="661" spans="5:6">
       <c r="E661" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F661" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="662" spans="5:6">
       <c r="E662" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F662" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="663" spans="5:6">
       <c r="E663" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F663" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="664" spans="5:6">
       <c r="E664" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F664" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="665" spans="5:6">
       <c r="E665" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F665" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="666" spans="5:6">
       <c r="E666" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F666" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="667" spans="5:6">
       <c r="E667" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F667" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="668" spans="5:6">
       <c r="E668" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F668" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="669" spans="5:6">
       <c r="E669" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F669" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="670" spans="5:6">
       <c r="E670" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F670" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="671" spans="5:6">
       <c r="E671" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F671" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="672" spans="5:6">
       <c r="E672" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F672" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="673" spans="5:6">
       <c r="E673" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F673" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="674" spans="5:6">
       <c r="E674" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F674" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="675" spans="5:6">
       <c r="E675" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F675" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="676" spans="5:6">
       <c r="E676" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F676" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="677" spans="5:6">
       <c r="E677" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F677" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="678" spans="5:6">
       <c r="E678" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F678" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="679" spans="5:6">
       <c r="E679" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F679" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="680" spans="5:6">
       <c r="E680" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F680" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="681" spans="5:6">
       <c r="E681" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F681" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="682" spans="5:6">
       <c r="E682" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F682" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="683" spans="5:6">
       <c r="E683" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F683" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="684" spans="5:6">
       <c r="E684" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F684" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="685" spans="5:6">
       <c r="E685" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F685" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="686" spans="5:6">
       <c r="E686" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F686" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="687" spans="5:6">
       <c r="E687" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F687" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="688" spans="5:6">
       <c r="E688" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F688" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="689" spans="5:6">
       <c r="E689" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F689" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="690" spans="5:6">
       <c r="E690" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F690" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="691" spans="5:6">
       <c r="E691" t="s">
+        <v>790</v>
+      </c>
+      <c r="F691" t="s">
         <v>791</v>
-      </c>
-      <c r="F691" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="692" spans="5:6">
       <c r="E692" t="s">
+        <v>792</v>
+      </c>
+      <c r="F692" t="s">
         <v>793</v>
-      </c>
-      <c r="F692" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="693" spans="5:6">
       <c r="E693" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F693" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="694" spans="5:6">
       <c r="E694" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F694" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="695" spans="5:6">
       <c r="E695" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F695" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="696" spans="5:6">
       <c r="E696" t="s">
+        <v>797</v>
+      </c>
+      <c r="F696" t="s">
         <v>798</v>
-      </c>
-      <c r="F696" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="697" spans="5:6">
       <c r="E697" t="s">
+        <v>799</v>
+      </c>
+      <c r="F697" t="s">
         <v>800</v>
-      </c>
-      <c r="F697" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="698" spans="5:6">
       <c r="E698" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F698" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="699" spans="5:6">
       <c r="E699" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F699" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="700" spans="5:6">
       <c r="E700" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F700" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="701" spans="5:6">
       <c r="E701" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F701" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="702" spans="5:6">
       <c r="E702" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F702" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="703" spans="5:6">
       <c r="E703" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F703" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="704" spans="5:6">
       <c r="E704" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F704" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="705" spans="5:6">
       <c r="E705" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F705" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="706" spans="5:6">
       <c r="E706" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F706" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="707" spans="5:6">
       <c r="E707" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F707" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="708" spans="5:6">
       <c r="E708" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F708" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="709" spans="5:6">
       <c r="E709" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F709" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="710" spans="5:6">
       <c r="E710" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F710" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="711" spans="5:6">
       <c r="E711" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F711" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="712" spans="5:6">
       <c r="E712" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F712" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="713" spans="5:6">
       <c r="E713" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F713" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="714" spans="5:6">
       <c r="E714" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F714" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="715" spans="5:6">
       <c r="E715" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F715" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="716" spans="5:6">
       <c r="E716" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F716" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="717" spans="5:6">
       <c r="E717" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F717" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="718" spans="5:6">
       <c r="E718" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F718" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="719" spans="5:6">
       <c r="E719" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F719" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="720" spans="5:6">
       <c r="E720" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F720" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="721" spans="5:6">
       <c r="E721" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F721" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="722" spans="5:6">
       <c r="E722" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F722" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="723" spans="5:6">
       <c r="E723" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F723" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="724" spans="5:6">
       <c r="E724" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F724" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="725" spans="5:6">
       <c r="E725" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F725" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="726" spans="5:6">
       <c r="E726" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F726" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="727" spans="5:6">
       <c r="E727" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F727" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="728" spans="5:6">
       <c r="E728" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F728" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="729" spans="5:6">
       <c r="E729" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F729" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="730" spans="5:6">
       <c r="E730" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F730" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="731" spans="5:6">
       <c r="E731" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F731" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="732" spans="5:6">
       <c r="E732" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F732" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="733" spans="5:6">
       <c r="E733" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F733" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="734" spans="5:6">
       <c r="E734" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F734" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="735" spans="5:6">
       <c r="E735" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F735" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="736" spans="5:6">
       <c r="E736" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F736" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="737" spans="5:6">
       <c r="E737" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F737" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="738" spans="5:6">
       <c r="E738" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F738" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="739" spans="5:6">
       <c r="E739" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F739" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="740" spans="5:6">
       <c r="E740" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F740" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="741" spans="5:6">
       <c r="E741" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F741" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="742" spans="5:6">
       <c r="E742" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F742" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="743" spans="5:6">
       <c r="E743" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F743" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="744" spans="5:6">
       <c r="E744" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F744" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="745" spans="5:6">
       <c r="E745" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F745" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="746" spans="5:6">
       <c r="E746" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F746" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="747" spans="5:6">
       <c r="E747" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F747" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="748" spans="5:6">
       <c r="E748" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F748" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="749" spans="5:6">
       <c r="E749" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F749" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="750" spans="5:6">
       <c r="E750" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F750" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="751" spans="5:6">
       <c r="E751" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F751" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="752" spans="5:6">
       <c r="E752" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F752" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="753" spans="5:6">
       <c r="E753" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F753" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="754" spans="5:6">
       <c r="E754" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F754" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="755" spans="5:6">
       <c r="E755" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F755" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="756" spans="5:6">
       <c r="E756" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F756" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="757" spans="5:6">
       <c r="E757" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F757" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="758" spans="5:6">
       <c r="E758" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F758" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="759" spans="5:6">
       <c r="E759" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F759" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="760" spans="5:6">
       <c r="E760" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F760" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="761" spans="5:6">
       <c r="E761" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F761" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="762" spans="5:6">
       <c r="E762" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F762" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="763" spans="5:6">
       <c r="E763" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F763" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="764" spans="5:6">
       <c r="E764" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F764" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="765" spans="5:6">
       <c r="E765" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F765" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="766" spans="5:6">
       <c r="E766" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F766" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="767" spans="5:6">
       <c r="E767" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F767" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="768" spans="5:6">
       <c r="E768" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F768" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="769" spans="5:6">
       <c r="E769" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F769" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="770" spans="5:6">
       <c r="E770" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F770" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="771" spans="5:6">
       <c r="E771" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F771" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="772" spans="5:6">
       <c r="E772" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F772" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="773" spans="5:6">
       <c r="E773" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F773" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="774" spans="5:6">
       <c r="E774" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F774" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="775" spans="5:6">
       <c r="E775" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F775" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="776" spans="5:6">
       <c r="E776" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F776" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="777" spans="5:6">
       <c r="E777" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F777" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="778" spans="5:6">
       <c r="E778" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F778" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="779" spans="5:6">
       <c r="E779" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F779" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="780" spans="5:6">
       <c r="E780" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F780" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="781" spans="5:6">
       <c r="E781" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F781" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="782" spans="5:6">
       <c r="E782" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F782" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="783" spans="5:6">
       <c r="E783" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F783" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="784" spans="5:6">
       <c r="E784" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F784" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="785" spans="5:6">
       <c r="E785" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F785" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="786" spans="5:6">
       <c r="E786" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F786" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="787" spans="5:6">
       <c r="E787" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F787" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="788" spans="5:6">
       <c r="E788" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F788" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="789" spans="5:6">
       <c r="E789" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F789" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="790" spans="5:6">
       <c r="E790" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F790" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="791" spans="5:6">
       <c r="E791" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F791" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="792" spans="5:6">
       <c r="E792" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F792" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="793" spans="5:6">
       <c r="E793" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F793" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="794" spans="5:6">
       <c r="E794" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F794" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="795" spans="5:6">
       <c r="E795" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F795" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="796" spans="5:6">
       <c r="E796" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F796" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="797" spans="5:6">
       <c r="E797" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F797" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="798" spans="5:6">
       <c r="E798" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F798" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="799" spans="5:6">
       <c r="E799" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F799" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="800" spans="5:6">
       <c r="E800" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F800" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="801" spans="5:6">
       <c r="E801" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F801" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="802" spans="5:6">
       <c r="E802" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F802" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="803" spans="5:6">
       <c r="E803" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F803" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="804" spans="5:6">
       <c r="E804" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F804" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="805" spans="5:6">
       <c r="E805" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F805" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="806" spans="5:6">
       <c r="E806" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F806" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="807" spans="5:6">
       <c r="E807" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F807" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="808" spans="5:6">
       <c r="E808" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F808" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="809" spans="5:6">
       <c r="E809" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F809" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="810" spans="5:6">
       <c r="E810" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F810" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="811" spans="5:6">
       <c r="E811" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F811" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="812" spans="5:6">
       <c r="E812" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F812" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="813" spans="5:6">
       <c r="E813" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F813" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="814" spans="5:6">
       <c r="E814" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F814" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="815" spans="5:6">
       <c r="E815" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F815" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="816" spans="5:6">
       <c r="E816" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F816" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="817" spans="5:6">
       <c r="E817" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F817" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="818" spans="5:6">
       <c r="E818" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F818" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="819" spans="5:6">
       <c r="E819" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F819" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="820" spans="5:6">
       <c r="E820" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F820" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="821" spans="5:6">
       <c r="E821" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F821" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="822" spans="5:6">
       <c r="E822" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F822" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="823" spans="5:6">
       <c r="E823" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F823" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="824" spans="5:6">
       <c r="E824" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F824" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="825" spans="5:6">
       <c r="E825" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F825" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="826" spans="5:6">
       <c r="E826" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F826" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="827" spans="5:6">
       <c r="E827" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F827" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="828" spans="5:6">
       <c r="E828" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F828" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="829" spans="5:6">
       <c r="E829" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F829" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="830" spans="5:6">
       <c r="E830" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F830" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="831" spans="5:6">
       <c r="E831" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F831" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="832" spans="5:6">
       <c r="E832" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F832" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="833" spans="5:6">
       <c r="E833" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F833" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="834" spans="5:6">
       <c r="E834" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F834" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="835" spans="5:6">
       <c r="E835" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F835" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="836" spans="5:6">
       <c r="E836" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F836" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="837" spans="5:6">
       <c r="E837" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F837" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="838" spans="5:6">
       <c r="E838" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F838" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="839" spans="5:6">
       <c r="E839" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F839" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="840" spans="5:6">
       <c r="E840" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F840" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="841" spans="5:6">
       <c r="E841" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F841" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="842" spans="5:6">
       <c r="E842" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F842" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="843" spans="5:6">
       <c r="E843" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F843" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="844" spans="5:6">
       <c r="E844" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F844" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="845" spans="5:6">
       <c r="E845" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F845" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="846" spans="5:6">
       <c r="E846" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F846" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="847" spans="5:6">
       <c r="E847" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F847" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="848" spans="5:6">
       <c r="E848" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F848" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="849" spans="5:6">
       <c r="E849" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F849" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="850" spans="5:6">
       <c r="E850" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F850" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="851" spans="5:6">
       <c r="E851" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F851" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="852" spans="5:6">
       <c r="E852" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F852" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="853" spans="5:6">
       <c r="E853" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F853" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="854" spans="5:6">
       <c r="E854" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F854" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="855" spans="5:6">
       <c r="E855" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F855" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="856" spans="5:6">
       <c r="E856" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F856" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="857" spans="5:6">
       <c r="E857" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F857" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="858" spans="5:6">
       <c r="E858" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F858" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="859" spans="5:6">
       <c r="E859" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F859" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="860" spans="5:6">
       <c r="E860" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F860" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="861" spans="5:6">
       <c r="E861" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F861" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="862" spans="5:6">
       <c r="E862" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F862" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="863" spans="5:6">
       <c r="E863" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F863" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="864" spans="5:6">
       <c r="E864" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F864" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="865" spans="5:6">
       <c r="E865" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F865" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="866" spans="5:6">
       <c r="E866" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F866" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="867" spans="5:6">
       <c r="E867" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F867" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="868" spans="5:6">
       <c r="E868" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F868" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="869" spans="5:6">
       <c r="E869" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F869" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="870" spans="5:6">
       <c r="E870" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F870" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="871" spans="5:6">
       <c r="E871" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F871" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="872" spans="5:6">
       <c r="E872" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F872" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="873" spans="5:6">
       <c r="E873" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F873" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1058">
   <si>
     <r>
       <rPr>
@@ -5044,6 +5044,19 @@
   <si>
     <t>role/project/default/project-owner</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>http://localhost:9090</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_server_redirect_uri</t>
   </si>
 </sst>
 </file>
@@ -6696,7 +6709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="E11:F13"/>
     </sheetView>
   </sheetViews>
@@ -7026,10 +7039,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7088,7 +7101,9 @@
       <c r="L7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>1057</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
@@ -7118,6 +7133,36 @@
         <v>运营组织</v>
       </c>
       <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L9" t="str">
+        <f>fd_organization!E8</f>
+        <v>运营组织</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1055</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1059">
   <si>
     <r>
       <rPr>
@@ -5057,6 +5057,10 @@
   </si>
   <si>
     <t>web_server_redirect_uri</t>
+  </si>
+  <si>
+    <t>please edit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7042,7 +7046,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7056,7 +7060,8 @@
     <col min="10" max="10" width="26.5"/>
     <col min="11" max="11" width="14.125"/>
     <col min="12" max="12" width="14.625"/>
-    <col min="13" max="1025" width="9.75"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="1025" width="9.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7131,6 +7136,9 @@
       <c r="L8" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1058</v>
       </c>
       <c r="N8" s="2"/>
     </row>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6696,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="E11:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6956,19 +6956,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I9"/>
+  <dimension ref="D7:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7015,6 +7015,48 @@
       <c r="G9" t="str">
         <f>iam_label!E8</f>
         <v>project.owner</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="E10" t="str">
+        <f>iam_role!E13</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="F10" t="str">
+        <f>iam_role!E13</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="G10" t="str">
+        <f>iam_label!E8</f>
+        <v>project.owner</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="E11" t="str">
+        <f>iam_role!E13</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="F11" t="str">
+        <f>iam_role!E13</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="G11" t="str">
+        <f>iam_label!E10</f>
+        <v>gitlab.owner</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="E12" t="str">
+        <f>iam_role!E12</f>
+        <v>role/project/default/project-member</v>
+      </c>
+      <c r="F12" t="str">
+        <f>iam_role!E12</f>
+        <v>role/project/default/project-member</v>
+      </c>
+      <c r="G12" t="str">
+        <f>iam_label!E11</f>
+        <v>gitlab.developer</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1066">
   <si>
     <r>
       <rPr>
@@ -1837,9 +1837,6 @@
     <t>#name</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>$2a$10$nMyyMGXbmsipIb/E4b8EuePo1vkVKKWsxXHUpDch5gisNOJOCuLL6</t>
   </si>
   <si>
@@ -1901,9 +1898,6 @@
   </si>
   <si>
     <t>auto_approve</t>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
   </si>
   <si>
     <t>fd_organization</t>
@@ -5043,6 +5037,60 @@
   </si>
   <si>
     <t>role/project/default/project-owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_server_redirect_uri</t>
+  </si>
+  <si>
+    <t>please edit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5980,10 +6028,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6108,58 +6156,58 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="40" t="s">
+        <v>975</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>977</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="G7" s="40" t="s">
         <v>978</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>979</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>980</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>981</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>982</v>
       </c>
       <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10">
       <c r="E8" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="41" t="s">
+        <v>981</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>982</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>983</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>984</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>985</v>
       </c>
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="39" t="s">
+        <v>984</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>984</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>985</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>986</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>986</v>
-      </c>
-      <c r="G9" s="39" t="s">
+      <c r="I9" s="39" t="s">
         <v>987</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>988</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -6187,35 +6235,35 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="39" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F7" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>979</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>981</v>
-      </c>
       <c r="H7" s="39" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>991</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>992</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>992</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>993</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>994</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -6242,62 +6290,62 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="39" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F7" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>979</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>996</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>981</v>
-      </c>
       <c r="I7" s="39" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>fd_lookup!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J8" s="39"/>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="39" t="str">
         <f>fd_lookup!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -6327,39 +6375,39 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E7" t="s">
+        <v>976</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G7" t="s">
         <v>1012</v>
       </c>
-      <c r="E7" t="s">
-        <v>978</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>1013</v>
       </c>
-      <c r="G7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1015</v>
-      </c>
       <c r="I7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -6387,30 +6435,30 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -6442,44 +6490,44 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -6511,60 +6559,60 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>976</v>
+      </c>
+      <c r="F7" t="s">
         <v>1002</v>
       </c>
-      <c r="E7" t="s">
-        <v>978</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1004</v>
-      </c>
       <c r="G7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="E8" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F8" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="E9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="E10" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F10" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G10" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="E11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -6610,37 +6658,37 @@
     <row r="7" spans="1:17">
       <c r="A7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
@@ -6648,29 +6696,29 @@
     <row r="8" spans="1:17">
       <c r="A8" s="6"/>
       <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
       </c>
       <c r="K8" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -6718,51 +6766,51 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>76</v>
       </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G8" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6780,21 +6828,21 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F9" t="s">
         <v>1037</v>
       </c>
-      <c r="F9" t="s">
-        <v>1039</v>
-      </c>
       <c r="G9" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6812,21 +6860,21 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G10" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H10" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6844,21 +6892,21 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6876,21 +6924,21 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F12" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6908,21 +6956,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F13" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G13" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6940,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6958,7 +7006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -6975,16 +7023,16 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7068,10 +7116,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7085,26 +7133,27 @@
     <col min="10" max="10" width="26.5"/>
     <col min="11" max="11" width="14.125"/>
     <col min="12" max="12" width="14.625"/>
-    <col min="13" max="1025" width="9.75"/>
+    <col min="13" max="13" width="23.25" customWidth="1"/>
+    <col min="14" max="1025" width="9.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -7113,53 +7162,88 @@
         <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>1056</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>1059</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>1060</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>1057</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>1064</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>1057</v>
       </c>
       <c r="L8" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
       </c>
+      <c r="M8" t="s">
+        <v>1053</v>
+      </c>
       <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L9" t="str">
+        <f>fd_organization!E8</f>
+        <v>运营组织</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1065</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -7195,25 +7279,25 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" t="s">
         <v>90</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -7230,13 +7314,13 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="4:10">
@@ -7253,13 +7337,13 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7288,6941 +7372,6941 @@
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="E8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="E10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="E12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="E13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="E15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="4:6">
       <c r="E16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="5:6">
       <c r="E18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="5:6">
       <c r="E22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="5:6">
       <c r="E23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="5:6">
       <c r="E26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="5:6">
       <c r="E27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="5:6">
       <c r="E29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="5:6">
       <c r="E30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="5:6">
       <c r="E31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="5:6">
       <c r="E32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="5:6">
       <c r="E41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="5:6">
       <c r="E42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="5:6">
       <c r="E43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="5:6">
       <c r="E45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="5:6">
       <c r="E46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="5:6">
       <c r="E47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="5:6">
       <c r="E48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="5:6">
       <c r="E49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="5:6">
       <c r="E52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="5:6">
       <c r="E53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="5:6">
       <c r="E54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="5:6">
       <c r="E55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="5:6">
       <c r="E56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="5:6">
       <c r="E57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="5:6">
       <c r="E58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="5:6">
       <c r="E59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="5:6">
       <c r="E60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="5:6">
       <c r="E61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="5:6">
       <c r="E63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="5:6">
       <c r="E64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="E65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="5:6">
       <c r="E66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="5:6">
       <c r="E67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="5:6">
       <c r="E68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="5:6">
       <c r="E69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="5:6">
       <c r="E70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="5:6">
       <c r="E71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="E72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="5:6">
       <c r="E73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="5:6">
       <c r="E74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="5:6">
       <c r="E75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="5:6">
       <c r="E76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="5:6">
       <c r="E77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="5:6">
       <c r="E78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="5:6">
       <c r="E79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="5:6">
       <c r="E80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="5:6">
       <c r="E81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="5:6">
       <c r="E82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="5:6">
       <c r="E83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="5:6">
       <c r="E84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="5:6">
       <c r="E85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="5:6">
       <c r="E86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="5:6">
       <c r="E87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="5:6">
       <c r="E88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="5:6">
       <c r="E89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="5:6">
       <c r="E90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="5:6">
       <c r="E91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="5:6">
       <c r="E92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="5:6">
       <c r="E93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="5:6">
       <c r="E94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="5:6">
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="5:6">
       <c r="E96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="5:6">
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="5:6">
       <c r="E98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="5:6">
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="5:6">
       <c r="E100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="5:6">
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="5:6">
       <c r="E102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="5:6">
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="5:6">
       <c r="E104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="5:6">
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="5:6">
       <c r="E106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="5:6">
       <c r="E107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="5:6">
       <c r="E108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="5:6">
       <c r="E109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="5:6">
       <c r="E110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="5:6">
       <c r="E111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="5:6">
       <c r="E112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="5:6">
       <c r="E113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="5:6">
       <c r="E114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="5:6">
       <c r="E115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="5:6">
       <c r="E116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="5:6">
       <c r="E117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="5:6">
       <c r="E118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="5:6">
       <c r="E119" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F119" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="5:6">
       <c r="E120" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="5:6">
       <c r="E121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="5:6">
       <c r="E122" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F122" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="5:6">
       <c r="E123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="5:6">
       <c r="E124" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F124" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="5:6">
       <c r="E125" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F125" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="5:6">
       <c r="E126" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F126" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="5:6">
       <c r="E127" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F127" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="5:6">
       <c r="E128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="5:6">
       <c r="E129" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F129" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="5:6">
       <c r="E130" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F130" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="5:6">
       <c r="E131" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F131" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="5:6">
       <c r="E132" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="5:6">
       <c r="E133" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F133" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="5:6">
       <c r="E134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="5:6">
       <c r="E135" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F135" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="5:6">
       <c r="E136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="5:6">
       <c r="E137" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F137" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="5:6">
       <c r="E138" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F138" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="5:6">
       <c r="E139" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F139" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="5:6">
       <c r="E140" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F140" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="5:6">
       <c r="E141" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F141" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="5:6">
       <c r="E142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="5:6">
       <c r="E143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="5:6">
       <c r="E144" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F144" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="5:6">
       <c r="E145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="5:6">
       <c r="E146" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F146" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="5:6">
       <c r="E147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="5:6">
       <c r="E148" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F148" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="5:6">
       <c r="E149" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F149" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="5:6">
       <c r="E150" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F150" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="5:6">
       <c r="E151" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F151" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="5:6">
       <c r="E152" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F152" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="5:6">
       <c r="E153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="5:6">
       <c r="E154" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F154" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="5:6">
       <c r="E155" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F155" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="5:6">
       <c r="E156" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F156" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="5:6">
       <c r="E157" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F157" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="5:6">
       <c r="E158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="5:6">
       <c r="E159" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F159" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="5:6">
       <c r="E160" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F160" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="5:6">
       <c r="E161" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F161" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="5:6">
       <c r="E162" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F162" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" spans="5:6">
       <c r="E163" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F163" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="5:6">
       <c r="E164" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F164" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="5:6">
       <c r="E165" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F165" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="5:6">
       <c r="E166" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F166" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="5:6">
       <c r="E167" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F167" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="5:6">
       <c r="E168" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F168" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="5:6">
       <c r="E169" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F169" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="5:6">
       <c r="E170" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F170" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="5:6">
       <c r="E171" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F171" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="5:6">
       <c r="E172" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F172" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="5:6">
       <c r="E173" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F173" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="5:6">
       <c r="E174" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F174" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="5:6">
       <c r="E175" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F175" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="5:6">
       <c r="E176" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F176" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="5:6">
       <c r="E177" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="5:6">
       <c r="E178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F178" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="5:6">
       <c r="E179" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F179" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="5:6">
       <c r="E180" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F180" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="181" spans="5:6">
       <c r="E181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="182" spans="5:6">
       <c r="E182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="5:6">
       <c r="E183" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F183" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="5:6">
       <c r="E184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="5:6">
       <c r="E185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="5:6">
       <c r="E186" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F186" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="5:6">
       <c r="E187" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F187" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="5:6">
       <c r="E188" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F188" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="5:6">
       <c r="E189" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F189" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="5:6">
       <c r="E190" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F190" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="191" spans="5:6">
       <c r="E191" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F191" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="192" spans="5:6">
       <c r="E192" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F192" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="193" spans="5:6">
       <c r="E193" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F193" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="5:6">
       <c r="E194" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F194" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="195" spans="5:6">
       <c r="E195" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F195" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="5:6">
       <c r="E196" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F196" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="5:6">
       <c r="E197" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F197" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="198" spans="5:6">
       <c r="E198" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F198" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="5:6">
       <c r="E199" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F199" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="5:6">
       <c r="E200" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F200" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="5:6">
       <c r="E201" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F201" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="5:6">
       <c r="E202" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F202" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="203" spans="5:6">
       <c r="E203" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F203" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="5:6">
       <c r="E204" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F204" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="205" spans="5:6">
       <c r="E205" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F205" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206" spans="5:6">
       <c r="E206" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F206" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="5:6">
       <c r="E207" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F207" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="5:6">
       <c r="E208" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F208" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="209" spans="5:6">
       <c r="E209" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F209" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" spans="5:6">
       <c r="E210" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F210" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="211" spans="5:6">
       <c r="E211" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F211" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="5:6">
       <c r="E212" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F212" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" spans="5:6">
       <c r="E213" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F213" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" spans="5:6">
       <c r="E214" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F214" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215" spans="5:6">
       <c r="E215" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F215" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="5:6">
       <c r="E216" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F216" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="5:6">
       <c r="E217" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F217" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="5:6">
       <c r="E218" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F218" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="5:6">
       <c r="E219" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F219" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="5:6">
       <c r="E220" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F220" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="5:6">
       <c r="E221" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F221" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="5:6">
       <c r="E222" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F222" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="223" spans="5:6">
       <c r="E223" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F223" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="5:6">
       <c r="E224" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F224" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="5:6">
       <c r="E225" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F225" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="5:6">
       <c r="E226" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F226" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" spans="5:6">
       <c r="E227" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F227" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" spans="5:6">
       <c r="E228" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F228" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="5:6">
       <c r="E229" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F229" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="5:6">
       <c r="E230" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F230" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="5:6">
       <c r="E231" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F231" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="232" spans="5:6">
       <c r="E232" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F232" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="233" spans="5:6">
       <c r="E233" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F233" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="234" spans="5:6">
       <c r="E234" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F234" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" spans="5:6">
       <c r="E235" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F235" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="236" spans="5:6">
       <c r="E236" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F236" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" spans="5:6">
       <c r="E237" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F237" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238" spans="5:6">
       <c r="E238" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F238" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="5:6">
       <c r="E239" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F239" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" spans="5:6">
       <c r="E240" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F240" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" spans="5:6">
       <c r="E241" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F241" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="242" spans="5:6">
       <c r="E242" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F242" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="243" spans="5:6">
       <c r="E243" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F243" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" spans="5:6">
       <c r="E244" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F244" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="5:6">
       <c r="E245" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F245" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="246" spans="5:6">
       <c r="E246" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F246" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="247" spans="5:6">
       <c r="E247" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F247" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="248" spans="5:6">
       <c r="E248" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F248" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" spans="5:6">
       <c r="E249" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F249" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" spans="5:6">
       <c r="E250" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F250" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="5:6">
       <c r="E251" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F251" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="5:6">
       <c r="E252" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F252" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="5:6">
       <c r="E253" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F253" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="5:6">
       <c r="E254" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F254" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="255" spans="5:6">
       <c r="E255" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F255" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="5:6">
       <c r="E256" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F256" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" spans="5:6">
       <c r="E257" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F257" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="258" spans="5:6">
       <c r="E258" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F258" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="259" spans="5:6">
       <c r="E259" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F259" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="260" spans="5:6">
       <c r="E260" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F260" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="261" spans="5:6">
       <c r="E261" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F261" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="262" spans="5:6">
       <c r="E262" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F262" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="5:6">
       <c r="E263" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F263" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="264" spans="5:6">
       <c r="E264" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F264" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="265" spans="5:6">
       <c r="E265" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F265" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="266" spans="5:6">
       <c r="E266" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F266" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="267" spans="5:6">
       <c r="E267" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F267" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" spans="5:6">
       <c r="E268" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F268" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" spans="5:6">
       <c r="E269" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F269" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="270" spans="5:6">
       <c r="E270" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F270" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="271" spans="5:6">
       <c r="E271" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F271" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" spans="5:6">
       <c r="E272" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F272" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="273" spans="5:6">
       <c r="E273" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F273" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="274" spans="5:6">
       <c r="E274" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F274" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="275" spans="5:6">
       <c r="E275" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F275" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" spans="5:6">
       <c r="E276" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F276" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" spans="5:6">
       <c r="E277" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F277" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" spans="5:6">
       <c r="E278" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F278" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" spans="5:6">
       <c r="E279" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F279" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" spans="5:6">
       <c r="E280" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F280" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" spans="5:6">
       <c r="E281" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F281" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" spans="5:6">
       <c r="E282" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F282" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" spans="5:6">
       <c r="E283" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F283" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" spans="5:6">
       <c r="E284" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F284" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" spans="5:6">
       <c r="E285" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F285" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" spans="5:6">
       <c r="E286" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F286" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" spans="5:6">
       <c r="E287" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F287" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" spans="5:6">
       <c r="E288" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F288" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289" spans="5:6">
       <c r="E289" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F289" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" spans="5:6">
       <c r="E290" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F290" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" spans="5:6">
       <c r="E291" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F291" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" spans="5:6">
       <c r="E292" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F292" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" spans="5:6">
       <c r="E293" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F293" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" spans="5:6">
       <c r="E294" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F294" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" spans="5:6">
       <c r="E295" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F295" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="296" spans="5:6">
       <c r="E296" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F296" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" spans="5:6">
       <c r="E297" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F297" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" spans="5:6">
       <c r="E298" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F298" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" spans="5:6">
       <c r="E299" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F299" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="300" spans="5:6">
       <c r="E300" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F300" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" spans="5:6">
       <c r="E301" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F301" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="302" spans="5:6">
       <c r="E302" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F302" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" spans="5:6">
       <c r="E303" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F303" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" spans="5:6">
       <c r="E304" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F304" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" spans="5:6">
       <c r="E305" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F305" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" spans="5:6">
       <c r="E306" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F306" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" spans="5:6">
       <c r="E307" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F307" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" spans="5:6">
       <c r="E308" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F308" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" spans="5:6">
       <c r="E309" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F309" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" spans="5:6">
       <c r="E310" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F310" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" spans="5:6">
       <c r="E311" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F311" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="312" spans="5:6">
       <c r="E312" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F312" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="313" spans="5:6">
       <c r="E313" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F313" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="314" spans="5:6">
       <c r="E314" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F314" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="315" spans="5:6">
       <c r="E315" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F315" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="316" spans="5:6">
       <c r="E316" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F316" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" spans="5:6">
       <c r="E317" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F317" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318" spans="5:6">
       <c r="E318" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F318" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" spans="5:6">
       <c r="E319" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F319" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="320" spans="5:6">
       <c r="E320" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F320" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="321" spans="5:6">
       <c r="E321" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F321" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="322" spans="5:6">
       <c r="E322" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F322" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="323" spans="5:6">
       <c r="E323" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F323" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" spans="5:6">
       <c r="E324" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F324" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="325" spans="5:6">
       <c r="E325" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F325" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" spans="5:6">
       <c r="E326" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F326" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="327" spans="5:6">
       <c r="E327" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F327" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" spans="5:6">
       <c r="E328" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F328" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="329" spans="5:6">
       <c r="E329" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F329" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" spans="5:6">
       <c r="E330" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F330" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="331" spans="5:6">
       <c r="E331" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F331" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="332" spans="5:6">
       <c r="E332" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F332" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="333" spans="5:6">
       <c r="E333" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F333" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" spans="5:6">
       <c r="E334" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F334" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="335" spans="5:6">
       <c r="E335" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F335" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" spans="5:6">
       <c r="E336" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F336" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" spans="5:6">
       <c r="E337" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F337" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" spans="5:6">
       <c r="E338" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F338" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="339" spans="5:6">
       <c r="E339" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F339" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="340" spans="5:6">
       <c r="E340" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F340" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="341" spans="5:6">
       <c r="E341" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F341" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="342" spans="5:6">
       <c r="E342" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F342" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="343" spans="5:6">
       <c r="E343" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F343" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="344" spans="5:6">
       <c r="E344" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F344" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="345" spans="5:6">
       <c r="E345" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F345" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" spans="5:6">
       <c r="E346" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F346" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" spans="5:6">
       <c r="E347" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F347" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" spans="5:6">
       <c r="E348" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F348" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="349" spans="5:6">
       <c r="E349" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F349" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="350" spans="5:6">
       <c r="E350" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F350" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="351" spans="5:6">
       <c r="E351" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F351" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" spans="5:6">
       <c r="E352" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F352" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="353" spans="5:6">
       <c r="E353" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F353" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="354" spans="5:6">
       <c r="E354" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F354" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355" spans="5:6">
       <c r="E355" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F355" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" spans="5:6">
       <c r="E356" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F356" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="357" spans="5:6">
       <c r="E357" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F357" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" spans="5:6">
       <c r="E358" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F358" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" spans="5:6">
       <c r="E359" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F359" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" spans="5:6">
       <c r="E360" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F360" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="361" spans="5:6">
       <c r="E361" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F361" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="362" spans="5:6">
       <c r="E362" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F362" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="363" spans="5:6">
       <c r="E363" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F363" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="364" spans="5:6">
       <c r="E364" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F364" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365" spans="5:6">
       <c r="E365" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F365" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="366" spans="5:6">
       <c r="E366" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F366" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="367" spans="5:6">
       <c r="E367" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F367" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="368" spans="5:6">
       <c r="E368" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F368" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" spans="5:6">
       <c r="E369" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F369" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="5:6">
       <c r="E370" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F370" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="371" spans="5:6">
       <c r="E371" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F371" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="5:6">
       <c r="E372" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F372" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" spans="5:6">
       <c r="E373" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F373" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" spans="5:6">
       <c r="E374" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F374" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="375" spans="5:6">
       <c r="E375" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F375" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" spans="5:6">
       <c r="E376" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F376" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" spans="5:6">
       <c r="E377" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F377" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" spans="5:6">
       <c r="E378" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F378" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" spans="5:6">
       <c r="E379" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F379" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" spans="5:6">
       <c r="E380" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F380" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" spans="5:6">
       <c r="E381" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F381" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" spans="5:6">
       <c r="E382" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F382" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" spans="5:6">
       <c r="E383" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F383" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" spans="5:6">
       <c r="E384" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F384" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="5:6">
       <c r="E385" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F385" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="5:6">
       <c r="E386" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F386" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="387" spans="5:6">
       <c r="E387" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F387" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" spans="5:6">
       <c r="E388" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F388" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="5:6">
       <c r="E389" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F389" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" spans="5:6">
       <c r="E390" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F390" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="391" spans="5:6">
       <c r="E391" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F391" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="392" spans="5:6">
       <c r="E392" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F392" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="393" spans="5:6">
       <c r="E393" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F393" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="394" spans="5:6">
       <c r="E394" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F394" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" spans="5:6">
       <c r="E395" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F395" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" spans="5:6">
       <c r="E396" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F396" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" spans="5:6">
       <c r="E397" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F397" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" spans="5:6">
       <c r="E398" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F398" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="399" spans="5:6">
       <c r="E399" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F399" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="400" spans="5:6">
       <c r="E400" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F400" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="401" spans="5:6">
       <c r="E401" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F401" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="402" spans="5:6">
       <c r="E402" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F402" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="403" spans="5:6">
       <c r="E403" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F403" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="404" spans="5:6">
       <c r="E404" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F404" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="405" spans="5:6">
       <c r="E405" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F405" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="406" spans="5:6">
       <c r="E406" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F406" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="407" spans="5:6">
       <c r="E407" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F407" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" spans="5:6">
       <c r="E408" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F408" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="409" spans="5:6">
       <c r="E409" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F409" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" spans="5:6">
       <c r="E410" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F410" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" spans="5:6">
       <c r="E411" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F411" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="412" spans="5:6">
       <c r="E412" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F412" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="413" spans="5:6">
       <c r="E413" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F413" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="414" spans="5:6">
       <c r="E414" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F414" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="415" spans="5:6">
       <c r="E415" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F415" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="416" spans="5:6">
       <c r="E416" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F416" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="417" spans="5:6">
       <c r="E417" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F417" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="418" spans="5:6">
       <c r="E418" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F418" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="419" spans="5:6">
       <c r="E419" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F419" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="420" spans="5:6">
       <c r="E420" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F420" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="421" spans="5:6">
       <c r="E421" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F421" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="422" spans="5:6">
       <c r="E422" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F422" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="423" spans="5:6">
       <c r="E423" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F423" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="424" spans="5:6">
       <c r="E424" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F424" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="425" spans="5:6">
       <c r="E425" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F425" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="426" spans="5:6">
       <c r="E426" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F426" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="427" spans="5:6">
       <c r="E427" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F427" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="428" spans="5:6">
       <c r="E428" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F428" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="429" spans="5:6">
       <c r="E429" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F429" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="430" spans="5:6">
       <c r="E430" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F430" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" spans="5:6">
       <c r="E431" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F431" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="432" spans="5:6">
       <c r="E432" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F432" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="433" spans="5:6">
       <c r="E433" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F433" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="434" spans="5:6">
       <c r="E434" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F434" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="435" spans="5:6">
       <c r="E435" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F435" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="436" spans="5:6">
       <c r="E436" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F436" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="437" spans="5:6">
       <c r="E437" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F437" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="438" spans="5:6">
       <c r="E438" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F438" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="439" spans="5:6">
       <c r="E439" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F439" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="440" spans="5:6">
       <c r="E440" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F440" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="441" spans="5:6">
       <c r="E441" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F441" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="442" spans="5:6">
       <c r="E442" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F442" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="443" spans="5:6">
       <c r="E443" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F443" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="444" spans="5:6">
       <c r="E444" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F444" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="445" spans="5:6">
       <c r="E445" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F445" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="446" spans="5:6">
       <c r="E446" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F446" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="447" spans="5:6">
       <c r="E447" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F447" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="448" spans="5:6">
       <c r="E448" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F448" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="449" spans="5:6">
       <c r="E449" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F449" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="450" spans="5:6">
       <c r="E450" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F450" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="451" spans="5:6">
       <c r="E451" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F451" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="452" spans="5:6">
       <c r="E452" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F452" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="453" spans="5:6">
       <c r="E453" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F453" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="454" spans="5:6">
       <c r="E454" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F454" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="455" spans="5:6">
       <c r="E455" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F455" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="456" spans="5:6">
       <c r="E456" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F456" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="457" spans="5:6">
       <c r="E457" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F457" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="458" spans="5:6">
       <c r="E458" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F458" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="5:6">
       <c r="E459" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F459" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="460" spans="5:6">
       <c r="E460" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F460" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="461" spans="5:6">
       <c r="E461" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F461" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="462" spans="5:6">
       <c r="E462" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F462" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="463" spans="5:6">
       <c r="E463" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F463" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="464" spans="5:6">
       <c r="E464" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F464" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="465" spans="5:6">
       <c r="E465" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F465" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="466" spans="5:6">
       <c r="E466" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F466" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="467" spans="5:6">
       <c r="E467" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F467" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="468" spans="5:6">
       <c r="E468" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F468" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="469" spans="5:6">
       <c r="E469" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F469" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="470" spans="5:6">
       <c r="E470" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F470" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="471" spans="5:6">
       <c r="E471" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F471" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="472" spans="5:6">
       <c r="E472" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F472" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="473" spans="5:6">
       <c r="E473" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F473" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="474" spans="5:6">
       <c r="E474" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F474" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="475" spans="5:6">
       <c r="E475" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F475" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="476" spans="5:6">
       <c r="E476" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F476" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="5:6">
       <c r="E477" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F477" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="478" spans="5:6">
       <c r="E478" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F478" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="5:6">
       <c r="E479" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F479" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="480" spans="5:6">
       <c r="E480" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F480" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="481" spans="5:6">
       <c r="E481" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F481" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="482" spans="5:6">
       <c r="E482" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F482" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="483" spans="5:6">
       <c r="E483" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F483" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="484" spans="5:6">
       <c r="E484" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F484" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="5:6">
       <c r="E485" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F485" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="486" spans="5:6">
       <c r="E486" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F486" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="5:6">
       <c r="E487" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F487" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="488" spans="5:6">
       <c r="E488" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F488" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="489" spans="5:6">
       <c r="E489" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F489" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="490" spans="5:6">
       <c r="E490" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F490" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="491" spans="5:6">
       <c r="E491" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F491" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="492" spans="5:6">
       <c r="E492" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F492" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="493" spans="5:6">
       <c r="E493" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F493" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="494" spans="5:6">
       <c r="E494" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F494" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="495" spans="5:6">
       <c r="E495" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F495" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="496" spans="5:6">
       <c r="E496" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F496" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="497" spans="5:6">
       <c r="E497" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F497" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="498" spans="5:6">
       <c r="E498" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F498" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="499" spans="5:6">
       <c r="E499" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F499" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="500" spans="5:6">
       <c r="E500" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F500" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="501" spans="5:6">
       <c r="E501" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F501" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="502" spans="5:6">
       <c r="E502" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F502" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="503" spans="5:6">
       <c r="E503" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F503" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="504" spans="5:6">
       <c r="E504" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F504" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="505" spans="5:6">
       <c r="E505" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F505" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="506" spans="5:6">
       <c r="E506" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F506" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="507" spans="5:6">
       <c r="E507" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F507" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="508" spans="5:6">
       <c r="E508" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F508" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="509" spans="5:6">
       <c r="E509" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F509" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="510" spans="5:6">
       <c r="E510" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F510" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="511" spans="5:6">
       <c r="E511" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F511" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="512" spans="5:6">
       <c r="E512" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F512" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="513" spans="5:6">
       <c r="E513" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F513" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="514" spans="5:6">
       <c r="E514" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F514" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="515" spans="5:6">
       <c r="E515" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F515" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="516" spans="5:6">
       <c r="E516" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F516" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="517" spans="5:6">
       <c r="E517" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F517" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="518" spans="5:6">
       <c r="E518" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F518" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="519" spans="5:6">
       <c r="E519" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F519" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="520" spans="5:6">
       <c r="E520" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F520" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="521" spans="5:6">
       <c r="E521" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F521" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="522" spans="5:6">
       <c r="E522" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F522" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="523" spans="5:6">
       <c r="E523" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F523" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="524" spans="5:6">
       <c r="E524" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F524" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="525" spans="5:6">
       <c r="E525" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F525" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="526" spans="5:6">
       <c r="E526" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F526" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="527" spans="5:6">
       <c r="E527" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F527" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="528" spans="5:6">
       <c r="E528" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F528" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="529" spans="5:6">
       <c r="E529" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F529" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="530" spans="5:6">
       <c r="E530" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F530" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="531" spans="5:6">
       <c r="E531" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F531" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="532" spans="5:6">
       <c r="E532" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F532" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="533" spans="5:6">
       <c r="E533" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F533" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="534" spans="5:6">
       <c r="E534" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F534" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="535" spans="5:6">
       <c r="E535" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F535" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="536" spans="5:6">
       <c r="E536" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F536" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="537" spans="5:6">
       <c r="E537" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F537" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="538" spans="5:6">
       <c r="E538" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F538" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="539" spans="5:6">
       <c r="E539" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F539" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="540" spans="5:6">
       <c r="E540" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F540" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="541" spans="5:6">
       <c r="E541" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F541" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="542" spans="5:6">
       <c r="E542" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F542" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="543" spans="5:6">
       <c r="E543" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F543" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="544" spans="5:6">
       <c r="E544" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F544" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="545" spans="5:6">
       <c r="E545" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F545" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="546" spans="5:6">
       <c r="E546" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F546" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="547" spans="5:6">
       <c r="E547" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F547" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="548" spans="5:6">
       <c r="E548" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F548" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="549" spans="5:6">
       <c r="E549" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F549" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="550" spans="5:6">
       <c r="E550" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F550" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="551" spans="5:6">
       <c r="E551" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F551" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="552" spans="5:6">
       <c r="E552" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F552" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="553" spans="5:6">
       <c r="E553" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F553" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="554" spans="5:6">
       <c r="E554" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F554" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="555" spans="5:6">
       <c r="E555" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F555" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="556" spans="5:6">
       <c r="E556" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F556" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="557" spans="5:6">
       <c r="E557" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F557" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="558" spans="5:6">
       <c r="E558" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F558" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="559" spans="5:6">
       <c r="E559" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F559" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="560" spans="5:6">
       <c r="E560" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F560" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="561" spans="5:6">
       <c r="E561" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F561" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="562" spans="5:6">
       <c r="E562" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F562" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="563" spans="5:6">
       <c r="E563" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F563" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="564" spans="5:6">
       <c r="E564" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F564" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="565" spans="5:6">
       <c r="E565" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F565" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="566" spans="5:6">
       <c r="E566" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F566" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="567" spans="5:6">
       <c r="E567" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F567" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="568" spans="5:6">
       <c r="E568" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F568" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="569" spans="5:6">
       <c r="E569" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F569" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="570" spans="5:6">
       <c r="E570" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F570" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="571" spans="5:6">
       <c r="E571" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F571" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="572" spans="5:6">
       <c r="E572" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F572" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="573" spans="5:6">
       <c r="E573" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F573" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="574" spans="5:6">
       <c r="E574" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F574" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="575" spans="5:6">
       <c r="E575" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F575" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="576" spans="5:6">
       <c r="E576" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F576" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="577" spans="5:6">
       <c r="E577" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F577" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="578" spans="5:6">
       <c r="E578" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F578" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="579" spans="5:6">
       <c r="E579" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F579" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="580" spans="5:6">
       <c r="E580" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F580" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="581" spans="5:6">
       <c r="E581" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F581" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="582" spans="5:6">
       <c r="E582" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F582" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="583" spans="5:6">
       <c r="E583" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F583" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="584" spans="5:6">
       <c r="E584" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F584" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="585" spans="5:6">
       <c r="E585" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F585" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="586" spans="5:6">
       <c r="E586" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F586" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="587" spans="5:6">
       <c r="E587" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F587" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="588" spans="5:6">
       <c r="E588" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F588" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="589" spans="5:6">
       <c r="E589" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F589" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="590" spans="5:6">
       <c r="E590" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F590" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="591" spans="5:6">
       <c r="E591" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F591" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="592" spans="5:6">
       <c r="E592" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F592" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="593" spans="5:6">
       <c r="E593" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F593" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="594" spans="5:6">
       <c r="E594" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F594" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="595" spans="5:6">
       <c r="E595" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F595" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="596" spans="5:6">
       <c r="E596" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F596" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="597" spans="5:6">
       <c r="E597" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F597" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="598" spans="5:6">
       <c r="E598" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F598" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="599" spans="5:6">
       <c r="E599" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F599" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="600" spans="5:6">
       <c r="E600" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F600" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="601" spans="5:6">
       <c r="E601" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F601" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="602" spans="5:6">
       <c r="E602" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F602" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="603" spans="5:6">
       <c r="E603" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F603" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="604" spans="5:6">
       <c r="E604" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F604" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="605" spans="5:6">
       <c r="E605" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F605" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="606" spans="5:6">
       <c r="E606" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F606" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="607" spans="5:6">
       <c r="E607" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F607" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="608" spans="5:6">
       <c r="E608" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F608" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="609" spans="5:6">
       <c r="E609" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F609" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="610" spans="5:6">
       <c r="E610" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F610" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="611" spans="5:6">
       <c r="E611" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F611" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="612" spans="5:6">
       <c r="E612" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F612" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="613" spans="5:6">
       <c r="E613" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F613" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="614" spans="5:6">
       <c r="E614" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F614" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="615" spans="5:6">
       <c r="E615" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F615" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="616" spans="5:6">
       <c r="E616" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F616" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="617" spans="5:6">
       <c r="E617" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F617" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="618" spans="5:6">
       <c r="E618" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F618" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="619" spans="5:6">
       <c r="E619" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F619" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="620" spans="5:6">
       <c r="E620" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F620" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="621" spans="5:6">
       <c r="E621" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F621" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="622" spans="5:6">
       <c r="E622" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F622" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="623" spans="5:6">
       <c r="E623" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F623" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="624" spans="5:6">
       <c r="E624" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F624" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="625" spans="5:6">
       <c r="E625" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F625" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="626" spans="5:6">
       <c r="E626" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F626" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="627" spans="5:6">
       <c r="E627" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F627" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="628" spans="5:6">
       <c r="E628" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F628" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="629" spans="5:6">
       <c r="E629" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F629" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="630" spans="5:6">
       <c r="E630" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F630" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="631" spans="5:6">
       <c r="E631" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F631" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="632" spans="5:6">
       <c r="E632" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F632" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="633" spans="5:6">
       <c r="E633" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F633" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="634" spans="5:6">
       <c r="E634" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F634" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="635" spans="5:6">
       <c r="E635" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F635" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="636" spans="5:6">
       <c r="E636" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F636" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="637" spans="5:6">
       <c r="E637" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F637" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="638" spans="5:6">
       <c r="E638" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F638" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="639" spans="5:6">
       <c r="E639" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F639" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="640" spans="5:6">
       <c r="E640" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F640" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="641" spans="5:6">
       <c r="E641" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F641" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="642" spans="5:6">
       <c r="E642" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F642" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="643" spans="5:6">
       <c r="E643" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F643" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="644" spans="5:6">
       <c r="E644" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F644" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="645" spans="5:6">
       <c r="E645" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F645" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="646" spans="5:6">
       <c r="E646" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F646" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="647" spans="5:6">
       <c r="E647" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F647" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="648" spans="5:6">
       <c r="E648" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F648" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="649" spans="5:6">
       <c r="E649" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F649" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="650" spans="5:6">
       <c r="E650" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F650" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="651" spans="5:6">
       <c r="E651" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F651" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="652" spans="5:6">
       <c r="E652" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F652" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="653" spans="5:6">
       <c r="E653" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F653" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="654" spans="5:6">
       <c r="E654" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F654" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="655" spans="5:6">
       <c r="E655" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F655" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="656" spans="5:6">
       <c r="E656" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F656" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="657" spans="5:6">
       <c r="E657" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F657" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="658" spans="5:6">
       <c r="E658" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F658" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="659" spans="5:6">
       <c r="E659" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F659" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="660" spans="5:6">
       <c r="E660" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F660" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="661" spans="5:6">
       <c r="E661" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F661" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="662" spans="5:6">
       <c r="E662" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F662" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="663" spans="5:6">
       <c r="E663" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F663" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="664" spans="5:6">
       <c r="E664" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F664" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="665" spans="5:6">
       <c r="E665" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F665" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="666" spans="5:6">
       <c r="E666" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F666" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="667" spans="5:6">
       <c r="E667" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F667" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="668" spans="5:6">
       <c r="E668" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F668" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="669" spans="5:6">
       <c r="E669" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F669" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="670" spans="5:6">
       <c r="E670" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F670" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="671" spans="5:6">
       <c r="E671" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F671" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="672" spans="5:6">
       <c r="E672" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F672" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="673" spans="5:6">
       <c r="E673" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F673" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="674" spans="5:6">
       <c r="E674" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F674" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="675" spans="5:6">
       <c r="E675" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F675" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="676" spans="5:6">
       <c r="E676" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F676" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="677" spans="5:6">
       <c r="E677" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F677" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="678" spans="5:6">
       <c r="E678" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F678" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="679" spans="5:6">
       <c r="E679" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F679" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="680" spans="5:6">
       <c r="E680" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F680" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="681" spans="5:6">
       <c r="E681" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F681" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="682" spans="5:6">
       <c r="E682" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F682" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="683" spans="5:6">
       <c r="E683" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F683" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="684" spans="5:6">
       <c r="E684" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F684" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="685" spans="5:6">
       <c r="E685" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F685" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="686" spans="5:6">
       <c r="E686" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F686" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="687" spans="5:6">
       <c r="E687" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F687" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="688" spans="5:6">
       <c r="E688" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F688" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="689" spans="5:6">
       <c r="E689" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F689" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="690" spans="5:6">
       <c r="E690" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F690" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="691" spans="5:6">
       <c r="E691" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F691" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="692" spans="5:6">
       <c r="E692" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F692" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="693" spans="5:6">
       <c r="E693" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F693" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="694" spans="5:6">
       <c r="E694" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F694" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="695" spans="5:6">
       <c r="E695" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F695" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="696" spans="5:6">
       <c r="E696" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F696" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="697" spans="5:6">
       <c r="E697" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F697" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="698" spans="5:6">
       <c r="E698" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F698" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="699" spans="5:6">
       <c r="E699" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F699" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="700" spans="5:6">
       <c r="E700" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F700" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="701" spans="5:6">
       <c r="E701" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F701" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="702" spans="5:6">
       <c r="E702" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F702" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="703" spans="5:6">
       <c r="E703" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F703" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="704" spans="5:6">
       <c r="E704" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F704" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="705" spans="5:6">
       <c r="E705" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F705" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="706" spans="5:6">
       <c r="E706" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F706" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="707" spans="5:6">
       <c r="E707" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F707" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="708" spans="5:6">
       <c r="E708" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F708" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="709" spans="5:6">
       <c r="E709" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F709" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="710" spans="5:6">
       <c r="E710" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F710" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="711" spans="5:6">
       <c r="E711" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F711" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="712" spans="5:6">
       <c r="E712" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F712" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="713" spans="5:6">
       <c r="E713" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F713" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="714" spans="5:6">
       <c r="E714" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F714" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="715" spans="5:6">
       <c r="E715" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F715" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="716" spans="5:6">
       <c r="E716" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F716" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="717" spans="5:6">
       <c r="E717" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F717" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="718" spans="5:6">
       <c r="E718" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F718" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="719" spans="5:6">
       <c r="E719" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F719" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="720" spans="5:6">
       <c r="E720" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F720" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="721" spans="5:6">
       <c r="E721" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F721" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="722" spans="5:6">
       <c r="E722" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F722" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="723" spans="5:6">
       <c r="E723" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F723" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="724" spans="5:6">
       <c r="E724" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F724" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="725" spans="5:6">
       <c r="E725" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F725" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="726" spans="5:6">
       <c r="E726" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F726" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="727" spans="5:6">
       <c r="E727" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F727" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="728" spans="5:6">
       <c r="E728" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F728" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="729" spans="5:6">
       <c r="E729" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F729" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="730" spans="5:6">
       <c r="E730" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F730" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="731" spans="5:6">
       <c r="E731" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F731" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="732" spans="5:6">
       <c r="E732" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F732" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="733" spans="5:6">
       <c r="E733" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F733" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="734" spans="5:6">
       <c r="E734" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F734" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="735" spans="5:6">
       <c r="E735" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F735" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="736" spans="5:6">
       <c r="E736" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F736" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="737" spans="5:6">
       <c r="E737" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F737" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="738" spans="5:6">
       <c r="E738" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F738" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="739" spans="5:6">
       <c r="E739" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F739" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="740" spans="5:6">
       <c r="E740" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F740" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="741" spans="5:6">
       <c r="E741" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F741" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="742" spans="5:6">
       <c r="E742" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F742" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="743" spans="5:6">
       <c r="E743" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F743" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="744" spans="5:6">
       <c r="E744" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F744" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="745" spans="5:6">
       <c r="E745" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F745" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="746" spans="5:6">
       <c r="E746" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F746" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="747" spans="5:6">
       <c r="E747" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F747" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="748" spans="5:6">
       <c r="E748" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F748" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="749" spans="5:6">
       <c r="E749" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F749" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="750" spans="5:6">
       <c r="E750" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F750" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="751" spans="5:6">
       <c r="E751" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F751" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="752" spans="5:6">
       <c r="E752" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F752" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="753" spans="5:6">
       <c r="E753" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F753" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="754" spans="5:6">
       <c r="E754" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F754" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="755" spans="5:6">
       <c r="E755" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F755" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="756" spans="5:6">
       <c r="E756" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F756" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="757" spans="5:6">
       <c r="E757" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F757" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="758" spans="5:6">
       <c r="E758" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F758" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="759" spans="5:6">
       <c r="E759" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F759" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="760" spans="5:6">
       <c r="E760" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F760" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="761" spans="5:6">
       <c r="E761" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F761" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="762" spans="5:6">
       <c r="E762" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F762" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="763" spans="5:6">
       <c r="E763" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F763" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="764" spans="5:6">
       <c r="E764" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F764" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="765" spans="5:6">
       <c r="E765" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F765" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="766" spans="5:6">
       <c r="E766" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F766" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="767" spans="5:6">
       <c r="E767" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F767" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="768" spans="5:6">
       <c r="E768" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F768" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="769" spans="5:6">
       <c r="E769" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F769" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="770" spans="5:6">
       <c r="E770" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F770" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="771" spans="5:6">
       <c r="E771" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F771" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="772" spans="5:6">
       <c r="E772" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F772" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="773" spans="5:6">
       <c r="E773" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F773" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="774" spans="5:6">
       <c r="E774" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F774" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="775" spans="5:6">
       <c r="E775" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F775" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="776" spans="5:6">
       <c r="E776" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F776" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="777" spans="5:6">
       <c r="E777" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F777" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="778" spans="5:6">
       <c r="E778" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F778" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="779" spans="5:6">
       <c r="E779" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F779" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="780" spans="5:6">
       <c r="E780" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F780" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="781" spans="5:6">
       <c r="E781" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F781" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="782" spans="5:6">
       <c r="E782" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F782" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="783" spans="5:6">
       <c r="E783" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F783" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="784" spans="5:6">
       <c r="E784" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F784" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="785" spans="5:6">
       <c r="E785" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F785" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="786" spans="5:6">
       <c r="E786" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F786" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="787" spans="5:6">
       <c r="E787" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F787" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="788" spans="5:6">
       <c r="E788" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F788" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="789" spans="5:6">
       <c r="E789" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F789" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="790" spans="5:6">
       <c r="E790" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F790" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="791" spans="5:6">
       <c r="E791" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F791" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="792" spans="5:6">
       <c r="E792" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F792" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="793" spans="5:6">
       <c r="E793" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F793" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="794" spans="5:6">
       <c r="E794" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F794" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="795" spans="5:6">
       <c r="E795" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F795" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="796" spans="5:6">
       <c r="E796" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F796" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="797" spans="5:6">
       <c r="E797" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F797" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="798" spans="5:6">
       <c r="E798" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F798" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="799" spans="5:6">
       <c r="E799" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F799" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="800" spans="5:6">
       <c r="E800" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F800" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="801" spans="5:6">
       <c r="E801" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F801" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="802" spans="5:6">
       <c r="E802" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F802" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="803" spans="5:6">
       <c r="E803" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F803" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="804" spans="5:6">
       <c r="E804" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F804" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="805" spans="5:6">
       <c r="E805" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F805" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="806" spans="5:6">
       <c r="E806" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F806" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="807" spans="5:6">
       <c r="E807" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F807" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="808" spans="5:6">
       <c r="E808" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F808" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="809" spans="5:6">
       <c r="E809" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F809" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="810" spans="5:6">
       <c r="E810" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F810" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="811" spans="5:6">
       <c r="E811" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F811" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="812" spans="5:6">
       <c r="E812" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F812" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="813" spans="5:6">
       <c r="E813" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F813" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="814" spans="5:6">
       <c r="E814" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F814" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="815" spans="5:6">
       <c r="E815" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F815" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="816" spans="5:6">
       <c r="E816" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F816" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="817" spans="5:6">
       <c r="E817" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F817" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="818" spans="5:6">
       <c r="E818" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F818" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="819" spans="5:6">
       <c r="E819" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F819" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="820" spans="5:6">
       <c r="E820" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F820" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="821" spans="5:6">
       <c r="E821" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F821" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="822" spans="5:6">
       <c r="E822" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F822" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="823" spans="5:6">
       <c r="E823" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F823" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="824" spans="5:6">
       <c r="E824" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F824" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="825" spans="5:6">
       <c r="E825" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F825" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="826" spans="5:6">
       <c r="E826" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F826" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="827" spans="5:6">
       <c r="E827" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F827" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="828" spans="5:6">
       <c r="E828" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F828" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="829" spans="5:6">
       <c r="E829" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F829" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="830" spans="5:6">
       <c r="E830" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F830" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="831" spans="5:6">
       <c r="E831" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F831" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="832" spans="5:6">
       <c r="E832" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F832" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="833" spans="5:6">
       <c r="E833" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F833" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="834" spans="5:6">
       <c r="E834" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F834" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="835" spans="5:6">
       <c r="E835" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F835" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="836" spans="5:6">
       <c r="E836" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F836" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="837" spans="5:6">
       <c r="E837" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F837" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="838" spans="5:6">
       <c r="E838" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F838" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="839" spans="5:6">
       <c r="E839" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F839" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="840" spans="5:6">
       <c r="E840" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F840" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="841" spans="5:6">
       <c r="E841" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F841" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="842" spans="5:6">
       <c r="E842" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F842" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="843" spans="5:6">
       <c r="E843" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F843" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="844" spans="5:6">
       <c r="E844" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F844" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="845" spans="5:6">
       <c r="E845" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F845" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="846" spans="5:6">
       <c r="E846" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F846" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="847" spans="5:6">
       <c r="E847" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F847" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="848" spans="5:6">
       <c r="E848" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F848" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="849" spans="5:6">
       <c r="E849" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F849" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="850" spans="5:6">
       <c r="E850" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F850" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="851" spans="5:6">
       <c r="E851" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F851" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="852" spans="5:6">
       <c r="E852" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F852" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="853" spans="5:6">
       <c r="E853" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F853" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="854" spans="5:6">
       <c r="E854" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F854" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="855" spans="5:6">
       <c r="E855" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F855" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="856" spans="5:6">
       <c r="E856" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F856" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="857" spans="5:6">
       <c r="E857" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F857" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="858" spans="5:6">
       <c r="E858" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F858" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="859" spans="5:6">
       <c r="E859" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F859" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="860" spans="5:6">
       <c r="E860" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F860" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="861" spans="5:6">
       <c r="E861" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F861" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="862" spans="5:6">
       <c r="E862" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F862" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="863" spans="5:6">
       <c r="E863" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F863" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="864" spans="5:6">
       <c r="E864" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F864" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="865" spans="5:6">
       <c r="E865" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F865" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="866" spans="5:6">
       <c r="E866" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F866" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="867" spans="5:6">
       <c r="E867" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F867" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="868" spans="5:6">
       <c r="E868" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F868" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="869" spans="5:6">
       <c r="E869" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F869" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="870" spans="5:6">
       <c r="E870" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F870" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="871" spans="5:6">
       <c r="E871" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F871" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="872" spans="5:6">
       <c r="E872" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F872" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="873" spans="5:6">
       <c r="E873" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F873" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="195">
   <si>
     <r>
       <rPr>
@@ -2461,6 +2461,26 @@
   </si>
   <si>
     <t>http://localhost:9090</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project member</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -4287,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4319,9 +4339,8 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
-      <c r="E8" t="str">
-        <f>iam_role!E8</f>
-        <v>role/site/default/administrator</v>
+      <c r="E8" t="s">
+        <v>190</v>
       </c>
       <c r="F8" t="str">
         <f>iam_role!E9</f>
@@ -4333,9 +4352,8 @@
       </c>
     </row>
     <row r="9" spans="4:9">
-      <c r="E9" t="str">
-        <f>iam_role!E9</f>
-        <v>role/orgainzation/default/administrator</v>
+      <c r="E9" t="s">
+        <v>191</v>
       </c>
       <c r="F9" t="str">
         <f>iam_role!E10</f>
@@ -4347,9 +4365,8 @@
       </c>
     </row>
     <row r="10" spans="4:9">
-      <c r="E10" t="str">
-        <f>iam_role!E13</f>
-        <v>role/project/default/project-owner</v>
+      <c r="E10" t="s">
+        <v>192</v>
       </c>
       <c r="F10" t="str">
         <f>iam_role!E13</f>
@@ -4361,9 +4378,8 @@
       </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="E11" t="str">
-        <f>iam_role!E13</f>
-        <v>role/project/default/project-owner</v>
+      <c r="E11" t="s">
+        <v>193</v>
       </c>
       <c r="F11" t="str">
         <f>iam_role!E13</f>
@@ -4375,9 +4391,8 @@
       </c>
     </row>
     <row r="12" spans="4:9">
-      <c r="E12" t="str">
-        <f>iam_role!E12</f>
-        <v>role/project/default/project-member</v>
+      <c r="E12" t="s">
+        <v>194</v>
       </c>
       <c r="F12" t="str">
         <f>iam_role!E12</f>
@@ -4642,7 +4657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
   <si>
     <r>
       <rPr>
@@ -4305,10 +4305,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I12"/>
+  <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4342,35 +4342,37 @@
       <c r="E8" t="s">
         <v>190</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="2" t="str">
         <f>iam_role!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="2" t="str">
+        <f>iam_label!E10</f>
+        <v>gitlab.owner</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" t="str">
+        <f>iam_role!E9</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G9" t="str">
         <f>iam_label!E9</f>
         <v>organization.owner</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
-      <c r="E9" t="s">
+    <row r="10" spans="4:9">
+      <c r="E10" t="s">
         <v>191</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <f>iam_role!E10</f>
         <v>role/project/default/administrator</v>
-      </c>
-      <c r="G9" t="str">
-        <f>iam_label!E8</f>
-        <v>project.owner</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9">
-      <c r="E10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" t="str">
-        <f>iam_role!E13</f>
-        <v>role/project/default/project-owner</v>
       </c>
       <c r="G10" t="str">
         <f>iam_label!E8</f>
@@ -4379,26 +4381,39 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" t="str">
         <f>iam_role!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
       <c r="G11" t="str">
+        <f>iam_label!E8</f>
+        <v>project.owner</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="str">
+        <f>iam_role!E13</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="G12" t="str">
         <f>iam_label!E10</f>
         <v>gitlab.owner</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
-      <c r="E12" t="s">
+    <row r="13" spans="4:9">
+      <c r="E13" t="s">
         <v>194</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F13" t="str">
         <f>iam_role!E12</f>
         <v>role/project/default/project-member</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G13" t="str">
         <f>iam_label!E11</f>
         <v>gitlab.developer</v>
       </c>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="194">
   <si>
     <r>
       <rPr>
@@ -2260,227 +2260,224 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>oauth_password_policy</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enabled</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab.developer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.owner</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_label</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#role_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#label_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/orgainzation/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_class</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deploy Administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/deploy-administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_server_redirect_uri</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>please edit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>oauth_password_policy</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enabled</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab.developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_role_label</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#role_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#label_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/orgainzation/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_class</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>please edit</t>
-  </si>
-  <si>
-    <t>部署管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deploy Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/deploy-administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>web_server_redirect_uri</t>
-  </si>
-  <si>
-    <t>please edit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project member</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3661,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3691,24 +3688,24 @@
         <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3736,10 +3733,10 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
         <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>140</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -3753,13 +3750,13 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
         <v>141</v>
-      </c>
-      <c r="G8" t="s">
-        <v>142</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3817,7 +3814,7 @@
         <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3874,24 +3871,24 @@
     </row>
     <row r="8" spans="4:7">
       <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
         <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="4:7">
@@ -3899,7 +3896,7 @@
         <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
         <v>125</v>
@@ -3910,7 +3907,7 @@
         <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
         <v>125</v>
@@ -3989,7 +3986,7 @@
         <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4070,7 +4067,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -4102,10 +4099,10 @@
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
         <v>131</v>
@@ -4134,10 +4131,10 @@
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
         <v>132</v>
@@ -4166,16 +4163,16 @@
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4198,16 +4195,16 @@
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4230,16 +4227,16 @@
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4262,16 +4259,16 @@
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4307,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4324,23 +4321,23 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>iam_role!E9</f>
@@ -4355,7 +4352,7 @@
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F9" t="str">
         <f>iam_role!E9</f>
@@ -4368,7 +4365,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" t="str">
         <f>iam_role!E10</f>
@@ -4381,7 +4378,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F11" t="str">
         <f>iam_role!E13</f>
@@ -4394,7 +4391,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F12" t="str">
         <f>iam_role!E13</f>
@@ -4407,7 +4404,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F13" t="str">
         <f>iam_role!E12</f>
@@ -4430,7 +4427,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4491,7 +4488,7 @@
         <v>69</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -4500,60 +4497,57 @@
         <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L8" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
       </c>
-      <c r="M8" t="s">
-        <v>177</v>
-      </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" t="s">
         <v>178</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>182</v>
       </c>
-      <c r="G9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" t="s">
-        <v>185</v>
-      </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L9" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +4566,7 @@
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4648,7 +4642,7 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9">
         <v>1</v>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -2478,6 +2478,34 @@
   </si>
   <si>
     <t>please edit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.wiki.admin</t>
+  </si>
+  <si>
+    <t>organization.wiki.user</t>
+  </si>
+  <si>
+    <t>project.wiki.admin</t>
+  </si>
+  <si>
+    <t>project.wiki.user</t>
+  </si>
+  <si>
+    <t>organization wiki admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization wiki user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project wiki admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project wiki user</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3658,7 +3686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3844,10 +3872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G11"/>
+  <dimension ref="D7:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3910,6 +3938,50 @@
         <v>145</v>
       </c>
       <c r="G11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4302,10 +4374,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I13"/>
+  <dimension ref="D7:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4365,52 +4437,104 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" t="str">
+        <f>iam_role!E9</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G10" t="str">
+        <f>iam_label!E12</f>
+        <v>organization.wiki.admin</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="E11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" t="str">
+        <f>iam_role!E9</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G11" t="str">
+        <f>iam_label!E13</f>
+        <v>organization.wiki.user</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="E12" t="s">
         <v>188</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F12" t="str">
         <f>iam_role!E10</f>
         <v>role/project/default/administrator</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G12" t="str">
         <f>iam_label!E8</f>
         <v>project.owner</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
-      <c r="E11" t="s">
+    <row r="13" spans="4:9">
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="str">
+        <f>iam_role!E10</f>
+        <v>role/project/default/administrator</v>
+      </c>
+      <c r="G13" t="str">
+        <f>iam_label!E14</f>
+        <v>project.wiki.admin</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" t="str">
+        <f>iam_role!E10</f>
+        <v>role/project/default/administrator</v>
+      </c>
+      <c r="G14" t="str">
+        <f>iam_label!E15</f>
+        <v>project.wiki.user</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="E15" t="s">
         <v>189</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F15" t="str">
         <f>iam_role!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G15" t="str">
         <f>iam_label!E8</f>
         <v>project.owner</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
-      <c r="E12" t="s">
+    <row r="16" spans="4:9">
+      <c r="E16" t="s">
         <v>190</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F16" t="str">
         <f>iam_role!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G16" t="str">
         <f>iam_label!E10</f>
         <v>gitlab.owner</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
-      <c r="E13" t="s">
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
         <v>191</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F17" t="str">
         <f>iam_role!E12</f>
         <v>role/project/default/project-member</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G17" t="str">
         <f>iam_label!E11</f>
         <v>gitlab.developer</v>
       </c>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_workspace\gitlab\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="206">
   <si>
     <r>
       <rPr>
@@ -2506,6 +2506,22 @@
   </si>
   <si>
     <t>project wiki user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/organization-member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织成员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization Member</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -4112,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N13"/>
+  <dimension ref="B7:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4132,6 +4148,7 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4359,6 +4376,38 @@
       </c>
       <c r="N13" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14">
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4376,8 +4425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4453,8 +4502,8 @@
         <v>199</v>
       </c>
       <c r="F11" t="str">
-        <f>iam_role!E9</f>
-        <v>role/orgainzation/default/administrator</v>
+        <f>iam_role!E14</f>
+        <v>role/organization/default/organization-member</v>
       </c>
       <c r="G11" t="str">
         <f>iam_label!E13</f>
@@ -4479,8 +4528,8 @@
         <v>200</v>
       </c>
       <c r="F13" t="str">
-        <f>iam_role!E10</f>
-        <v>role/project/default/administrator</v>
+        <f>iam_role!E13</f>
+        <v>role/project/default/project-owner</v>
       </c>
       <c r="G13" t="str">
         <f>iam_label!E14</f>
@@ -4492,8 +4541,8 @@
         <v>201</v>
       </c>
       <c r="F14" t="str">
-        <f>iam_role!E10</f>
-        <v>role/project/default/administrator</v>
+        <f>iam_role!E12</f>
+        <v>role/project/default/project-member</v>
       </c>
       <c r="G14" t="str">
         <f>iam_label!E15</f>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="223">
   <si>
     <r>
       <rPr>
@@ -2122,11 +2122,135 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>fd_language</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>中文(简体)</t>
+  </si>
+  <si>
+    <t>Chinese(Simplified)</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>英文(美式)</t>
+  </si>
+  <si>
+    <t>English(US)</t>
+  </si>
+  <si>
+    <t>fd_lookup</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_ZONE</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>fd_lookup_value</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_id</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>美国/纽约</t>
+  </si>
+  <si>
+    <t>America/New_York</t>
+  </si>
+  <si>
+    <t>中国/上海</t>
+  </si>
+  <si>
+    <t>Asia/Shanghai</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>#name</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>fd_language</t>
+    <t>#type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_ldap</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#organization_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_address</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_password_policy</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -2134,394 +2258,339 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>#code</t>
+    <t>choerodon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enabled</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.owner</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_label</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#role_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#label_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/orgainzation/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_class</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deploy Administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/deploy-administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_server_redirect_uri</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9090</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project administrator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>please edit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.wiki.admin</t>
+  </si>
+  <si>
+    <t>organization.wiki.user</t>
+  </si>
+  <si>
+    <t>project.wiki.admin</t>
+  </si>
+  <si>
+    <t>project.wiki.user</t>
+  </si>
+  <si>
+    <t>organization wiki admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization wiki user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project wiki admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project wiki user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/organization/default/organization-member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织成员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization Member</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.gitlab.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization.gitlab.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.gitlab.owner</t>
+  </si>
+  <si>
+    <t>project.gitlab.owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.gitlab.developer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.gitlab.developer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织层gitlab所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab开发者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织层wiki管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织层wiki用户</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目层wiki管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目层wiki用户</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目层gitlab所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>中文(简体)</t>
-  </si>
-  <si>
-    <t>Chinese(Simplified)</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>英文(美式)</t>
-  </si>
-  <si>
-    <t>English(US)</t>
-  </si>
-  <si>
-    <t>fd_lookup</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_ZONE</t>
-  </si>
-  <si>
-    <t>时区</t>
-  </si>
-  <si>
-    <t>Time Zone</t>
-  </si>
-  <si>
-    <t>fd_lookup_value</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>lookup_id</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>美国/纽约</t>
-  </si>
-  <si>
-    <t>America/New_York</t>
-  </si>
-  <si>
-    <t>中国/上海</t>
-  </si>
-  <si>
-    <t>Asia/Shanghai</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#type</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab.owner</t>
-  </si>
-  <si>
-    <t>gitlab.developer</t>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>oauth_ldap</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#organization_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>server_address</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>oauth_password_policy</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enabled</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab.developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_role_label</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#role_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#label_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/orgainzation/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_class</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deploy Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/deploy-administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>web_server_redirect_uri</t>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>person</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>please edit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.wiki.admin</t>
-  </si>
-  <si>
-    <t>organization.wiki.user</t>
-  </si>
-  <si>
-    <t>project.wiki.admin</t>
-  </si>
-  <si>
-    <t>project.wiki.user</t>
-  </si>
-  <si>
-    <t>organization wiki admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization wiki user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project wiki admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project wiki user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/organization-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Member</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3577,35 +3646,35 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>113</v>
-      </c>
       <c r="F7" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>104</v>
       </c>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="H8" s="39" t="s">
         <v>115</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>116</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -3632,42 +3701,42 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>118</v>
-      </c>
       <c r="H7" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>104</v>
       </c>
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>fd_lookup!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>120</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>121</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -3684,10 +3753,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>123</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -3717,39 +3786,39 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
         <v>134</v>
       </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" t="s">
-        <v>137</v>
-      </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3777,30 +3846,30 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3818,7 +3887,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3852,13 +3921,13 @@
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3869,7 +3938,7 @@
         <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -3888,117 +3957,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G15"/>
+  <dimension ref="D7:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="E8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
-      <c r="E9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="E10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+      <c r="H10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>124</v>
+      </c>
+      <c r="H11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>124</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4216,7 @@
         <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4130,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4156,7 +4298,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -4188,13 +4330,13 @@
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
@@ -4220,13 +4362,13 @@
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
@@ -4252,16 +4394,16 @@
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4284,16 +4426,16 @@
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4316,16 +4458,16 @@
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4348,16 +4490,16 @@
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4380,16 +4522,16 @@
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4407,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4425,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4442,23 +4584,23 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>iam_role!E9</f>
@@ -4466,14 +4608,14 @@
       </c>
       <c r="G8" s="2" t="str">
         <f>iam_label!E10</f>
-        <v>gitlab.owner</v>
+        <v>organization.gitlab.owner</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F9" t="str">
         <f>iam_role!E9</f>
@@ -4486,7 +4628,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F10" t="str">
         <f>iam_role!E9</f>
@@ -4499,7 +4641,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F11" t="str">
         <f>iam_role!E14</f>
@@ -4512,7 +4654,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F12" t="str">
         <f>iam_role!E10</f>
@@ -4525,7 +4667,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F13" t="str">
         <f>iam_role!E13</f>
@@ -4538,7 +4680,7 @@
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F14" t="str">
         <f>iam_role!E12</f>
@@ -4551,7 +4693,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F15" t="str">
         <f>iam_role!E13</f>
@@ -4564,20 +4706,20 @@
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F16" t="str">
         <f>iam_role!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
       <c r="G16" t="str">
-        <f>iam_label!E10</f>
-        <v>gitlab.owner</v>
+        <f>iam_label!E16</f>
+        <v>project.gitlab.owner</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F17" t="str">
         <f>iam_role!E12</f>
@@ -4585,7 +4727,7 @@
       </c>
       <c r="G17" t="str">
         <f>iam_label!E11</f>
-        <v>gitlab.developer</v>
+        <v>project.gitlab.developer</v>
       </c>
     </row>
   </sheetData>
@@ -4661,7 +4803,7 @@
         <v>69</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -4670,22 +4812,22 @@
         <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L8" t="str">
         <f>fd_organization!E8</f>
@@ -4695,32 +4837,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" t="s">
         <v>179</v>
       </c>
-      <c r="G9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J9" t="s">
-        <v>184</v>
-      </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L9" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4815,7 +4957,7 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4864,22 +5006,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="G7" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>104</v>
       </c>
       <c r="J7" s="40"/>
     </row>
@@ -4891,31 +5033,31 @@
         <v>56</v>
       </c>
       <c r="G8" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="I8" s="39" t="s">
         <v>106</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>107</v>
       </c>
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="39" t="s">
+      <c r="H9" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -2592,6 +2592,25 @@
   <si>
     <t>name</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_captcha</t>
+  </si>
+  <si>
+    <t>enable_lock</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_security</t>
+  </si>
+  <si>
+    <t>max_check_captcha</t>
+  </si>
+  <si>
+    <t>max_error_time</t>
+  </si>
+  <si>
+    <t>locked_expire_time</t>
   </si>
 </sst>
 </file>
@@ -3830,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H8"/>
+  <dimension ref="D7:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3842,9 +3861,13 @@
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
         <v>135</v>
       </c>
@@ -3860,8 +3883,26 @@
       <c r="H7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="4:8">
+      <c r="I7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" t="s">
+        <v>227</v>
+      </c>
+      <c r="N7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14">
       <c r="E8" t="s">
         <v>139</v>
       </c>
@@ -3873,6 +3914,24 @@
       </c>
       <c r="H8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4567,8 +4626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="234">
   <si>
     <r>
       <rPr>
@@ -2611,6 +2611,26 @@
   </si>
   <si>
     <t>locked_expire_time</t>
+  </si>
+  <si>
+    <t>project.deploy.admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab部署管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>project deploy admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3851,7 +3871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -4016,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I16"/>
+  <dimension ref="D7:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4200,6 +4220,23 @@
       </c>
       <c r="I16" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4332,7 +4369,7 @@
   <dimension ref="B7:N14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4624,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I17"/>
+  <dimension ref="D7:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4787,6 +4824,19 @@
       <c r="G17" t="str">
         <f>iam_label!E11</f>
         <v>project.gitlab.developer</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="str">
+        <f>iam_role!E11</f>
+        <v>role/project/default/deploy-administrator</v>
+      </c>
+      <c r="G18" t="str">
+        <f>iam_label!E17</f>
+        <v>project.deploy.admin</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="234">
   <si>
     <r>
       <rPr>
@@ -4661,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I18"/>
+  <dimension ref="D7:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4837,6 +4837,19 @@
       <c r="G18" t="str">
         <f>iam_label!E17</f>
         <v>project.deploy.admin</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" t="str">
+        <f>iam_role!E11</f>
+        <v>role/project/default/deploy-administrator</v>
+      </c>
+      <c r="G19" t="str">
+        <f>iam_label!E8</f>
+        <v>project.owner</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Program\choerodon-gitlab\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9372" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -2630,6 +2630,17 @@
   </si>
   <si>
     <t>project deploy admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>Site Developer</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3423,15 +3434,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="9.75" style="13"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2"/>
-    <col min="5" max="1025" width="9.75"/>
+    <col min="1" max="2" width="9.7265625" style="13"/>
+    <col min="3" max="3" width="100.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="2"/>
+    <col min="5" max="1025" width="9.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="63.9" customHeight="1">
       <c r="A1" s="14"/>
       <c r="C1" s="43" t="s">
         <v>0</v>
@@ -3447,7 +3458,7 @@
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="48.9" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="42" t="s">
         <v>1</v>
@@ -3459,7 +3470,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4"/>
       <c r="C4" s="45" t="s">
         <v>3</v>
@@ -3505,7 +3516,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="157.5">
+    <row r="9" spans="1:8" ht="140.4">
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="171.6">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3541,7 +3552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="46.8">
       <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
@@ -3562,7 +3573,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:8" ht="118.5">
+    <row r="15" spans="1:8" ht="111">
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
@@ -3645,7 +3656,7 @@
       </c>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="31.2">
       <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
@@ -3674,13 +3685,13 @@
       <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -3731,11 +3742,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
@@ -3814,13 +3825,13 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -3875,16 +3886,16 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -3969,13 +3980,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="9.75"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.75"/>
+    <col min="1" max="3" width="9.7265625"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7265625"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="9.75"/>
+    <col min="9" max="1025" width="9.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4042,11 +4053,11 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="5" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -4253,19 +4264,19 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="8.875"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="77.625" customWidth="1"/>
-    <col min="8" max="8" width="24.375"/>
-    <col min="10" max="10" width="9.75"/>
-    <col min="11" max="11" width="13.875"/>
-    <col min="12" max="12" width="8.875"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="1024" width="8.875"/>
+    <col min="1" max="3" width="8.90625"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="7" width="77.6328125" customWidth="1"/>
+    <col min="8" max="8" width="24.36328125"/>
+    <col min="10" max="10" width="9.7265625"/>
+    <col min="11" max="11" width="13.90625"/>
+    <col min="12" max="12" width="8.90625"/>
+    <col min="13" max="13" width="10.7265625" customWidth="1"/>
+    <col min="14" max="1024" width="8.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4366,27 +4377,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N14"/>
+  <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="43.25" customWidth="1"/>
-    <col min="6" max="6" width="44.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="43.26953125" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="8" max="8" width="36.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4646,6 +4657,38 @@
       </c>
       <c r="N14" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14">
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4663,19 +4706,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="39.08984375" customWidth="1"/>
+    <col min="6" max="6" width="42.36328125" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -4867,19 +4910,19 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.75"/>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9.75"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.75"/>
-    <col min="10" max="10" width="26.5"/>
-    <col min="11" max="11" width="14.125"/>
-    <col min="12" max="12" width="14.625"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
-    <col min="14" max="1025" width="9.75"/>
+    <col min="1" max="1" width="9.7265625"/>
+    <col min="2" max="2" width="2.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="9.7265625"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7265625"/>
+    <col min="10" max="10" width="26.453125"/>
+    <col min="11" max="11" width="14.08984375"/>
+    <col min="12" max="12" width="14.6328125"/>
+    <col min="13" max="13" width="23.26953125" customWidth="1"/>
+    <col min="14" max="1025" width="9.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5006,17 +5049,17 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="9.75"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="35.25"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="9.75"/>
+    <col min="1" max="2" width="9.7265625"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125"/>
+    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="9.7265625"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
@@ -5107,17 +5150,17 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="39" customWidth="1"/>
+    <col min="1" max="3" width="8.453125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="22.36328125" style="39" customWidth="1"/>
     <col min="9" max="9" width="21" style="39" customWidth="1"/>
-    <col min="10" max="1025" width="8.5" style="39" customWidth="1"/>
-    <col min="1026" max="16384" width="8.875" style="39"/>
+    <col min="10" max="1025" width="8.453125" style="39" customWidth="1"/>
+    <col min="1026" max="16384" width="8.90625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5147,7 +5190,7 @@
       </c>
       <c r="J7" s="40"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16.2">
       <c r="E8" s="40" t="s">
         <v>56</v>
       </c>
@@ -5165,7 +5208,7 @@
       </c>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16.2">
       <c r="E9" s="39" t="s">
         <v>107</v>
       </c>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9372" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9372" tabRatio="987" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="238">
   <si>
     <r>
       <rPr>
@@ -2641,6 +2641,10 @@
   </si>
   <si>
     <t>Site Developer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -4379,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5043,10 +5047,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:J9"/>
+  <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5129,6 +5133,29 @@
       </c>
       <c r="J9" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="E10" t="str">
+        <f>iam_role!E15</f>
+        <v>role/site/default/developer</v>
+      </c>
+      <c r="F10" t="str">
+        <f>iam_role!F15</f>
+        <v>role/site/default/developer</v>
+      </c>
+      <c r="G10" t="str">
+        <f>iam_user!E8</f>
+        <v>admin</v>
+      </c>
+      <c r="H10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -4383,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5050,7 +5050,7 @@
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5141,7 +5141,7 @@
         <v>role/site/default/developer</v>
       </c>
       <c r="F10" t="str">
-        <f>iam_role!F15</f>
+        <f>iam_role!E15</f>
         <v>role/site/default/developer</v>
       </c>
       <c r="G10" t="str">

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Program\choerodon-gitlab\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9372" tabRatio="987" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2507,10 +2507,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2645,6 +2641,10 @@
   </si>
   <si>
     <t>user</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_level</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3438,15 +3438,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.7265625" style="13"/>
-    <col min="3" max="3" width="100.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="2"/>
-    <col min="5" max="1025" width="9.7265625"/>
+    <col min="1" max="2" width="9.75" style="13"/>
+    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2"/>
+    <col min="5" max="1025" width="9.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1">
+    <row r="1" spans="1:8" ht="63.95" customHeight="1">
       <c r="A1" s="14"/>
       <c r="C1" s="43" t="s">
         <v>0</v>
@@ -3462,7 +3462,7 @@
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.9" customHeight="1">
+    <row r="3" spans="1:8" ht="48.95" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="42" t="s">
         <v>1</v>
@@ -3474,7 +3474,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4"/>
       <c r="C4" s="45" t="s">
         <v>3</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="140.4">
+    <row r="9" spans="1:8" ht="157.5">
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="171.6">
+    <row r="10" spans="1:8" ht="204.75">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.8">
+    <row r="12" spans="1:8" ht="47.25">
       <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:8" ht="111">
+    <row r="15" spans="1:8" ht="118.5">
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="3:5" ht="31.2">
+    <row r="27" spans="3:5" ht="31.5">
       <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
@@ -3689,13 +3689,13 @@
       <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -3746,11 +3746,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
@@ -3829,13 +3829,13 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -3890,16 +3890,16 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -3919,22 +3919,22 @@
         <v>133</v>
       </c>
       <c r="I7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" t="s">
         <v>223</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>224</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>225</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>226</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>227</v>
-      </c>
-      <c r="N7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="4:14">
@@ -3984,13 +3984,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="9.7265625"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.7265625"/>
+    <col min="1" max="3" width="9.75"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.75"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="9.7265625"/>
+    <col min="9" max="1025" width="9.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4015,7 +4015,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>71</v>
@@ -4053,15 +4053,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -4078,10 +4078,10 @@
         <v>126</v>
       </c>
       <c r="H7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" t="s">
         <v>201</v>
-      </c>
-      <c r="I7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="4:9">
@@ -4095,10 +4095,10 @@
         <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="4:9">
@@ -4112,44 +4112,44 @@
         <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" t="s">
-        <v>207</v>
       </c>
       <c r="G10" t="s">
         <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
         <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="4:9">
@@ -4163,10 +4163,10 @@
         <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="4:9">
@@ -4180,10 +4180,10 @@
         <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="4:9">
@@ -4197,10 +4197,10 @@
         <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="4:9">
@@ -4214,44 +4214,44 @@
         <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" t="s">
         <v>208</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>209</v>
       </c>
-      <c r="G16" t="s">
-        <v>210</v>
-      </c>
       <c r="H16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" t="s">
         <v>229</v>
       </c>
-      <c r="F17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>230</v>
-      </c>
-      <c r="I17" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4268,19 +4268,19 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.90625"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="77.6328125" customWidth="1"/>
-    <col min="8" max="8" width="24.36328125"/>
-    <col min="10" max="10" width="9.7265625"/>
-    <col min="11" max="11" width="13.90625"/>
-    <col min="12" max="12" width="8.90625"/>
-    <col min="13" max="13" width="10.7265625" customWidth="1"/>
-    <col min="14" max="1024" width="8.90625"/>
+    <col min="1" max="3" width="8.875"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="77.625" customWidth="1"/>
+    <col min="8" max="8" width="24.375"/>
+    <col min="10" max="10" width="9.75"/>
+    <col min="11" max="11" width="13.875"/>
+    <col min="12" max="12" width="8.875"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="1024" width="8.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4387,21 +4387,21 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="43.26953125" customWidth="1"/>
-    <col min="6" max="6" width="44.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="8" width="36.453125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="8.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="44.25" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4665,16 +4665,16 @@
     </row>
     <row r="15" spans="4:14">
       <c r="E15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" t="s">
         <v>234</v>
       </c>
-      <c r="F15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>235</v>
-      </c>
-      <c r="H15" t="s">
-        <v>236</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4714,15 +4714,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="5" width="39.08984375" customWidth="1"/>
-    <col min="6" max="6" width="42.36328125" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -4875,7 +4875,7 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" t="str">
         <f>iam_role!E11</f>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" t="str">
         <f>iam_role!E11</f>
@@ -4914,19 +4914,19 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.7265625"/>
-    <col min="2" max="2" width="2.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9.7265625"/>
-    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7265625"/>
-    <col min="10" max="10" width="26.453125"/>
-    <col min="11" max="11" width="14.08984375"/>
-    <col min="12" max="12" width="14.6328125"/>
-    <col min="13" max="13" width="23.26953125" customWidth="1"/>
-    <col min="14" max="1025" width="9.7265625"/>
+    <col min="1" max="1" width="9.75"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="9.75"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.75"/>
+    <col min="10" max="10" width="26.5"/>
+    <col min="11" max="11" width="14.125"/>
+    <col min="12" max="12" width="14.625"/>
+    <col min="13" max="13" width="23.25" customWidth="1"/>
+    <col min="14" max="1025" width="9.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5049,21 +5049,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.7265625"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125"/>
-    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="9.7265625"/>
+    <col min="1" max="2" width="9.75"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="35.25"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="9.75"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
@@ -5149,7 +5149,7 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5177,17 +5177,17 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.453125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.36328125" style="39" customWidth="1"/>
+    <col min="1" max="3" width="8.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="39" customWidth="1"/>
     <col min="9" max="9" width="21" style="39" customWidth="1"/>
-    <col min="10" max="1025" width="8.453125" style="39" customWidth="1"/>
-    <col min="1026" max="16384" width="8.90625" style="39"/>
+    <col min="10" max="1025" width="8.5" style="39" customWidth="1"/>
+    <col min="1026" max="16384" width="8.875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="J7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="16.2">
+    <row r="8" spans="1:10">
       <c r="E8" s="40" t="s">
         <v>56</v>
       </c>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="1:10" ht="16.2">
+    <row r="9" spans="1:10">
       <c r="E9" s="39" t="s">
         <v>107</v>
       </c>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -1964,10 +1964,6 @@
   </si>
   <si>
     <t>Organization Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -3582,10 +3578,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3700,35 +3696,35 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>112</v>
-      </c>
       <c r="F7" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>102</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>103</v>
       </c>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="H8" s="39" t="s">
         <v>114</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>115</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -3755,42 +3751,42 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>117</v>
-      </c>
       <c r="H7" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>102</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>103</v>
       </c>
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>fd_lookup!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -3807,10 +3803,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>121</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>122</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -3840,39 +3836,39 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
         <v>131</v>
       </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>132</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>133</v>
       </c>
-      <c r="H7" t="s">
-        <v>134</v>
-      </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3904,48 +3900,48 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
         <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
       </c>
       <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
         <v>132</v>
       </c>
-      <c r="H7" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" t="s">
         <v>222</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>223</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>224</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>225</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>226</v>
-      </c>
-      <c r="N7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
         <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4015,24 +4011,24 @@
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -4053,7 +4049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4066,192 +4062,192 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s">
         <v>125</v>
       </c>
-      <c r="G7" t="s">
-        <v>126</v>
-      </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" t="s">
         <v>142</v>
       </c>
-      <c r="F8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" t="s">
-        <v>143</v>
-      </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
         <v>205</v>
       </c>
-      <c r="F10" t="s">
-        <v>206</v>
-      </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" t="s">
         <v>207</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>208</v>
       </c>
-      <c r="G16" t="s">
-        <v>209</v>
-      </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" t="s">
         <v>228</v>
       </c>
-      <c r="F17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>229</v>
-      </c>
-      <c r="I17" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4323,7 @@
         <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4383,8 +4379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4409,7 +4405,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -4436,18 +4432,18 @@
         <v>76</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
@@ -4468,18 +4464,18 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
@@ -4500,21 +4496,21 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4532,21 +4528,21 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4564,21 +4560,21 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4596,21 +4592,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4628,21 +4624,21 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
         <v>198</v>
       </c>
-      <c r="F14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>199</v>
-      </c>
-      <c r="H14" t="s">
-        <v>200</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4660,21 +4656,21 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="4:14">
       <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" t="s">
         <v>233</v>
       </c>
-      <c r="F15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>234</v>
-      </c>
-      <c r="H15" t="s">
-        <v>235</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4692,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4727,23 +4723,23 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>iam_role!E9</f>
@@ -4758,7 +4754,7 @@
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" t="str">
         <f>iam_role!E9</f>
@@ -4771,7 +4767,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" t="str">
         <f>iam_role!E9</f>
@@ -4784,7 +4780,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" t="str">
         <f>iam_role!E14</f>
@@ -4797,7 +4793,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" t="str">
         <f>iam_role!E10</f>
@@ -4810,7 +4806,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" t="str">
         <f>iam_role!E13</f>
@@ -4823,7 +4819,7 @@
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" t="str">
         <f>iam_role!E12</f>
@@ -4836,7 +4832,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" t="str">
         <f>iam_role!E13</f>
@@ -4849,7 +4845,7 @@
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" t="str">
         <f>iam_role!E13</f>
@@ -4862,7 +4858,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" t="str">
         <f>iam_role!E12</f>
@@ -4875,7 +4871,7 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F18" t="str">
         <f>iam_role!E11</f>
@@ -4888,7 +4884,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F19" t="str">
         <f>iam_role!E11</f>
@@ -4972,7 +4968,7 @@
         <v>69</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -4981,22 +4977,22 @@
         <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" t="str">
         <f>fd_organization!E8</f>
@@ -5006,32 +5002,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" t="s">
         <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" t="s">
-        <v>177</v>
-      </c>
-      <c r="I9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" t="s">
-        <v>171</v>
       </c>
       <c r="L9" t="str">
         <f>fd_organization!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5068,25 +5064,25 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" t="s">
         <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -5103,13 +5099,13 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="4:10">
@@ -5126,13 +5122,13 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="4:10">
@@ -5149,13 +5145,13 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5198,22 +5194,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="G7" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>102</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>103</v>
       </c>
       <c r="J7" s="40"/>
     </row>
@@ -5225,31 +5221,31 @@
         <v>56</v>
       </c>
       <c r="G8" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="I8" s="39" t="s">
         <v>105</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>106</v>
       </c>
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="39" t="s">
+      <c r="H9" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="I9" s="39" t="s">
         <v>109</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="fd_organization" sheetId="4" r:id="rId2"/>
-    <sheet name="iam_label" sheetId="13" r:id="rId3"/>
-    <sheet name="iam_user" sheetId="5" r:id="rId4"/>
-    <sheet name="iam_role" sheetId="6" r:id="rId5"/>
-    <sheet name="iam_role_label" sheetId="17" r:id="rId6"/>
-    <sheet name="oauth_client" sheetId="7" r:id="rId7"/>
-    <sheet name="iam_member_role" sheetId="8" r:id="rId8"/>
-    <sheet name="fd_languane" sheetId="10" r:id="rId9"/>
-    <sheet name="fd_lookup" sheetId="11" r:id="rId10"/>
-    <sheet name="fd_lookup_value" sheetId="12" r:id="rId11"/>
-    <sheet name="oauth_ldap" sheetId="15" r:id="rId12"/>
-    <sheet name="oauth_password_policy" sheetId="16" r:id="rId13"/>
+    <sheet name="FD_ORGANIZATION" sheetId="4" r:id="rId2"/>
+    <sheet name="IAM_LABEL" sheetId="13" r:id="rId3"/>
+    <sheet name="IAM_USER" sheetId="5" r:id="rId4"/>
+    <sheet name="IAM_ROLE" sheetId="6" r:id="rId5"/>
+    <sheet name="IAM_ROLE_LABEL" sheetId="17" r:id="rId6"/>
+    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId7"/>
+    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId8"/>
+    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId9"/>
+    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId10"/>
+    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId11"/>
+    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId12"/>
+    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
   <si>
     <r>
       <rPr>
@@ -1830,12 +1830,6 @@
     </r>
   </si>
   <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
     <t>$2a$10$nMyyMGXbmsipIb/E4b8EuePo1vkVKKWsxXHUpDch5gisNOJOCuLL6</t>
   </si>
   <si>
@@ -1848,24 +1842,6 @@
     <t>表</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>time_zone</t>
-  </si>
-  <si>
-    <t>organization_id</t>
-  </si>
-  <si>
-    <t>real_name</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -1884,81 +1860,6 @@
     <t>client</t>
   </si>
   <si>
-    <t>resource_ids</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>authorized_grant_types</t>
-  </si>
-  <si>
-    <t>auto_approve</t>
-  </si>
-  <si>
-    <t>fd_organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#login_name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>oauth_client</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#code</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_built_in</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_modified</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_assignable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enable_forbidden</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enabled</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>name:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enabled</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Site Administrator</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1976,23 +1877,6 @@
   </si>
   <si>
     <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#role_id</t>
-  </si>
-  <si>
-    <t>#member_id</t>
-  </si>
-  <si>
-    <t>#member_type</t>
-  </si>
-  <si>
-    <t>#source_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#source_type</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -2107,9 +1991,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>iam_member_role</t>
-  </si>
-  <si>
     <t>运营组织</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2118,26 +1999,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>fd_language</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
     <t>简体中文</t>
   </si>
   <si>
@@ -2159,14 +2020,6 @@
     <t>English(US)</t>
   </si>
   <si>
-    <t>fd_lookup</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>TIME_ZONE</t>
   </si>
   <si>
@@ -2176,13 +2029,6 @@
     <t>Time Zone</t>
   </si>
   <si>
-    <t>fd_lookup_value</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>lookup_id</t>
-  </si>
-  <si>
     <t>EST</t>
   </si>
   <si>
@@ -2198,22 +2044,10 @@
     <t>Asia/Shanghai</t>
   </si>
   <si>
-    <t>iam_label</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>role</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>#name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#type</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>operation</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2230,30 +2064,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>oauth_ldap</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#organization_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>server_address</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>oauth_password_policy</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2266,10 +2076,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>is_enabled</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>user</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2289,10 +2095,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>*id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>role/site/default/administrator</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2301,18 +2103,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>iam_role_label</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#role_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#label_id</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>organization.owner</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2333,14 +2123,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>is_admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_class</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>部署管理员</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2381,9 +2163,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>web_server_redirect_uri</t>
-  </si>
-  <si>
     <t>localhost</t>
   </si>
   <si>
@@ -2503,10 +2282,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>project</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2582,29 +2357,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable_captcha</t>
-  </si>
-  <si>
-    <t>enable_lock</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable_security</t>
-  </si>
-  <si>
-    <t>max_check_captcha</t>
-  </si>
-  <si>
-    <t>max_error_time</t>
-  </si>
-  <si>
-    <t>locked_expire_time</t>
-  </si>
-  <si>
     <t>project.deploy.admin</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2640,8 +2392,303 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>fd_level</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>FD_ORGANIZATION</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_LABEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TYPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_USER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LOGIN_NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME_ZONE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGANIZATION_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ADMIN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_ROLE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_MODIFIED</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_BUILT_IN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ASSIGNABLE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ENABLE_FORBIDDEN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ROLE_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LABEL_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_ROLE_LABEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAUTH_CLIENT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_IDS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECRET</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHORIZED_GRANT_TYPES</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_APPROVE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGANIZATION_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB_SERVER_REDIRECT_URI</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_MEMBER_ROLE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ROLE_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MEMBER_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MEMBER_TYPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOURCE_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SOURCE_TYPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LANGUAGE</t>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION:en_US</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION:zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION:en_US</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION:zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LOOKUP</t>
+  </si>
+  <si>
+    <t>FD_LOOKUP_VALUE</t>
+  </si>
+  <si>
+    <t>LOOKUP_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION:zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAUTH_LDAP</t>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ORGANIZATION_ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_ADDRESS</t>
+  </si>
+  <si>
+    <t>OBJECT_CLASS</t>
+  </si>
+  <si>
+    <t>OAUTH_PASSWORD_POLICY</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLE_CAPTCHA</t>
+  </si>
+  <si>
+    <t>ENABLE_LOCK</t>
+  </si>
+  <si>
+    <t>ENABLE_SECURITY</t>
+  </si>
+  <si>
+    <t>MAX_CHECK_CAPTCHA</t>
+  </si>
+  <si>
+    <t>MAX_ERROR_TIME</t>
+  </si>
+  <si>
+    <t>LOCKED_EXPIRE_TIME</t>
   </si>
 </sst>
 </file>
@@ -3578,10 +3625,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3682,49 +3729,49 @@
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
-      <c r="D7" s="39" t="s">
-        <v>110</v>
+      <c r="D7" t="s">
+        <v>227</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I7" s="39"/>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -3739,74 +3786,75 @@
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="39" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G8" s="39" t="str">
-        <f>fd_lookup!E8</f>
+        <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J8" s="39"/>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G9" s="39" t="str">
-        <f>fd_lookup!E8</f>
+        <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -3822,7 +3870,7 @@
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3831,44 +3879,45 @@
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3882,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3893,6 +3942,8 @@
     <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
@@ -3900,48 +3951,48 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="N7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3976,14 +4027,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="9.75"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.75"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="1025" width="9.75"/>
@@ -3991,44 +4042,44 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="36" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -4050,7 +4101,7 @@
   <dimension ref="D7:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4062,192 +4113,192 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4260,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4272,8 +4323,9 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="77.625" customWidth="1"/>
     <col min="8" max="8" width="24.375"/>
-    <col min="10" max="10" width="9.75"/>
-    <col min="11" max="11" width="13.875"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.875"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
     <col min="14" max="1024" width="8.875"/>
@@ -4293,37 +4345,37 @@
     <row r="7" spans="1:17">
       <c r="A7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
@@ -4331,29 +4383,29 @@
     <row r="8" spans="1:17">
       <c r="A8" s="6"/>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K8" t="str">
-        <f>fd_organization!E8</f>
+        <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4379,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4394,59 +4446,60 @@
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
     <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="N7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4464,21 +4517,21 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4496,21 +4549,21 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4528,21 +4581,21 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4560,21 +4613,21 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4592,21 +4645,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4624,21 +4677,21 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4656,21 +4709,21 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="4:14">
       <c r="E15" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4688,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4760,7 @@
   <dimension ref="D7:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4723,30 +4776,30 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>iam_role!E9</f>
+        <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>iam_label!E10</f>
+        <f>IAM_LABEL!E10</f>
         <v>organization.gitlab.owner</v>
       </c>
       <c r="H8" s="2"/>
@@ -4754,144 +4807,144 @@
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="F9" t="str">
-        <f>iam_role!E9</f>
+        <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G9" t="str">
-        <f>iam_label!E9</f>
+        <f>IAM_LABEL!E9</f>
         <v>organization.owner</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="F10" t="str">
-        <f>iam_role!E9</f>
+        <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G10" t="str">
-        <f>iam_label!E12</f>
+        <f>IAM_LABEL!E12</f>
         <v>organization.wiki.admin</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="F11" t="str">
-        <f>iam_role!E14</f>
+        <f>IAM_ROLE!E14</f>
         <v>role/organization/default/organization-member</v>
       </c>
       <c r="G11" t="str">
-        <f>iam_label!E13</f>
+        <f>IAM_LABEL!E13</f>
         <v>organization.wiki.user</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="F12" t="str">
-        <f>iam_role!E10</f>
+        <f>IAM_ROLE!E10</f>
         <v>role/project/default/administrator</v>
       </c>
       <c r="G12" t="str">
-        <f>iam_label!E8</f>
+        <f>IAM_LABEL!E8</f>
         <v>project.owner</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="F13" t="str">
-        <f>iam_role!E13</f>
+        <f>IAM_ROLE!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
       <c r="G13" t="str">
-        <f>iam_label!E14</f>
+        <f>IAM_LABEL!E14</f>
         <v>project.wiki.admin</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F14" t="str">
-        <f>iam_role!E12</f>
+        <f>IAM_ROLE!E12</f>
         <v>role/project/default/project-member</v>
       </c>
       <c r="G14" t="str">
-        <f>iam_label!E15</f>
+        <f>IAM_LABEL!E15</f>
         <v>project.wiki.user</v>
       </c>
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="F15" t="str">
-        <f>iam_role!E13</f>
+        <f>IAM_ROLE!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
       <c r="G15" t="str">
-        <f>iam_label!E8</f>
+        <f>IAM_LABEL!E8</f>
         <v>project.owner</v>
       </c>
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="F16" t="str">
-        <f>iam_role!E13</f>
+        <f>IAM_ROLE!E13</f>
         <v>role/project/default/project-owner</v>
       </c>
       <c r="G16" t="str">
-        <f>iam_label!E16</f>
+        <f>IAM_LABEL!E16</f>
         <v>project.gitlab.owner</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F17" t="str">
-        <f>iam_role!E12</f>
+        <f>IAM_ROLE!E12</f>
         <v>role/project/default/project-member</v>
       </c>
       <c r="G17" t="str">
-        <f>iam_label!E11</f>
+        <f>IAM_LABEL!E11</f>
         <v>project.gitlab.developer</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="F18" t="str">
-        <f>iam_role!E11</f>
+        <f>IAM_ROLE!E11</f>
         <v>role/project/default/deploy-administrator</v>
       </c>
       <c r="G18" t="str">
-        <f>iam_label!E17</f>
+        <f>IAM_LABEL!E17</f>
         <v>project.deploy.admin</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="F19" t="str">
-        <f>iam_role!E11</f>
+        <f>IAM_ROLE!E11</f>
         <v>role/project/default/deploy-administrator</v>
       </c>
       <c r="G19" t="str">
-        <f>iam_label!E8</f>
+        <f>IAM_LABEL!E8</f>
         <v>project.owner</v>
       </c>
     </row>
@@ -4907,7 +4960,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4915,8 +4968,9 @@
     <col min="1" max="1" width="9.75"/>
     <col min="2" max="2" width="2.875" customWidth="1"/>
     <col min="3" max="3" width="9.75" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9.75"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.75"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.75"/>
     <col min="10" max="10" width="26.5"/>
     <col min="11" max="11" width="14.125"/>
@@ -4927,107 +4981,107 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="L8" t="str">
-        <f>fd_organization!E8</f>
+        <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L9" t="str">
-        <f>fd_organization!E8</f>
+        <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5045,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5064,94 +5118,94 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="E8" t="str">
-        <f>iam_role!E8</f>
+        <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
       </c>
       <c r="F8" t="str">
-        <f>iam_role!E8</f>
+        <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
       </c>
       <c r="G8" t="str">
-        <f>iam_user!E8</f>
+        <f>IAM_USER!E8</f>
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="4:10">
       <c r="E9" t="str">
-        <f>iam_role!E9</f>
+        <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="F9" t="str">
-        <f>iam_role!E9</f>
+        <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G9" t="str">
-        <f>iam_user!E8</f>
+        <f>IAM_USER!E8</f>
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="E10" t="str">
-        <f>iam_role!E15</f>
+        <f>IAM_ROLE!E15</f>
         <v>role/site/default/developer</v>
       </c>
       <c r="F10" t="str">
-        <f>iam_role!E15</f>
+        <f>IAM_ROLE!E15</f>
         <v>role/site/default/developer</v>
       </c>
       <c r="G10" t="str">
-        <f>iam_user!E8</f>
+        <f>IAM_USER!E8</f>
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5170,7 +5224,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -5194,58 +5248,58 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="40" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10">
       <c r="E8" s="40" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="39" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="247">
   <si>
     <r>
       <rPr>
@@ -2689,6 +2689,14 @@
   </si>
   <si>
     <t>LOCKED_EXPIRE_TIME</t>
+  </si>
+  <si>
+    <t>DIRECTORY_TYPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenLDAP</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3728,7 +3736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3867,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I8"/>
+  <dimension ref="D7:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3883,7 +3891,7 @@
     <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
         <v>231</v>
       </c>
@@ -3902,8 +3910,11 @@
       <c r="I7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="8" spans="4:9">
+      <c r="J7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
       <c r="E8" t="s">
         <v>83</v>
       </c>
@@ -3918,6 +3929,9 @@
       </c>
       <c r="I8" t="s">
         <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3931,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C14F48-9CB7-4236-84BF-990D588D33C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,12 +31,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="252">
   <si>
     <r>
       <rPr>
@@ -2696,13 +2697,32 @@
   </si>
   <si>
     <t>OpenLDAP</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>site.wiki.admin</t>
+  </si>
+  <si>
+    <t>site.wiki.admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局层wiki管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>site wiki admin</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
@@ -3140,7 +3160,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
@@ -3482,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
@@ -3733,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -3790,7 +3810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,10 +3894,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D7:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3942,7 +3962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4038,7 +4058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4111,11 +4131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4315,6 +4335,23 @@
         <v>160</v>
       </c>
     </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>249</v>
+      </c>
+      <c r="I18" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4322,7 +4359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4434,7 +4471,7 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -4442,11 +4479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4770,11 +4807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="D7:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4962,6 +4999,19 @@
         <v>project.owner</v>
       </c>
     </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IAM_ROLE!E8</f>
+        <v>role/site/default/administrator</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IAM_LABEL!E18</f>
+        <v>site.wiki.admin</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4970,7 +5020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5110,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C2" workbookViewId="0">
@@ -5234,7 +5284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\iam-service\src\main\resources\script\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C14F48-9CB7-4236-84BF-990D588D33C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389CBEA-9B30-4185-8465-6A6E08C059CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2700,22 +2700,23 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>site.wiki.admin</t>
-  </si>
-  <si>
-    <t>site.wiki.admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>site</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>全局层wiki管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site wiki admin</t>
+    <t>site.admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>site.admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局层管理员</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>site admin</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -4135,7 +4136,7 @@
   <dimension ref="D7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4340,13 +4341,13 @@
         <v>248</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
         <v>250</v>
@@ -5009,7 +5010,7 @@
       </c>
       <c r="G20" t="str">
         <f>IAM_LABEL!E18</f>
-        <v>site.wiki.admin</v>
+        <v>site.admin</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389CBEA-9B30-4185-8465-6A6E08C059CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="987" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -19,24 +18,33 @@
     <sheet name="IAM_USER" sheetId="5" r:id="rId4"/>
     <sheet name="IAM_ROLE" sheetId="6" r:id="rId5"/>
     <sheet name="IAM_ROLE_LABEL" sheetId="17" r:id="rId6"/>
-    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId7"/>
-    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId8"/>
-    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId9"/>
-    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId10"/>
-    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId11"/>
-    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId12"/>
-    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId13"/>
+    <sheet name="FD_PROJECT_TYPE" sheetId="18" r:id="rId7"/>
+    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId8"/>
+    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId9"/>
+    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId10"/>
+    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId11"/>
+    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId12"/>
+    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId13"/>
+    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
   <si>
     <r>
       <rPr>
@@ -2717,17 +2725,105 @@
   </si>
   <si>
     <t>site admin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_PROJECT_TYPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发-技术研究</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发-平台研发</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发-产品研发</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施-项目实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维-项目运维</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付-产品交付</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维-产品运维</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术探索性研究。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术平台、框架型研发。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品研发。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/research-technology</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/implement-project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/develop-product</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/develop-platform</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/delivery-product</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/operate-project</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/operate-product</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/others</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3161,12 +3257,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3503,22 +3599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.75" style="13"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2"/>
-    <col min="5" max="1025" width="9.75"/>
+    <col min="1" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="C1" s="43" t="s">
         <v>0</v>
@@ -3529,12 +3624,12 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="D2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="42" t="s">
         <v>1</v>
@@ -3546,7 +3641,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4" s="45" t="s">
         <v>3</v>
@@ -3562,17 +3657,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
@@ -3583,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3687,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="157.5">
+    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
@@ -3606,7 +3701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
+    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
@@ -3617,7 +3712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
@@ -3639,17 +3734,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:8" ht="118.5">
+    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
@@ -3660,26 +3755,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
@@ -3687,7 +3782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
@@ -3695,7 +3790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
@@ -3703,7 +3798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
@@ -3711,10 +3806,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="25" t="s">
         <v>37</v>
       </c>
@@ -3723,7 +3818,7 @@
       </c>
       <c r="E25" s="42"/>
     </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="18" t="s">
         <v>39</v>
       </c>
@@ -3732,7 +3827,7 @@
       </c>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="3:5" ht="31.5">
+    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
@@ -3754,55 +3849,87 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="D7:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="21" style="39" customWidth="1"/>
+    <col min="10" max="1025" width="8.5" style="39" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="39"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -3811,22 +3938,79 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>228</v>
       </c>
@@ -3847,7 +4031,7 @@
       </c>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
         <v>73</v>
@@ -3867,7 +4051,7 @@
       </c>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
         <v>49</v>
@@ -3886,74 +4070,6 @@
         <v>77</v>
       </c>
       <c r="J9" s="39"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="D7:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:10">
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" t="s">
-        <v>246</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -3963,28 +4079,96 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>237</v>
       </c>
@@ -4019,7 +4203,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>85</v>
       </c>
@@ -4059,23 +4243,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.75"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.75"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="9.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -4089,7 +4270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>167</v>
       </c>
@@ -4106,7 +4287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E8" s="36" t="s">
         <v>61</v>
       </c>
@@ -4132,21 +4313,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>172</v>
       </c>
@@ -4166,7 +4347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>87</v>
       </c>
@@ -4183,7 +4364,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>93</v>
       </c>
@@ -4200,7 +4381,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -4217,7 +4398,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>148</v>
       </c>
@@ -4234,7 +4415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>127</v>
       </c>
@@ -4251,7 +4432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>128</v>
       </c>
@@ -4268,7 +4449,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>129</v>
       </c>
@@ -4285,7 +4466,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>130</v>
       </c>
@@ -4302,7 +4483,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>144</v>
       </c>
@@ -4319,7 +4500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="5:9">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>158</v>
       </c>
@@ -4336,7 +4517,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="5:9">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>248</v>
       </c>
@@ -4360,41 +4541,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.875"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="77.625" customWidth="1"/>
-    <col min="8" max="8" width="24.375"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="1024" width="8.875"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="D7" s="7" t="s">
         <v>178</v>
@@ -4432,7 +4609,7 @@
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="E8" s="2" t="s">
         <v>46</v>
@@ -4466,13 +4643,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -4480,32 +4657,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="43.25" customWidth="1"/>
-    <col min="6" max="6" width="44.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D7" s="5" t="s">
         <v>188</v>
       </c>
@@ -4540,7 +4717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>92</v>
       </c>
@@ -4572,7 +4749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>94</v>
       </c>
@@ -4604,7 +4781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>95</v>
       </c>
@@ -4636,7 +4813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>105</v>
       </c>
@@ -4668,7 +4845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -4700,7 +4877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>107</v>
       </c>
@@ -4732,7 +4909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>136</v>
       </c>
@@ -4764,7 +4941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>163</v>
       </c>
@@ -4808,25 +4985,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>199</v>
       </c>
@@ -4842,7 +5019,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>120</v>
       </c>
@@ -4857,7 +5034,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>120</v>
       </c>
@@ -4870,7 +5047,7 @@
         <v>organization.owner</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>131</v>
       </c>
@@ -4883,7 +5060,7 @@
         <v>organization.wiki.admin</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>132</v>
       </c>
@@ -4896,7 +5073,7 @@
         <v>organization.wiki.user</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>121</v>
       </c>
@@ -4909,7 +5086,7 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>133</v>
       </c>
@@ -4922,7 +5099,7 @@
         <v>project.wiki.admin</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>134</v>
       </c>
@@ -4935,7 +5112,7 @@
         <v>project.wiki.user</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>122</v>
       </c>
@@ -4948,7 +5125,7 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>123</v>
       </c>
@@ -4961,7 +5138,7 @@
         <v>project.gitlab.owner</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>124</v>
       </c>
@@ -4974,7 +5151,7 @@
         <v>project.gitlab.developer</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>162</v>
       </c>
@@ -4987,7 +5164,7 @@
         <v>project.deploy.admin</v>
       </c>
     </row>
-    <row r="19" spans="5:7">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>162</v>
       </c>
@@ -5000,7 +5177,7 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="20" spans="5:7">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>251</v>
       </c>
@@ -5021,30 +5198,160 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75"/>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.75"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.75"/>
-    <col min="10" max="10" width="26.5"/>
-    <col min="11" max="11" width="14.125"/>
-    <col min="12" max="12" width="14.625"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
-    <col min="14" max="1025" width="9.75"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -5058,7 +5365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>200</v>
       </c>
@@ -5091,7 +5398,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
@@ -5119,7 +5426,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>108</v>
       </c>
@@ -5160,28 +5467,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.75"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="35.25"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="9.75"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>210</v>
       </c>
@@ -5204,7 +5508,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E8" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
@@ -5227,7 +5531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E9" t="str">
         <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
@@ -5250,7 +5554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E10" t="str">
         <f>IAM_ROLE!E15</f>
         <v>role/site/default/developer</v>
@@ -5282,93 +5586,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="3" width="8.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="21" style="39" customWidth="1"/>
-    <col min="10" max="1025" width="8.5" style="39" customWidth="1"/>
-    <col min="1026" max="16384" width="8.875" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="E8" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="E9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcalaz/work/code/choerodon/iam-service/src/main/resources/script/db/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="987" activeTab="6"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="411" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,27 +26,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -69,7 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -81,7 +68,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -99,7 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -117,7 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -135,7 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -145,7 +132,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -163,7 +150,7 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -182,7 +169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -200,7 +187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -211,7 +198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -229,7 +216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -247,7 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -268,7 +255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -288,7 +275,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -308,7 +295,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -328,7 +315,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -348,7 +335,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -359,7 +346,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -377,7 +364,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -388,7 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -406,7 +393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -424,7 +411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -442,7 +429,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -460,7 +447,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -507,7 +494,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -525,7 +512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -543,7 +530,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -561,7 +548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -572,7 +559,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -590,7 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -608,7 +595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -627,7 +614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -645,7 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -664,7 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -682,7 +669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -693,7 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -711,7 +698,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -729,7 +716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -752,7 +739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -770,7 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -788,7 +775,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -806,7 +793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -824,7 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -835,7 +822,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -853,7 +840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -863,7 +850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -883,7 +870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -893,7 +880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -911,7 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -929,7 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -952,7 +939,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -970,7 +957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -989,7 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -1008,7 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1027,7 +1014,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1047,7 +1034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1066,7 +1053,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1100,7 +1087,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1120,7 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1131,7 +1118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1149,7 +1136,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1164,6 +1151,101 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于引用外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可用于普通值
+目前不支持特别复杂的公式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动增长列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果被公式引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最好写一个人可以读懂的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强公式可读性</t>
+    </r>
+  </si>
+  <si>
     <t>关于公式的说明</t>
   </si>
   <si>
@@ -1172,7 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1190,7 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1208,7 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1226,7 +1308,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1244,7 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1259,7 +1341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1268,7 +1350,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1286,7 +1368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1301,7 +1383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1310,7 +1392,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1328,7 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1342,7 +1424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1360,7 +1442,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1378,7 +1460,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1397,7 +1479,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1420,7 +1502,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1438,7 +1520,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1456,7 +1538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1475,7 +1557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1495,7 +1577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1505,7 +1587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1514,7 +1596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1525,7 +1607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1543,7 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1561,7 +1643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1579,7 +1661,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1598,7 +1680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1616,7 +1698,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1634,7 +1716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1653,7 +1735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1671,7 +1753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1689,7 +1771,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1707,7 +1789,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1726,7 +1808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1737,7 +1819,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1747,7 +1829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1756,7 +1838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1767,7 +1849,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1785,7 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1796,7 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1814,7 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1833,27 +1915,168 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
   </si>
   <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>FD_ORGANIZATION</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>运营组织</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>IAM_LABEL</t>
+  </si>
+  <si>
+    <t>#NAME</t>
+  </si>
+  <si>
+    <t>#TYPE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>project.owner</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>organization.owner</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>组织所有者</t>
+  </si>
+  <si>
+    <t>organization.gitlab.owner</t>
+  </si>
+  <si>
+    <t>组织层gitlab所有者</t>
+  </si>
+  <si>
+    <t>project.gitlab.developer</t>
+  </si>
+  <si>
+    <t>gitlab开发者</t>
+  </si>
+  <si>
+    <t>organization.wiki.admin</t>
+  </si>
+  <si>
+    <t>组织层wiki管理员</t>
+  </si>
+  <si>
+    <t>organization.wiki.user</t>
+  </si>
+  <si>
+    <t>组织层wiki用户</t>
+  </si>
+  <si>
+    <t>project.wiki.admin</t>
+  </si>
+  <si>
+    <t>项目层wiki管理员</t>
+  </si>
+  <si>
+    <t>project.wiki.user</t>
+  </si>
+  <si>
+    <t>项目层wiki用户</t>
+  </si>
+  <si>
+    <t>project.gitlab.owner</t>
+  </si>
+  <si>
+    <t>项目层gitlab所有者</t>
+  </si>
+  <si>
+    <t>project.deploy.admin</t>
+  </si>
+  <si>
+    <t>gitlab部署管理员</t>
+  </si>
+  <si>
+    <t>site.admin</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>全局层管理员</t>
+  </si>
+  <si>
+    <t>IAM_USER</t>
+  </si>
+  <si>
+    <t>#LOGIN_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>TIME_ZONE</t>
+  </si>
+  <si>
+    <t>ORGANIZATION_ID</t>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+  </si>
+  <si>
+    <t>IS_ADMIN</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>$2a$10$nMyyMGXbmsipIb/E4b8EuePo1vkVKKWsxXHUpDch5gisNOJOCuLL6</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>表</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>admin@example.org</t>
   </si>
   <si>
@@ -1866,146 +2089,262 @@
     <t>管理员</t>
   </si>
   <si>
+    <t>IAM_ROLE</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>IS_BUILT_IN</t>
+  </si>
+  <si>
+    <t>IS_MODIFIED</t>
+  </si>
+  <si>
+    <t>IS_ASSIGNABLE</t>
+  </si>
+  <si>
+    <t>IS_ENABLE_FORBIDDEN</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/orgainzation/default/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
+  </si>
+  <si>
+    <t>项目管理员</t>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/deploy-administrator</t>
+  </si>
+  <si>
+    <t>部署管理员</t>
+  </si>
+  <si>
+    <t>Deploy Administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>Project Owner</t>
+  </si>
+  <si>
+    <t>role/organization/default/organization-member</t>
+  </si>
+  <si>
+    <t>组织成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>Site Developer</t>
+  </si>
+  <si>
+    <t>IAM_ROLE_LABEL</t>
+  </si>
+  <si>
+    <t>#ROLE_ID</t>
+  </si>
+  <si>
+    <t>#LABEL_ID</t>
+  </si>
+  <si>
+    <t>organization administrator</t>
+  </si>
+  <si>
+    <t>organization wiki admin</t>
+  </si>
+  <si>
+    <t>organization wiki user</t>
+  </si>
+  <si>
+    <t>project administrator</t>
+  </si>
+  <si>
+    <t>project wiki admin</t>
+  </si>
+  <si>
+    <t>project wiki user</t>
+  </si>
+  <si>
+    <t>project owner</t>
+  </si>
+  <si>
+    <t>project member</t>
+  </si>
+  <si>
+    <t>project deploy admin</t>
+  </si>
+  <si>
+    <t>site admin</t>
+  </si>
+  <si>
+    <t>FD_PROJECT_TYPE</t>
+  </si>
+  <si>
+    <t>type/research-technology</t>
+  </si>
+  <si>
+    <t>研发-技术研究</t>
+  </si>
+  <si>
+    <t>技术探索性研究。</t>
+  </si>
+  <si>
+    <t>type/develop-platform</t>
+  </si>
+  <si>
+    <t>研发-平台研发</t>
+  </si>
+  <si>
+    <t>技术平台、框架型研发。</t>
+  </si>
+  <si>
+    <t>type/develop-product</t>
+  </si>
+  <si>
+    <t>研发-产品研发</t>
+  </si>
+  <si>
+    <t>产品研发。</t>
+  </si>
+  <si>
+    <t>type/implement-project</t>
+  </si>
+  <si>
+    <t>实施-项目实施</t>
+  </si>
+  <si>
+    <t>type/operate-project</t>
+  </si>
+  <si>
+    <t>运维-项目运维</t>
+  </si>
+  <si>
+    <t>type/delivery-product</t>
+  </si>
+  <si>
+    <t>交付-产品交付</t>
+  </si>
+  <si>
+    <t>type/operate-product</t>
+  </si>
+  <si>
+    <t>运维-产品运维</t>
+  </si>
+  <si>
+    <t>type/others</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>OAUTH_CLIENT</t>
+  </si>
+  <si>
+    <t>RESOURCE_IDS</t>
+  </si>
+  <si>
+    <t>SECRET</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>AUTHORIZED_GRANT_TYPES</t>
+  </si>
+  <si>
+    <t>AUTO_APPROVE</t>
+  </si>
+  <si>
+    <t>WEB_SERVER_REDIRECT_URI</t>
+  </si>
+  <si>
     <t>client</t>
   </si>
   <si>
-    <t>Site Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于引用外键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也可用于普通值
-目前不支持特别复杂的公式</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动增长列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果被公式引用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最好写一个人可以读懂的值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增强公式可读性</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>default</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>http://localhost:9090</t>
+  </si>
+  <si>
+    <t>IAM_MEMBER_ROLE</t>
+  </si>
+  <si>
+    <t>#MEMBER_ID</t>
+  </si>
+  <si>
+    <t>#MEMBER_TYPE</t>
+  </si>
+  <si>
+    <t>#SOURCE_ID</t>
+  </si>
+  <si>
+    <t>#SOURCE_TYPE</t>
   </si>
   <si>
     <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营组织</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营组织</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LANGUAGE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION:zh_CN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION:en_US</t>
   </si>
   <si>
     <t>简体中文</t>
@@ -2029,7 +2368,7 @@
     <t>English(US)</t>
   </si>
   <si>
-    <t>TIME_ZONE</t>
+    <t>FD_LOOKUP</t>
   </si>
   <si>
     <t>时区</t>
@@ -2038,6 +2377,12 @@
     <t>Time Zone</t>
   </si>
   <si>
+    <t>FD_LOOKUP_VALUE</t>
+  </si>
+  <si>
+    <t>LOOKUP_ID</t>
+  </si>
+  <si>
     <t>EST</t>
   </si>
   <si>
@@ -2053,635 +2398,36 @@
     <t>Asia/Shanghai</t>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>OAUTH_LDAP</t>
+  </si>
+  <si>
+    <t>#ORGANIZATION_ID</t>
+  </si>
+  <si>
+    <t>SERVER_ADDRESS</t>
+  </si>
+  <si>
+    <t>OBJECT_CLASS</t>
+  </si>
+  <si>
+    <t>DIRECTORY_TYPE</t>
   </si>
   <si>
     <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/orgainzation/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deploy Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/deploy-administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>please edit</t>
   </si>
   <si>
     <t>person</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>please edit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.wiki.admin</t>
-  </si>
-  <si>
-    <t>organization.wiki.user</t>
-  </si>
-  <si>
-    <t>project.wiki.admin</t>
-  </si>
-  <si>
-    <t>project.wiki.user</t>
-  </si>
-  <si>
-    <t>organization wiki admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization wiki user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project wiki admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project wiki user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/organization-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.gitlab.owner</t>
-  </si>
-  <si>
-    <t>project.gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.gitlab.developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.gitlab.developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织层gitlab所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab开发者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织层wiki管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织层wiki用户</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层wiki管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层wiki用户</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层gitlab所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.deploy.admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab部署管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project deploy admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台开发者</t>
-  </si>
-  <si>
-    <t>Site Developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_ORGANIZATION</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ENABLED</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_LABEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LEVEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_USER</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#LOGIN_NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_ZONE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORGANIZATION_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ADMIN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_ROLE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_MODIFIED</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_BUILT_IN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ASSIGNABLE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ENABLE_FORBIDDEN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LEVEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ROLE_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#LABEL_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_ROLE_LABEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>OAUTH_CLIENT</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESOURCE_IDS</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SECRET</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCOPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHORIZED_GRANT_TYPES</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_APPROVE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORGANIZATION_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB_SERVER_REDIRECT_URI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_MEMBER_ROLE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ROLE_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MEMBER_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MEMBER_TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOURCE_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOURCE_TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LANGUAGE</t>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LOOKUP</t>
-  </si>
-  <si>
-    <t>FD_LOOKUP_VALUE</t>
-  </si>
-  <si>
-    <t>LOOKUP_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>OAUTH_LDAP</t>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ORGANIZATION_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERVER_ADDRESS</t>
-  </si>
-  <si>
-    <t>OBJECT_CLASS</t>
+  </si>
+  <si>
+    <t>OpenLDAP</t>
   </si>
   <si>
     <t>OAUTH_PASSWORD_POLICY</t>
   </si>
   <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>ENABLE_CAPTCHA</t>
   </si>
   <si>
@@ -2698,132 +2444,20 @@
   </si>
   <si>
     <t>LOCKED_EXPIRE_TIME</t>
-  </si>
-  <si>
-    <t>DIRECTORY_TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenLDAP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site.admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site.admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局层管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_PROJECT_TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发-技术研究</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发-平台研发</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发-产品研发</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施-项目实施</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维-项目运维</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付-产品交付</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维-产品运维</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术探索性研究。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术平台、框架型研发。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品研发。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/research-technology</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/implement-project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/develop-product</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/develop-platform</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/delivery-product</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/operate-project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/operate-product</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type/others</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2834,21 +2468,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2867,7 +2501,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2876,21 +2509,20 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2899,16 +2531,172 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2926,13 +2714,13 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2940,41 +2728,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3005,8 +2760,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3018,28 +2959,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3064,12 +2989,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3078,13 +3012,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3099,6 +3031,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3107,161 +3048,446 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3334,9 +3560,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3594,624 +3817,629 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="100.666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="C1" s="43" t="s">
+    <row r="1" ht="64" customHeight="1" spans="1:8">
+      <c r="A1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" ht="49" customHeight="1" spans="1:7">
       <c r="A3"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="18"/>
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:4">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
-      <c r="C9" s="19" t="s">
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" ht="161.25" spans="3:6">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="208" x14ac:dyDescent="0.2">
-      <c r="C10" s="21" t="s">
+    <row r="10" ht="191.25" spans="3:5">
+      <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="3:5">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="C12" s="17" t="s">
+    <row r="12" ht="44.25" spans="3:5">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="138" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" ht="132.75" spans="3:5">
+      <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="12" t="s">
-        <v>27</v>
+    <row r="18" spans="3:4">
+      <c r="C18" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="24" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D20" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="7" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D21" s="44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="7" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D22" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4">
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="18" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="3:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="C27" s="26" t="s">
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
+      <c r="C26" s="33" t="s">
         <v>41</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" ht="30" spans="3:3">
+      <c r="C27" s="46" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="21" style="39" customWidth="1"/>
-    <col min="10" max="1025" width="8.5" style="39" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="39"/>
+    <col min="1" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.5" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E8" s="40" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>69</v>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="7"/>
   <cols>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="17.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="39"/>
+        <v>193</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1666666666667" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="39" t="str">
+    <row r="7" spans="4:10">
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="39" t="str">
+      <c r="H8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="39"/>
+      <c r="H9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="7"/>
   <cols>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="I7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
       <c r="E8" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="7"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.1666666666667" customWidth="1"/>
+    <col min="6" max="7" width="10.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="15.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" t="s">
         <v>218</v>
       </c>
-      <c r="F7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M7" t="s">
-        <v>243</v>
-      </c>
-      <c r="N7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4236,75 +4464,75 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
+      <c r="E8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -4313,328 +4541,330 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="19.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
       <c r="E8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
       <c r="E9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
       <c r="E10" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="77.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.16666666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="77.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>182</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="6:7">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
+        <v>93</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="12"/>
+      <c r="E8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="K8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4643,92 +4873,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H9" s="11"/>
+    <row r="9" spans="8:8">
+      <c r="H9" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId1" display="admin@example.org"/>
   </hyperlinks>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H9"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83333333333333" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="43.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D7" s="5" t="s">
-        <v>188</v>
+    <row r="7" spans="4:14">
+      <c r="D7" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4746,21 +4977,21 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
       <c r="E9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4778,21 +5009,21 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4807,24 +5038,24 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4839,24 +5070,24 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
       <c r="E12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4874,21 +5105,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4906,21 +5137,21 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4938,21 +5169,21 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4970,13 +5201,12 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -4985,58 +5215,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I20"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="39.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="42.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="5:9">
       <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="str">
+        <v>134</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="6" t="str">
         <f>IAM_LABEL!E10</f>
         <v>organization.gitlab.owner</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F9" t="str">
         <f>IAM_ROLE!E9</f>
@@ -5047,9 +5278,9 @@
         <v>organization.owner</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F10" t="str">
         <f>IAM_ROLE!E9</f>
@@ -5060,9 +5291,9 @@
         <v>organization.wiki.admin</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11" t="str">
         <f>IAM_ROLE!E14</f>
@@ -5073,9 +5304,9 @@
         <v>organization.wiki.user</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F12" t="str">
         <f>IAM_ROLE!E10</f>
@@ -5086,9 +5317,9 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F13" t="str">
         <f>IAM_ROLE!E13</f>
@@ -5099,9 +5330,9 @@
         <v>project.wiki.admin</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F14" t="str">
         <f>IAM_ROLE!E12</f>
@@ -5112,9 +5343,9 @@
         <v>project.wiki.user</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F15" t="str">
         <f>IAM_ROLE!E13</f>
@@ -5125,9 +5356,9 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F16" t="str">
         <f>IAM_ROLE!E13</f>
@@ -5138,9 +5369,9 @@
         <v>project.gitlab.owner</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F17" t="str">
         <f>IAM_ROLE!E12</f>
@@ -5151,9 +5382,9 @@
         <v>project.gitlab.developer</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F18" t="str">
         <f>IAM_ROLE!E11</f>
@@ -5164,9 +5395,9 @@
         <v>project.deploy.admin</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F19" t="str">
         <f>IAM_ROLE!E11</f>
@@ -5177,9 +5408,9 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="F20" t="str">
         <f>IAM_ROLE!E8</f>
@@ -5191,275 +5422,276 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.8333333333333" customWidth="1"/>
     <col min="8" max="8" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="D7" s="5" t="s">
-        <v>252</v>
+    <row r="7" spans="4:8">
+      <c r="D7" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
       <c r="E9" t="s">
-        <v>269</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
       <c r="E10" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="2.83333333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="23.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -5468,47 +5700,48 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>215</v>
+        <v>177</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="J7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
       <c r="E8" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
@@ -5522,16 +5755,16 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
       <c r="E9" t="str">
         <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
@@ -5545,16 +5778,16 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
       <c r="E10" t="str">
         <f>IAM_ROLE!E15</f>
         <v>role/site/default/developer</v>
@@ -5568,19 +5801,18 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A595F17C-02FC-D74E-B0A4-6379663284CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="411" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" tabRatio="411" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,19 +32,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="222">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -47,6 +59,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -56,7 +69,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -68,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -77,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -86,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -95,6 +106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -104,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -113,6 +124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -122,7 +134,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -132,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -150,7 +160,6 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -169,7 +178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -187,7 +195,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -198,7 +205,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -207,6 +213,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -216,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -225,6 +231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -234,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -243,6 +249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -255,7 +262,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -265,6 +271,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -275,7 +282,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -285,6 +291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -295,7 +302,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -306,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -315,7 +322,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -326,6 +332,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -335,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -346,7 +352,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -355,6 +360,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -364,7 +370,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -375,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -384,6 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -393,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -402,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -411,7 +416,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -420,6 +424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -429,7 +434,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -438,6 +442,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -447,7 +452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -456,6 +460,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -485,6 +490,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -494,7 +500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -503,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -512,7 +518,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -521,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -530,7 +536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -539,6 +544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -548,7 +554,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -559,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -568,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -577,7 +582,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -586,6 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -595,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -604,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -614,7 +619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -623,6 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -632,7 +637,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -641,6 +645,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -651,7 +656,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -660,6 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -669,7 +674,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -680,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -689,6 +692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -698,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -707,6 +710,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -716,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -730,6 +733,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -739,7 +743,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -748,6 +751,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,7 +761,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -766,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -775,7 +779,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -784,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -793,7 +797,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -802,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -811,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -822,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -831,6 +833,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -840,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -850,7 +852,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -860,6 +861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -870,7 +872,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -880,7 +881,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>当</t>
     </r>
@@ -889,6 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -898,7 +899,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -907,6 +907,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -916,7 +917,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -930,6 +930,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -939,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -948,6 +948,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -957,7 +958,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -966,6 +966,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -976,7 +977,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -985,6 +985,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -995,7 +996,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1004,6 +1004,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1014,7 +1015,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1023,6 +1023,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1034,7 +1035,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1043,6 +1043,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1053,7 +1054,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1062,6 +1062,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1078,6 +1079,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1087,7 +1089,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1098,6 +1099,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1107,7 +1109,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1118,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1127,6 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1136,7 +1137,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1145,6 +1145,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1156,6 +1157,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1165,6 +1167,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1174,6 +1177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1186,6 +1190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1195,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1204,6 +1210,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1213,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1222,6 +1230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1231,6 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1240,6 +1250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1254,7 +1265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1263,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1272,7 +1283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1281,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1290,7 +1301,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1299,6 +1309,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1308,7 +1319,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1317,6 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1326,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1341,7 +1351,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1350,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1359,6 +1367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1368,7 +1377,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1383,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1392,7 +1399,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1401,6 +1407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1410,7 +1417,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1424,7 +1430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1433,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1442,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1451,6 +1456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1460,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1469,6 +1474,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1479,7 +1485,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1488,6 +1493,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1502,7 +1508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1511,6 +1516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1520,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1529,6 +1534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1538,7 +1544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1547,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1557,7 +1563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1566,6 +1571,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1577,7 +1583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1587,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1596,7 +1600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1607,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1616,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1625,7 +1628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1634,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1643,7 +1646,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1652,6 +1654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1661,7 +1664,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1671,6 +1673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1680,7 +1683,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1689,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1698,7 +1701,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1707,6 +1709,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1716,7 +1719,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1725,6 +1727,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1735,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1744,6 +1746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1753,7 +1756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1762,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1771,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1780,6 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1789,7 +1792,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1798,6 +1800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1808,7 +1811,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1819,7 +1821,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1829,7 +1830,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1838,7 +1838,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1849,7 +1848,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1858,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1867,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1878,7 +1876,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1887,6 +1884,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1896,7 +1894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1905,6 +1902,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1915,7 +1913,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
@@ -2444,20 +2441,28 @@
   </si>
   <si>
     <t>LOCKED_EXPIRE_TIME</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2482,18 +2487,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2501,6 +2507,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2509,6 +2516,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2516,18 +2524,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2535,168 +2544,23 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2714,22 +2578,34 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2760,194 +2636,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3048,258 +2738,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3312,182 +2763,139 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3560,6 +2968,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3817,289 +3228,288 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="17"/>
-    <col min="3" max="3" width="100.666666666667" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" ht="49" customHeight="1" spans="1:7">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="49" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" ht="34">
       <c r="A4"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="18"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:8">
       <c r="D6"/>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="29" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="32" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" ht="161.25" spans="3:6">
-      <c r="C9" s="35" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="187">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="3:5">
-      <c r="C10" s="38" t="s">
+    <row r="10" spans="1:8" ht="221">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="32" t="s">
+    <row r="11" spans="1:8" ht="85.5" customHeight="1">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="44.25" spans="3:5">
-      <c r="C12" s="32" t="s">
+    <row r="12" spans="1:8" ht="51">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" ht="132.75" spans="3:5">
-      <c r="C15" s="40" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="147">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:8">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="3:5">
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="28" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:5">
       <c r="C21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:5">
       <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:5">
       <c r="C23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="45" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
-      <c r="C26" s="33" t="s">
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="46" t="s">
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="3:5" ht="34">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="1" customWidth="1"/>
     <col min="10" max="1025" width="8.5" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83333333333333" style="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="7" spans="4:10">
+    <row r="7" spans="1:10">
       <c r="D7" s="2" t="s">
         <v>183</v>
       </c>
@@ -4120,7 +3530,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="5:10">
+    <row r="8" spans="1:10">
       <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
@@ -4138,7 +3548,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="5:9">
+    <row r="9" spans="1:10">
       <c r="E9" s="1" t="s">
         <v>189</v>
       </c>
@@ -4156,27 +3566,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="D7:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="10.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="17.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -4214,26 +3623,25 @@
       <c r="I8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="16.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
@@ -4298,32 +3706,33 @@
       <c r="J9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="D7:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="11.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:12">
       <c r="D7" t="s">
         <v>203</v>
       </c>
@@ -4345,8 +3754,14 @@
       <c r="J7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="5:10">
+      <c r="K7" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
       <c r="E8" t="s">
         <v>208</v>
       </c>
@@ -4365,35 +3780,40 @@
       <c r="J8" t="s">
         <v>211</v>
       </c>
+      <c r="K8" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="D7:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="22.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.1666666666667" customWidth="1"/>
-    <col min="6" max="7" width="10.8333333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.1666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
@@ -4431,7 +3851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="4:14">
       <c r="E8" t="s">
         <v>208</v>
       </c>
@@ -4464,28 +3884,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="19.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
@@ -4499,7 +3918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="4:8">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
         <v>47</v>
       </c>
@@ -4516,7 +3935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="1:8">
       <c r="E8" s="16" t="s">
         <v>52</v>
       </c>
@@ -4531,8 +3950,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -4541,19 +3961,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="6" width="24.8333333333333" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="19.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -4576,7 +3995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8" spans="4:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -4593,7 +4012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="5:9">
+    <row r="9" spans="4:9">
       <c r="E9" t="s">
         <v>63</v>
       </c>
@@ -4610,7 +4029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="5:9">
+    <row r="10" spans="4:9">
       <c r="E10" t="s">
         <v>66</v>
       </c>
@@ -4627,7 +4046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="5:9">
+    <row r="11" spans="4:9">
       <c r="E11" t="s">
         <v>68</v>
       </c>
@@ -4644,7 +4063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="5:9">
+    <row r="12" spans="4:9">
       <c r="E12" t="s">
         <v>70</v>
       </c>
@@ -4661,7 +4080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="4:9">
       <c r="E13" t="s">
         <v>72</v>
       </c>
@@ -4678,7 +4097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="4:9">
       <c r="E14" t="s">
         <v>74</v>
       </c>
@@ -4695,7 +4114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="4:9">
       <c r="E15" t="s">
         <v>76</v>
       </c>
@@ -4712,7 +4131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="4:9">
       <c r="E16" t="s">
         <v>78</v>
       </c>
@@ -4764,40 +4183,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="9.16666666666667" customWidth="1"/>
-    <col min="5" max="5" width="26.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="77.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="6:7">
+    <row r="3" spans="1:17">
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
@@ -4839,7 +4257,7 @@
       <c r="O7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8" s="12"/>
       <c r="E8" s="6" t="s">
         <v>94</v>
@@ -4873,47 +4291,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
+    <row r="9" spans="1:17">
       <c r="H9" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" display="admin@example.org"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="F3" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="8.83333333333333" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="43.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="10.1666666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" ht="17">
       <c r="D7" s="9" t="s">
         <v>100</v>
       </c>
@@ -4948,7 +4365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="4:14">
       <c r="E8" t="s">
         <v>107</v>
       </c>
@@ -4980,7 +4397,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="5:14">
+    <row r="9" spans="4:14">
       <c r="E9" t="s">
         <v>110</v>
       </c>
@@ -5012,7 +4429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="5:14">
+    <row r="10" spans="4:14">
       <c r="E10" t="s">
         <v>114</v>
       </c>
@@ -5044,7 +4461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="5:14">
+    <row r="11" spans="4:14">
       <c r="E11" t="s">
         <v>117</v>
       </c>
@@ -5076,7 +4493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="5:14">
+    <row r="12" spans="4:14">
       <c r="E12" t="s">
         <v>120</v>
       </c>
@@ -5108,7 +4525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="5:14">
+    <row r="13" spans="4:14">
       <c r="E13" t="s">
         <v>123</v>
       </c>
@@ -5140,7 +4557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="5:14">
+    <row r="14" spans="4:14">
       <c r="E14" t="s">
         <v>125</v>
       </c>
@@ -5172,7 +4589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
+    <row r="15" spans="4:14">
       <c r="E15" t="s">
         <v>128</v>
       </c>
@@ -5205,8 +4622,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -5215,23 +4633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:I20"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="39.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="42.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -5250,7 +4667,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8" spans="4:9">
       <c r="E8" t="s">
         <v>134</v>
       </c>
@@ -5265,7 +4682,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="4:9">
       <c r="E9" t="s">
         <v>134</v>
       </c>
@@ -5278,7 +4695,7 @@
         <v>organization.owner</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="4:9">
       <c r="E10" t="s">
         <v>135</v>
       </c>
@@ -5291,7 +4708,7 @@
         <v>organization.wiki.admin</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="4:9">
       <c r="E11" t="s">
         <v>136</v>
       </c>
@@ -5304,7 +4721,7 @@
         <v>organization.wiki.user</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="4:9">
       <c r="E12" t="s">
         <v>137</v>
       </c>
@@ -5317,7 +4734,7 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="4:9">
       <c r="E13" t="s">
         <v>138</v>
       </c>
@@ -5330,7 +4747,7 @@
         <v>project.wiki.admin</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="4:9">
       <c r="E14" t="s">
         <v>139</v>
       </c>
@@ -5343,7 +4760,7 @@
         <v>project.wiki.user</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="4:9">
       <c r="E15" t="s">
         <v>140</v>
       </c>
@@ -5356,7 +4773,7 @@
         <v>project.owner</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="4:9">
       <c r="E16" t="s">
         <v>140</v>
       </c>
@@ -5422,31 +4839,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="36.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="25.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
     <col min="8" max="8" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" ht="17">
       <c r="D7" s="9" t="s">
         <v>144</v>
       </c>
@@ -5463,7 +4879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8">
       <c r="E8" t="s">
         <v>145</v>
       </c>
@@ -5477,7 +4893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="4:8">
       <c r="E9" t="s">
         <v>148</v>
       </c>
@@ -5491,7 +4907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="4:8">
       <c r="E10" t="s">
         <v>151</v>
       </c>
@@ -5505,7 +4921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="4:8">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -5516,7 +4932,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="4:8">
       <c r="E12" t="s">
         <v>156</v>
       </c>
@@ -5527,7 +4943,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="4:8">
       <c r="E13" t="s">
         <v>158</v>
       </c>
@@ -5538,7 +4954,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="4:8">
       <c r="E14" t="s">
         <v>160</v>
       </c>
@@ -5549,7 +4965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="4:8">
       <c r="E15" t="s">
         <v>162</v>
       </c>
@@ -5561,30 +4977,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="2.83333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1666666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
@@ -5598,7 +5013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="1:14">
       <c r="D7" t="s">
         <v>164</v>
       </c>
@@ -5631,7 +5046,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="1:14">
       <c r="E8" s="6" t="s">
         <v>171</v>
       </c>
@@ -5659,7 +5074,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="1:14">
       <c r="E9" t="s">
         <v>175</v>
       </c>
@@ -5690,8 +5105,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -5700,22 +5116,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:J10"/>
   <sheetViews>
     <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="19.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
@@ -5741,7 +5156,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="5:10">
+    <row r="8" spans="4:10">
       <c r="E8" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
@@ -5764,7 +5179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="5:10">
+    <row r="9" spans="4:10">
       <c r="E9" t="str">
         <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
@@ -5787,7 +5202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="5:10">
+    <row r="10" spans="4:10">
       <c r="E10" t="str">
         <f>IAM_ROLE!E15</f>
         <v>role/site/default/developer</v>
@@ -5811,8 +5226,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A595F17C-02FC-D74E-B0A4-6379663284CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09393AF-746D-FA46-94BE-E6814F66F7A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" tabRatio="411" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" tabRatio="411" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="231">
   <si>
     <r>
       <rPr>
@@ -2236,9 +2237,6 @@
     <t>研发-平台研发</t>
   </si>
   <si>
-    <t>技术平台、框架型研发。</t>
-  </si>
-  <si>
     <t>type/develop-product</t>
   </si>
   <si>
@@ -2452,6 +2450,46 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术平台、框架型研发。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>各部门各自推行的项目运维。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>各部门各自推行的项目实施。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或产品完成后向交付方交接交接物</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计-数据分析</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对项目产生的数据进行分心</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对产品进行维护</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/research-technology</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/research-statistics</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2871,11 +2909,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2885,9 +2926,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3249,11 +3287,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -3269,18 +3307,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="34">
       <c r="A4"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -3402,11 +3440,11 @@
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="13" t="s">
@@ -3511,7 +3549,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -3523,10 +3561,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3538,31 +3576,31 @@
         <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3628,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3599,10 +3637,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -3615,10 +3653,10 @@
         <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3646,7 +3684,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3655,33 +3693,33 @@
         <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3698,10 +3736,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3716,7 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D7:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -3734,7 +3772,7 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -3743,48 +3781,48 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" t="s">
         <v>204</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>205</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>206</v>
       </c>
-      <c r="J7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" t="s">
         <v>209</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>210</v>
       </c>
-      <c r="J8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>221</v>
+      <c r="K8" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3818,7 +3856,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -3830,36 +3868,36 @@
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
         <v>213</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>214</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>215</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>216</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>217</v>
-      </c>
-      <c r="N7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4847,10 +4885,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="D7:H15"/>
+  <dimension ref="D7:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4883,8 +4921,8 @@
       <c r="E8" t="s">
         <v>145</v>
       </c>
-      <c r="F8" t="s">
-        <v>145</v>
+      <c r="F8" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="G8" t="s">
         <v>146</v>
@@ -4903,77 +4941,106 @@
       <c r="G9" t="s">
         <v>149</v>
       </c>
-      <c r="H9" t="s">
-        <v>150</v>
+      <c r="H9" s="42" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
         <v>154</v>
       </c>
-      <c r="F11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" t="s">
-        <v>155</v>
+      <c r="H11" s="42" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
         <v>156</v>
       </c>
-      <c r="F12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" t="s">
-        <v>157</v>
+      <c r="H12" s="42" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
         <v>158</v>
       </c>
-      <c r="F13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>159</v>
+      <c r="H13" s="42" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" t="s">
         <v>160</v>
       </c>
-      <c r="F14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" t="s">
-        <v>161</v>
+      <c r="H14" s="42" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
         <v>162</v>
       </c>
-      <c r="F15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" t="s">
-        <v>163</v>
+      <c r="H15" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="E16" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5082,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -5024,49 +5091,49 @@
         <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>91</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
@@ -5076,32 +5143,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" t="s">
         <v>172</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" t="s">
         <v>173</v>
       </c>
-      <c r="I9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" t="s">
-        <v>174</v>
-      </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5202,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -5144,16 +5211,16 @@
         <v>132</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" t="s">
         <v>180</v>
-      </c>
-      <c r="J7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -5170,7 +5237,7 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5193,7 +5260,7 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5216,7 +5283,7 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09393AF-746D-FA46-94BE-E6814F66F7A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A640A4-D30E-3F4E-8546-C65A1C601EAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" tabRatio="411" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="411" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2048,9 +2048,6 @@
     <t>#LOGIN_NAME</t>
   </si>
   <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -2445,10 +2442,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -2490,6 +2483,14 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH_PASSWORD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP_PASSWORD</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2788,7 +2789,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2926,6 +2927,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3549,7 +3553,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -3561,46 +3565,46 @@
         <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3632,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3637,26 +3641,26 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3684,7 +3688,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3693,53 +3697,53 @@
         <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3754,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D7:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3772,7 +3776,7 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -3781,48 +3785,48 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" t="s">
         <v>203</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>204</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>205</v>
       </c>
-      <c r="J7" t="s">
-        <v>206</v>
-      </c>
       <c r="K7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="E8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" t="s">
         <v>208</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>209</v>
       </c>
-      <c r="J8" t="s">
-        <v>210</v>
-      </c>
       <c r="K8" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3860,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -3868,36 +3872,36 @@
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" t="s">
         <v>212</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>213</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>214</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>215</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>216</v>
-      </c>
-      <c r="N7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4230,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -4268,29 +4272,29 @@
       <c r="F7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" t="s">
         <v>88</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" s="6"/>
       <c r="Q7" s="6"/>
@@ -4298,29 +4302,29 @@
     <row r="8" spans="1:17">
       <c r="A8" s="12"/>
       <c r="E8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>97</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
       </c>
       <c r="K8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4370,7 +4374,7 @@
   <sheetData>
     <row r="7" spans="4:14" ht="17">
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -4379,22 +4383,22 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
         <v>101</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>103</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>105</v>
-      </c>
-      <c r="L7" t="s">
-        <v>106</v>
       </c>
       <c r="M7" t="s">
         <v>51</v>
@@ -4405,16 +4409,16 @@
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
         <v>107</v>
       </c>
-      <c r="F8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4437,16 +4441,16 @@
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
         <v>110</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>112</v>
-      </c>
-      <c r="H9" t="s">
-        <v>113</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4469,16 +4473,16 @@
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>115</v>
-      </c>
-      <c r="H10" t="s">
-        <v>116</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4501,16 +4505,16 @@
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
         <v>117</v>
       </c>
-      <c r="F11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>118</v>
-      </c>
-      <c r="H11" t="s">
-        <v>119</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4533,16 +4537,16 @@
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
         <v>120</v>
       </c>
-      <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>121</v>
-      </c>
-      <c r="H12" t="s">
-        <v>122</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4565,16 +4569,16 @@
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4597,16 +4601,16 @@
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
         <v>125</v>
       </c>
-      <c r="F14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>127</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4629,16 +4633,16 @@
     </row>
     <row r="15" spans="4:14">
       <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
         <v>128</v>
       </c>
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>129</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4691,23 +4695,23 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>IAM_ROLE!E9</f>
@@ -4722,7 +4726,7 @@
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" t="str">
         <f>IAM_ROLE!E9</f>
@@ -4735,7 +4739,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" t="str">
         <f>IAM_ROLE!E9</f>
@@ -4748,7 +4752,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" t="str">
         <f>IAM_ROLE!E14</f>
@@ -4761,7 +4765,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="str">
         <f>IAM_ROLE!E10</f>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" t="str">
         <f>IAM_ROLE!E13</f>
@@ -4787,7 +4791,7 @@
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" t="str">
         <f>IAM_ROLE!E12</f>
@@ -4800,7 +4804,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" t="str">
         <f>IAM_ROLE!E13</f>
@@ -4813,7 +4817,7 @@
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" t="str">
         <f>IAM_ROLE!E13</f>
@@ -4826,7 +4830,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" t="str">
         <f>IAM_ROLE!E12</f>
@@ -4839,7 +4843,7 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" t="str">
         <f>IAM_ROLE!E11</f>
@@ -4852,7 +4856,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" t="str">
         <f>IAM_ROLE!E11</f>
@@ -4865,7 +4869,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" t="str">
         <f>IAM_ROLE!E8</f>
@@ -4887,7 +4891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -4902,7 +4906,7 @@
   <sheetData>
     <row r="7" spans="4:8" ht="17">
       <c r="D7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -4919,128 +4923,128 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>146</v>
-      </c>
-      <c r="H8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
         <v>148</v>
       </c>
-      <c r="F9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
       <c r="H9" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
         <v>150</v>
       </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>151</v>
-      </c>
-      <c r="H10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
         <v>153</v>
       </c>
-      <c r="F11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" t="s">
-        <v>154</v>
-      </c>
       <c r="H11" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
         <v>155</v>
       </c>
-      <c r="F12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" t="s">
-        <v>156</v>
-      </c>
       <c r="H12" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" t="s">
         <v>157</v>
       </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
-      </c>
       <c r="H13" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
         <v>159</v>
       </c>
-      <c r="F14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" t="s">
-        <v>160</v>
-      </c>
       <c r="H14" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
         <v>161</v>
       </c>
-      <c r="F15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" t="s">
-        <v>162</v>
-      </c>
       <c r="H15" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="E16" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5082,7 +5086,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -5091,49 +5095,49 @@
         <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
@@ -5143,32 +5147,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" t="s">
         <v>171</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" t="s">
         <v>172</v>
       </c>
-      <c r="I9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" t="s">
-        <v>173</v>
-      </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5186,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -5202,25 +5206,25 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" t="s">
         <v>179</v>
-      </c>
-      <c r="J7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -5237,7 +5241,7 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5260,7 +5264,7 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5283,7 +5287,7 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A640A4-D30E-3F4E-8546-C65A1C601EAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EAFA6D-7FD9-F641-B50E-77A34EB852FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="411" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="411" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="IAM_LABEL" sheetId="13" r:id="rId3"/>
     <sheet name="IAM_USER" sheetId="5" r:id="rId4"/>
     <sheet name="IAM_ROLE" sheetId="6" r:id="rId5"/>
-    <sheet name="IAM_ROLE_LABEL" sheetId="17" r:id="rId6"/>
-    <sheet name="FD_PROJECT_TYPE" sheetId="18" r:id="rId7"/>
-    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId8"/>
-    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId9"/>
-    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId10"/>
-    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId11"/>
-    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId12"/>
-    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId13"/>
-    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId14"/>
+    <sheet name="IAM_MENU_B" sheetId="19" r:id="rId6"/>
+    <sheet name="IAM_ROLE_LABEL" sheetId="17" r:id="rId7"/>
+    <sheet name="FD_PROJECT_TYPE" sheetId="18" r:id="rId8"/>
+    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId9"/>
+    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId10"/>
+    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId11"/>
+    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId12"/>
+    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId13"/>
+    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId14"/>
+    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="265">
   <si>
     <r>
       <rPr>
@@ -2099,9 +2100,6 @@
     <t>IS_MODIFIED</t>
   </si>
   <si>
-    <t>IS_ASSIGNABLE</t>
-  </si>
-  <si>
     <t>IS_ENABLE_FORBIDDEN</t>
   </si>
   <si>
@@ -2491,6 +2489,146 @@
   </si>
   <si>
     <t>LDAP_PASSWORD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_LEVEL</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/site-member</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/site/default/site-user</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台用户</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site User</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_MENU_B</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TYPE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_DEFAULT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVICE_CODE</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.site</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>site层顶级菜单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top menu of site level</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam-service</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.user</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>site层个人中心顶级菜单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top menu of person center on site level</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织层顶级菜单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top menu of organization level</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目层顶级菜单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top menu of project level</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2913,6 +3051,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2927,9 +3068,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3291,11 +3429,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -3307,22 +3445,22 @@
     </row>
     <row r="3" spans="1:8" ht="49" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="34">
       <c r="A4"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -3444,11 +3582,11 @@
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="13" t="s">
@@ -3489,19 +3627,19 @@
       <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
       <c r="C26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="3:5" ht="34">
       <c r="C27" s="41" t="s">
@@ -3525,6 +3663,127 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="D7:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:10">
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="E8" t="str">
+        <f>IAM_ROLE!E8</f>
+        <v>role/site/default/administrator</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IAM_ROLE!E8</f>
+        <v>role/site/default/administrator</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IAM_USER!E8</f>
+        <v>admin</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="E9" t="str">
+        <f>IAM_ROLE!E9</f>
+        <v>role/site/default/developer</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IAM_ROLE!E9</f>
+        <v>role/site/default/developer</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IAM_USER!E8</f>
+        <v>admin</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="E10" t="str">
+        <f>IAM_ROLE!E15</f>
+        <v>role/project/default/project-member</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IAM_ROLE!E15</f>
+        <v>role/project/default/project-member</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IAM_USER!E8</f>
+        <v>admin</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -3553,7 +3812,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -3565,10 +3824,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3580,31 +3839,31 @@
         <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="D7:I8"/>
   <sheetViews>
@@ -3632,7 +3891,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3641,10 +3900,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -3657,10 +3916,10 @@
         <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3670,7 +3929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D7:J9"/>
   <sheetViews>
@@ -3688,7 +3947,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3697,33 +3956,33 @@
         <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3740,10 +3999,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3754,11 +4013,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D7:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -3776,7 +4035,7 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -3785,48 +4044,48 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
         <v>202</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>203</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>204</v>
       </c>
-      <c r="J7" t="s">
-        <v>205</v>
-      </c>
       <c r="K7" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="E8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
         <v>207</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>208</v>
       </c>
-      <c r="J8" t="s">
-        <v>209</v>
-      </c>
       <c r="K8" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +4095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="D7:N8"/>
   <sheetViews>
@@ -3860,7 +4119,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -3872,36 +4131,36 @@
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
         <v>211</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>212</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>213</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>214</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>215</v>
-      </c>
-      <c r="N7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4272,8 +4531,8 @@
       <c r="F7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>229</v>
+      <c r="G7" s="43" t="s">
+        <v>228</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>87</v>
@@ -4348,31 +4607,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B7:N15"/>
+  <dimension ref="B7:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="16"/>
   <sheetData>
-    <row r="7" spans="4:14" ht="17">
+    <row r="7" spans="4:13" ht="17">
       <c r="D7" s="9" t="s">
         <v>99</v>
       </c>
@@ -4398,27 +4641,24 @@
         <v>104</v>
       </c>
       <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="E8" t="s">
         <v>105</v>
       </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>108</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4427,30 +4667,27 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:13">
       <c r="E9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4459,30 +4696,27 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14">
-      <c r="E10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="E10" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4491,30 +4725,27 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
+      <c r="M10" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
       <c r="E11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4523,30 +4754,27 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13">
       <c r="E12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4555,30 +4783,27 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
+      <c r="M12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13">
       <c r="E13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4587,30 +4812,27 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:13">
       <c r="E14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4619,30 +4841,27 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14">
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13">
       <c r="E15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4651,16 +4870,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13">
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>83</v>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4675,6 +4920,200 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55E2BF-49BD-DE4F-A693-E15C6D7D689D}">
+  <dimension ref="D7:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="7" spans="4:15">
+      <c r="D7" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
+      <c r="E8" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15">
+      <c r="E9" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="E10" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="E11" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:I20"/>
   <sheetViews>
@@ -4695,27 +5134,27 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>IAM_ROLE!E9</f>
-        <v>role/orgainzation/default/administrator</v>
+        <v>role/site/default/developer</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>IAM_LABEL!E10</f>
@@ -4726,11 +5165,11 @@
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" t="str">
         <f>IAM_ROLE!E9</f>
-        <v>role/orgainzation/default/administrator</v>
+        <v>role/site/default/developer</v>
       </c>
       <c r="G9" t="str">
         <f>IAM_LABEL!E9</f>
@@ -4739,11 +5178,11 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" t="str">
         <f>IAM_ROLE!E9</f>
-        <v>role/orgainzation/default/administrator</v>
+        <v>role/site/default/developer</v>
       </c>
       <c r="G10" t="str">
         <f>IAM_LABEL!E12</f>
@@ -4752,11 +5191,11 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" t="str">
         <f>IAM_ROLE!E14</f>
-        <v>role/organization/default/organization-member</v>
+        <v>role/project/default/deploy-administrator</v>
       </c>
       <c r="G11" t="str">
         <f>IAM_LABEL!E13</f>
@@ -4765,11 +5204,11 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" t="str">
         <f>IAM_ROLE!E10</f>
-        <v>role/project/default/administrator</v>
+        <v>role/site/default/site-member</v>
       </c>
       <c r="G12" t="str">
         <f>IAM_LABEL!E8</f>
@@ -4778,11 +5217,11 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" t="str">
         <f>IAM_ROLE!E13</f>
-        <v>role/project/default/project-owner</v>
+        <v>role/project/default/administrator</v>
       </c>
       <c r="G13" t="str">
         <f>IAM_LABEL!E14</f>
@@ -4791,11 +5230,11 @@
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" t="str">
         <f>IAM_ROLE!E12</f>
-        <v>role/project/default/project-member</v>
+        <v>role/organization/default/organization-member</v>
       </c>
       <c r="G14" t="str">
         <f>IAM_LABEL!E15</f>
@@ -4804,11 +5243,11 @@
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" t="str">
         <f>IAM_ROLE!E13</f>
-        <v>role/project/default/project-owner</v>
+        <v>role/project/default/administrator</v>
       </c>
       <c r="G15" t="str">
         <f>IAM_LABEL!E8</f>
@@ -4817,11 +5256,11 @@
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" t="str">
         <f>IAM_ROLE!E13</f>
-        <v>role/project/default/project-owner</v>
+        <v>role/project/default/administrator</v>
       </c>
       <c r="G16" t="str">
         <f>IAM_LABEL!E16</f>
@@ -4830,11 +5269,11 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" t="str">
         <f>IAM_ROLE!E12</f>
-        <v>role/project/default/project-member</v>
+        <v>role/organization/default/organization-member</v>
       </c>
       <c r="G17" t="str">
         <f>IAM_LABEL!E11</f>
@@ -4843,11 +5282,11 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" t="str">
         <f>IAM_ROLE!E11</f>
-        <v>role/project/default/deploy-administrator</v>
+        <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G18" t="str">
         <f>IAM_LABEL!E17</f>
@@ -4856,11 +5295,11 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" t="str">
         <f>IAM_ROLE!E11</f>
-        <v>role/project/default/deploy-administrator</v>
+        <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G19" t="str">
         <f>IAM_LABEL!E8</f>
@@ -4869,7 +5308,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" t="str">
         <f>IAM_ROLE!E8</f>
@@ -4887,7 +5326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:H16"/>
   <sheetViews>
@@ -4906,7 +5345,7 @@
   <sheetData>
     <row r="7" spans="4:8" ht="17">
       <c r="D7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -4923,128 +5362,128 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>145</v>
-      </c>
-      <c r="H8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" t="s">
         <v>147</v>
       </c>
-      <c r="F9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
-      </c>
       <c r="H9" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
         <v>149</v>
       </c>
-      <c r="F10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>150</v>
-      </c>
-      <c r="H10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" t="s">
         <v>152</v>
       </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
       <c r="H11" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
         <v>154</v>
       </c>
-      <c r="F12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" t="s">
-        <v>155</v>
-      </c>
       <c r="H12" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
         <v>156</v>
       </c>
-      <c r="F13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" t="s">
-        <v>157</v>
-      </c>
       <c r="H13" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
         <v>158</v>
       </c>
-      <c r="F14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
       <c r="H14" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" t="s">
-        <v>161</v>
-      </c>
       <c r="H15" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="E16" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G16" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5053,7 +5492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -5086,7 +5525,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -5095,49 +5534,49 @@
         <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
@@ -5147,153 +5586,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" t="s">
         <v>170</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
         <v>171</v>
       </c>
-      <c r="I9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" t="s">
-        <v>172</v>
-      </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="D7:J10"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:10">
-      <c r="D7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
-      <c r="E8" t="str">
-        <f>IAM_ROLE!E8</f>
-        <v>role/site/default/administrator</v>
-      </c>
-      <c r="F8" t="str">
-        <f>IAM_ROLE!E8</f>
-        <v>role/site/default/administrator</v>
-      </c>
-      <c r="G8" t="str">
-        <f>IAM_USER!E8</f>
-        <v>admin</v>
-      </c>
-      <c r="H8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10">
-      <c r="E9" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/orgainzation/default/administrator</v>
-      </c>
-      <c r="F9" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/orgainzation/default/administrator</v>
-      </c>
-      <c r="G9" t="str">
-        <f>IAM_USER!E8</f>
-        <v>admin</v>
-      </c>
-      <c r="H9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
-      <c r="E10" t="str">
-        <f>IAM_ROLE!E15</f>
-        <v>role/site/default/developer</v>
-      </c>
-      <c r="F10" t="str">
-        <f>IAM_ROLE!E15</f>
-        <v>role/site/default/developer</v>
-      </c>
-      <c r="G10" t="str">
-        <f>IAM_USER!E8</f>
-        <v>admin</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EAFA6D-7FD9-F641-B50E-77A34EB852FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B233D28-3BC2-434A-B151-DF1D3656BEC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="411" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="411" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="255">
   <si>
     <r>
       <rPr>
@@ -2088,12 +2088,6 @@
     <t>IAM_ROLE</t>
   </si>
   <si>
-    <t>NAME:zh_CN</t>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-  </si>
-  <si>
     <t>IS_BUILT_IN</t>
   </si>
   <si>
@@ -2109,9 +2103,6 @@
     <t>平台管理员</t>
   </si>
   <si>
-    <t>Site Administrator</t>
-  </si>
-  <si>
     <t>role/orgainzation/default/administrator</t>
   </si>
   <si>
@@ -2121,58 +2112,37 @@
     <t>组织管理员</t>
   </si>
   <si>
-    <t>Organization Administrator</t>
-  </si>
-  <si>
     <t>role/project/default/administrator</t>
   </si>
   <si>
     <t>项目管理员</t>
   </si>
   <si>
-    <t>Project Administrator</t>
-  </si>
-  <si>
     <t>role/project/default/deploy-administrator</t>
   </si>
   <si>
     <t>部署管理员</t>
   </si>
   <si>
-    <t>Deploy Administrator</t>
-  </si>
-  <si>
     <t>role/project/default/project-member</t>
   </si>
   <si>
     <t>项目成员</t>
   </si>
   <si>
-    <t>Project Member</t>
-  </si>
-  <si>
     <t>role/project/default/project-owner</t>
   </si>
   <si>
-    <t>Project Owner</t>
-  </si>
-  <si>
     <t>role/organization/default/organization-member</t>
   </si>
   <si>
     <t>组织成员</t>
   </si>
   <si>
-    <t>Organization Member</t>
-  </si>
-  <si>
     <t>role/site/default/developer</t>
   </si>
   <si>
     <t>平台开发者</t>
-  </si>
-  <si>
-    <t>Site Developer</t>
   </si>
   <si>
     <t>IAM_ROLE_LABEL</t>
@@ -2508,10 +2478,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>Site User</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>site</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -2629,6 +2595,10 @@
   </si>
   <si>
     <t>Top menu of project level</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -3682,25 +3652,25 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -3717,7 +3687,7 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3740,7 +3710,7 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3763,7 +3733,7 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3812,7 +3782,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -3824,10 +3794,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3839,31 +3809,31 @@
         <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3891,7 +3861,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3900,10 +3870,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -3916,10 +3886,10 @@
         <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3947,7 +3917,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3956,33 +3926,33 @@
         <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3999,10 +3969,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -4035,7 +4005,7 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -4044,48 +4014,48 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="J7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="E8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="J8" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>217</v>
-      </c>
       <c r="L8" s="42" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4089,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -4131,36 +4101,36 @@
         <v>49</v>
       </c>
       <c r="H7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" t="s">
         <v>201</v>
       </c>
-      <c r="I7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" t="s">
-        <v>211</v>
-      </c>
       <c r="K7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4532,7 +4502,7 @@
         <v>86</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>87</v>
@@ -4607,15 +4577,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B7:M16"/>
+  <dimension ref="D7:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="16"/>
   <sheetData>
-    <row r="7" spans="4:13" ht="17">
+    <row r="7" spans="4:12" ht="17">
       <c r="D7" s="9" t="s">
         <v>99</v>
       </c>
@@ -4625,286 +4595,256 @@
       <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>101</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="K7" t="s">
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
         <v>104</v>
       </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13">
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12">
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13">
-      <c r="E9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="E10" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13">
-      <c r="E10" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>234</v>
-      </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="M10" s="42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13">
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>111</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13">
-      <c r="E12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13">
-      <c r="E13" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="E15" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>113</v>
       </c>
-      <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="J15">
         <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13">
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13">
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="4:13">
+    <row r="16" spans="4:12">
       <c r="E16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="H16" t="s">
-        <v>122</v>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4923,7 +4863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55E2BF-49BD-DE4F-A693-E15C6D7D689D}">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -4931,60 +4871,60 @@
   <sheetData>
     <row r="7" spans="4:15">
       <c r="D7" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="O7" s="42" t="s">
         <v>236</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="E8" s="42" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4996,30 +4936,30 @@
         <v>1</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O8" s="42" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:15">
       <c r="E9" s="42" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5031,30 +4971,30 @@
         <v>1</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:15">
       <c r="E10" s="42" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>260</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5066,30 +5006,30 @@
         <v>1</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="4:15">
       <c r="E11" s="42" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5101,10 +5041,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5134,23 +5074,23 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F8" s="6" t="str">
         <f>IAM_ROLE!E9</f>
@@ -5165,7 +5105,7 @@
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F9" t="str">
         <f>IAM_ROLE!E9</f>
@@ -5178,7 +5118,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F10" t="str">
         <f>IAM_ROLE!E9</f>
@@ -5191,7 +5131,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F11" t="str">
         <f>IAM_ROLE!E14</f>
@@ -5204,7 +5144,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F12" t="str">
         <f>IAM_ROLE!E10</f>
@@ -5217,7 +5157,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F13" t="str">
         <f>IAM_ROLE!E13</f>
@@ -5230,7 +5170,7 @@
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F14" t="str">
         <f>IAM_ROLE!E12</f>
@@ -5243,7 +5183,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F15" t="str">
         <f>IAM_ROLE!E13</f>
@@ -5256,7 +5196,7 @@
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F16" t="str">
         <f>IAM_ROLE!E13</f>
@@ -5269,7 +5209,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F17" t="str">
         <f>IAM_ROLE!E12</f>
@@ -5282,7 +5222,7 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F18" t="str">
         <f>IAM_ROLE!E11</f>
@@ -5295,7 +5235,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F19" t="str">
         <f>IAM_ROLE!E11</f>
@@ -5308,7 +5248,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F20" t="str">
         <f>IAM_ROLE!E8</f>
@@ -5345,7 +5285,7 @@
   <sheetData>
     <row r="7" spans="4:8" ht="17">
       <c r="D7" s="9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -5362,128 +5302,128 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="E9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="E10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="E16" s="42" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5525,7 +5465,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>48</v>
@@ -5534,49 +5474,49 @@
         <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
@@ -5586,32 +5526,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D398493A-DA17-A048-A70C-8E40D166AB9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF4B47-D8F7-474D-9761-AF49003701F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="255">
   <si>
     <r>
       <rPr>
@@ -2706,9 +2706,6 @@
   </si>
   <si>
     <t>organization wiki user</t>
-  </si>
-  <si>
-    <t>project administrator</t>
   </si>
   <si>
     <t>project wiki admin</t>
@@ -3682,21 +3679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3820,6 +3802,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -4212,210 +4209,210 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="6" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="116.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
     <col min="5" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="E2" s="10"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="49" customHeight="1">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="34">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="170">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="204">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="136">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="3:5" ht="34">
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4457,26 +4454,26 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="I7" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="J7" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -4492,13 +4489,13 @@
         <f>IAM_USER!E8</f>
         <v>admin</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>205</v>
+      <c r="H8" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="28" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4515,13 +4512,13 @@
         <f>IAM_USER!E8</f>
         <v>admin</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>205</v>
+      <c r="H9" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4538,13 +4535,13 @@
         <f>IAM_USER!E8</f>
         <v>admin</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>205</v>
+      <c r="H10" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="28" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4569,76 +4566,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="44" customWidth="1"/>
-    <col min="10" max="1025" width="9.83203125" style="44" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="39" customWidth="1"/>
+    <col min="10" max="1025" width="9.83203125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="47" t="s">
+      <c r="I7" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="E8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="E8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="48" t="s">
+      <c r="H8" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="I8" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="E9" s="47" t="s">
+      <c r="F9" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="47" t="s">
+      <c r="H9" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="I9" s="42" t="s">
         <v>214</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4669,38 +4666,38 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="39"/>
+      <c r="E8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="D8" s="44"/>
-      <c r="E8" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="44" t="s">
+      <c r="H8" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -4729,65 +4726,65 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="39"/>
+      <c r="E8" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="44"/>
-    </row>
-    <row r="8" spans="4:10">
-      <c r="D8" s="44"/>
-      <c r="E8" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="44" t="str">
+      <c r="F8" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="39" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="44"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="44" t="str">
+      <c r="G9" s="39" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="44"/>
+      <c r="J9" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -4819,58 +4816,58 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="33" t="s">
+      <c r="H7" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="I7" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="L7" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="42" t="s">
+    </row>
+    <row r="8" spans="4:12">
+      <c r="E8" s="28" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="4:12">
-      <c r="E8" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>233</v>
+      <c r="F8" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="J8" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="K8" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="K8" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>237</v>
+      <c r="L8" s="37" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4905,49 +4902,49 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="L7" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="M7" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="N7" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="N7" s="33" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="8" spans="4:14">
-      <c r="E8" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>233</v>
+      <c r="E8" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4996,47 +4993,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5070,36 +5067,36 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:9">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="28" t="s">
         <v>61</v>
       </c>
       <c r="I8" t="s">
@@ -5107,16 +5104,16 @@
       </c>
     </row>
     <row r="9" spans="4:9">
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="28" t="s">
         <v>64</v>
       </c>
       <c r="I9" t="s">
@@ -5124,16 +5121,16 @@
       </c>
     </row>
     <row r="10" spans="4:9">
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="28" t="s">
         <v>64</v>
       </c>
       <c r="I10" t="s">
@@ -5141,33 +5138,33 @@
       </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="4:9">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="28" t="s">
         <v>64</v>
       </c>
       <c r="I12" t="s">
@@ -5175,16 +5172,16 @@
       </c>
     </row>
     <row r="13" spans="4:9">
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="28" t="s">
         <v>64</v>
       </c>
       <c r="I13" t="s">
@@ -5192,16 +5189,16 @@
       </c>
     </row>
     <row r="14" spans="4:9">
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="28" t="s">
         <v>61</v>
       </c>
       <c r="I14" t="s">
@@ -5209,16 +5206,16 @@
       </c>
     </row>
     <row r="15" spans="4:9">
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="28" t="s">
         <v>61</v>
       </c>
       <c r="I15" t="s">
@@ -5226,16 +5223,16 @@
       </c>
     </row>
     <row r="16" spans="4:9">
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="28" t="s">
         <v>61</v>
       </c>
       <c r="I16" t="s">
@@ -5243,33 +5240,33 @@
       </c>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="28" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
@@ -5308,72 +5305,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="37"/>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="32"/>
+      <c r="D7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="O7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="37"/>
-      <c r="E8" s="34" t="s">
+      <c r="A8" s="32"/>
+      <c r="E8" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="28" t="s">
         <v>98</v>
       </c>
       <c r="K8" t="str">
@@ -5391,7 +5388,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="H9" s="40"/>
+      <c r="H9" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -5407,7 +5404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -5417,49 +5414,49 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:13" ht="17">
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="G7" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="H7" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="4:13">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G8" t="s">
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5473,22 +5470,22 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="4:13">
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="28" t="s">
         <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5502,22 +5499,22 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="4:13">
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="43" t="s">
-        <v>251</v>
+      <c r="H10" s="38" t="s">
+        <v>250</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5531,22 +5528,22 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="28" t="s">
         <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5560,22 +5557,22 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="4:13">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="28" t="s">
         <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5589,22 +5586,22 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="4:13">
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="28" t="s">
         <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5618,22 +5615,22 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="4:13">
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="28" t="s">
         <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5647,22 +5644,22 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="4:13">
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="28" t="s">
         <v>121</v>
       </c>
       <c r="G15" t="s">
         <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5676,22 +5673,22 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="4:13">
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="28" t="s">
         <v>123</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5705,7 +5702,7 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5738,57 +5735,57 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="37" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="4:14">
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="37" t="s">
         <v>135</v>
       </c>
       <c r="K8">
@@ -5797,30 +5794,30 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="4:14">
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="37" t="s">
         <v>140</v>
       </c>
       <c r="K9">
@@ -5829,30 +5826,30 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="4:14">
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="37" t="s">
         <v>143</v>
       </c>
       <c r="K10">
@@ -5861,30 +5858,30 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="4:14">
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="37" t="s">
         <v>146</v>
       </c>
       <c r="K11">
@@ -5893,10 +5890,10 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="37" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5909,10 +5906,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="D7:I20"/>
+  <dimension ref="D7:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5929,38 +5926,38 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="2" t="str">
         <f>IAM_ROLE!E9</f>
         <v>role/site/default/developer</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G8" s="2" t="str">
         <f>IAM_LABEL!E10</f>
         <v>organization.gitlab.owner</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>150</v>
       </c>
       <c r="F9" t="str">
@@ -5973,7 +5970,7 @@
       </c>
     </row>
     <row r="10" spans="4:9">
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>151</v>
       </c>
       <c r="F10" t="str">
@@ -5986,7 +5983,7 @@
       </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>152</v>
       </c>
       <c r="F11" t="str">
@@ -5999,118 +5996,105 @@
       </c>
     </row>
     <row r="12" spans="4:9">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F12" t="str">
-        <f>IAM_ROLE!E10</f>
-        <v>role/site/default/site-member</v>
+        <f>IAM_ROLE!E13</f>
+        <v>role/project/default/administrator</v>
       </c>
       <c r="G12" t="str">
+        <f>IAM_LABEL!E14</f>
+        <v>project.wiki.admin</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="E13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IAM_ROLE!E12</f>
+        <v>role/organization/default/organization-member</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IAM_LABEL!E15</f>
+        <v>project.wiki.user</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="E14" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IAM_ROLE!E13</f>
+        <v>role/project/default/administrator</v>
+      </c>
+      <c r="G14" t="str">
         <f>IAM_LABEL!E8</f>
         <v>project.owner</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
-      <c r="E13" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" t="str">
-        <f>IAM_ROLE!E13</f>
-        <v>role/project/default/administrator</v>
-      </c>
-      <c r="G13" t="str">
-        <f>IAM_LABEL!E14</f>
-        <v>project.wiki.admin</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9">
-      <c r="E14" s="33" t="s">
+    <row r="15" spans="4:9">
+      <c r="E15" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" t="str">
-        <f>IAM_ROLE!E12</f>
-        <v>role/organization/default/organization-member</v>
-      </c>
-      <c r="G14" t="str">
-        <f>IAM_LABEL!E15</f>
-        <v>project.wiki.user</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9">
-      <c r="E15" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="F15" t="str">
         <f>IAM_ROLE!E13</f>
         <v>role/project/default/administrator</v>
       </c>
       <c r="G15" t="str">
-        <f>IAM_LABEL!E8</f>
-        <v>project.owner</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="E16" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" t="str">
-        <f>IAM_ROLE!E13</f>
-        <v>role/project/default/administrator</v>
-      </c>
-      <c r="G16" t="str">
         <f>IAM_LABEL!E16</f>
         <v>project.gitlab.owner</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" t="str">
+    <row r="16" spans="4:9">
+      <c r="E16" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="str">
         <f>IAM_ROLE!E12</f>
         <v>role/organization/default/organization-member</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G16" t="str">
         <f>IAM_LABEL!E11</f>
         <v>project.gitlab.developer</v>
       </c>
     </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IAM_ROLE!E11</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IAM_LABEL!E17</f>
+        <v>project.deploy.admin</v>
+      </c>
+    </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="33" t="s">
-        <v>158</v>
+      <c r="E18" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="F18" t="str">
         <f>IAM_ROLE!E11</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G18" t="str">
-        <f>IAM_LABEL!E17</f>
-        <v>project.deploy.admin</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" t="str">
-        <f>IAM_ROLE!E11</f>
-        <v>role/orgainzation/default/administrator</v>
-      </c>
-      <c r="G19" t="str">
         <f>IAM_LABEL!E8</f>
         <v>project.owner</v>
       </c>
     </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" t="str">
+    <row r="19" spans="5:7">
+      <c r="E19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G19" t="str">
         <f>IAM_LABEL!E18</f>
         <v>site.admin</v>
       </c>
@@ -6142,146 +6126,146 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="17">
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="E8" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>162</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="4:8">
+      <c r="E9" s="28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="43" t="s">
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" s="28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="E10" s="33" t="s">
+      <c r="F10" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>168</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" s="28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="E11" s="33" t="s">
+      <c r="F11" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="43" t="s">
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" s="28" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="E12" s="33" t="s">
+      <c r="F12" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="43" t="s">
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" s="28" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="E13" s="33" t="s">
+      <c r="F13" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="43" t="s">
+    </row>
+    <row r="14" spans="4:8">
+      <c r="E14" s="28" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="43" t="s">
+    </row>
+    <row r="15" spans="4:8">
+      <c r="E15" s="28" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="E15" s="33" t="s">
+      <c r="F15" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="H15" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="4:8">
+      <c r="E16" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="F16" s="37" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="E16" s="42" t="s">
+      <c r="G16" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="43" t="s">
+      <c r="H16" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6313,108 +6297,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="I7" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="J7" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="K7" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="34" t="s">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="E8" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="H8" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="J8" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>195</v>
+      <c r="K8" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="E9" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>195</v>
+      <c r="K9" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
-      <c r="M9" s="33" t="s">
-        <v>199</v>
+      <c r="M9" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF4B47-D8F7-474D-9761-AF49003701F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC0C672-47D0-7F45-900A-E08A832DD8F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
   <si>
     <r>
       <rPr>
@@ -2718,9 +2718,6 @@
   </si>
   <si>
     <t>project member</t>
-  </si>
-  <si>
-    <t>project deploy admin</t>
   </si>
   <si>
     <t>site admin</t>
@@ -4455,7 +4452,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>48</v>
@@ -4464,16 +4461,16 @@
         <v>148</v>
       </c>
       <c r="G7" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -4490,7 +4487,7 @@
         <v>admin</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4513,7 +4510,7 @@
         <v>admin</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4536,7 +4533,7 @@
         <v>admin</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4584,7 +4581,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>48</v>
@@ -4596,10 +4593,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="J7" s="42"/>
     </row>
@@ -4611,31 +4608,31 @@
         <v>97</v>
       </c>
       <c r="G8" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="I8" s="42" t="s">
         <v>209</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>210</v>
       </c>
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>213</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4667,7 +4664,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>48</v>
@@ -4676,10 +4673,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="I7" s="39"/>
     </row>
@@ -4692,10 +4689,10 @@
         <v>90</v>
       </c>
       <c r="G8" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>216</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>217</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -4727,7 +4724,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>48</v>
@@ -4736,33 +4733,33 @@
         <v>50</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="39"/>
       <c r="E8" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8" s="39" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
       <c r="H8" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>221</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>222</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -4779,10 +4776,10 @@
         <v>TIME_ZONE</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>224</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -4817,7 +4814,7 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>48</v>
@@ -4826,48 +4823,48 @@
         <v>49</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="I7" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="J7" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="K7" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="L7" s="37" t="s">
         <v>230</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="E8" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="J8" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="K8" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>236</v>
-      </c>
       <c r="L8" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +4900,7 @@
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>48</v>
@@ -4915,36 +4912,36 @@
         <v>49</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="K7" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="L7" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="M7" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="N7" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -5424,10 +5421,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>101</v>
@@ -5456,7 +5453,7 @@
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5485,7 +5482,7 @@
         <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5514,7 +5511,7 @@
         <v>111</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5543,7 +5540,7 @@
         <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5572,7 +5569,7 @@
         <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5601,7 +5598,7 @@
         <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5630,7 +5627,7 @@
         <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5659,7 +5656,7 @@
         <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5688,7 +5685,7 @@
         <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5906,10 +5903,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="D7:I19"/>
+  <dimension ref="D7:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6065,36 +6062,10 @@
         <v>157</v>
       </c>
       <c r="F17" t="str">
-        <f>IAM_ROLE!E11</f>
-        <v>role/orgainzation/default/administrator</v>
-      </c>
-      <c r="G17" t="str">
-        <f>IAM_LABEL!E17</f>
-        <v>project.deploy.admin</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" t="str">
-        <f>IAM_ROLE!E11</f>
-        <v>role/orgainzation/default/administrator</v>
-      </c>
-      <c r="G18" t="str">
-        <f>IAM_LABEL!E8</f>
-        <v>project.owner</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G17" t="str">
         <f>IAM_LABEL!E18</f>
         <v>site.admin</v>
       </c>
@@ -6127,7 +6098,7 @@
   <sheetData>
     <row r="7" spans="4:8" ht="17">
       <c r="D7" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>48</v>
@@ -6144,128 +6115,128 @@
     </row>
     <row r="8" spans="4:8">
       <c r="E8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>161</v>
-      </c>
-      <c r="H8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="E9" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" s="38" t="s">
         <v>164</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="E10" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>167</v>
-      </c>
-      <c r="H10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="E11" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="38" t="s">
         <v>170</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="E12" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="E13" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" s="38" t="s">
         <v>176</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="E14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="E15" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="H15" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="G15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="E16" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="H16" s="38" t="s">
         <v>184</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6283,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="D7" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>48</v>
@@ -6321,49 +6292,49 @@
         <v>55</v>
       </c>
       <c r="G7" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="K7" s="29" t="s">
         <v>190</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>191</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>91</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="E8" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="H8" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>196</v>
-      </c>
       <c r="K8" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
@@ -6373,32 +6344,32 @@
     </row>
     <row r="9" spans="1:14">
       <c r="E9" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="I9" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>196</v>
-      </c>
       <c r="K9" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/2018-03-27-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC0C672-47D0-7F45-900A-E08A832DD8F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7DEA59-E434-704B-BFE5-D6F077C8EFD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="257">
   <si>
     <r>
       <rPr>
@@ -3376,6 +3376,16 @@
   </si>
   <si>
     <t>Project Owner</t>
+  </si>
+  <si>
+    <t>project administrator</t>
+  </si>
+  <si>
+    <t>project deploy admin</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3385,7 +3395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3524,6 +3534,19 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线 Regular"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线 Regular"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3672,7 +3695,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3813,6 +3836,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4433,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4442,8 +4474,8 @@
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
@@ -4474,9 +4506,8 @@
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="E8" t="str">
-        <f>IAM_ROLE!E8</f>
-        <v>role/site/default/administrator</v>
+      <c r="E8" t="s">
+        <v>105</v>
       </c>
       <c r="F8" t="str">
         <f>IAM_ROLE!E8</f>
@@ -4497,13 +4528,12 @@
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="E9" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/site/default/developer</v>
+      <c r="E9" t="s">
+        <v>112</v>
       </c>
       <c r="F9" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/site/default/developer</v>
+        <f>IAM_ROLE!E11</f>
+        <v>role/orgainzation/default/administrator</v>
       </c>
       <c r="G9" t="str">
         <f>IAM_USER!E8</f>
@@ -4520,13 +4550,12 @@
       </c>
     </row>
     <row r="10" spans="4:10">
-      <c r="E10" t="str">
-        <f>IAM_ROLE!E15</f>
-        <v>role/project/default/project-member</v>
+      <c r="E10" t="s">
+        <v>256</v>
       </c>
       <c r="F10" t="str">
-        <f>IAM_ROLE!E15</f>
-        <v>role/project/default/project-member</v>
+        <f>IAM_ROLE!E9</f>
+        <v>role/site/default/developer</v>
       </c>
       <c r="G10" t="str">
         <f>IAM_USER!E8</f>
@@ -5049,7 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -5401,13 +5430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1026" width="34.83203125" customWidth="1"/>
+    <col min="1" max="5" width="34.83203125" customWidth="1"/>
+    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="7" max="1026" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13" ht="17">
@@ -5903,10 +5934,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="D7:I17"/>
+  <dimension ref="D7:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5939,14 +5970,14 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="4:9">
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/site/default/developer</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="F8" s="50" t="str">
+        <f>IAM_ROLE!E11</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G8" s="37" t="str">
         <f>IAM_LABEL!E10</f>
         <v>organization.gitlab.owner</v>
       </c>
@@ -5954,121 +5985,165 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="F9" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/site/default/developer</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="F9" s="51" t="str">
+        <f>IAM_ROLE!E11</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G9" s="37" t="str">
         <f>IAM_LABEL!E9</f>
         <v>organization.owner</v>
       </c>
     </row>
     <row r="10" spans="4:9">
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="F10" t="str">
-        <f>IAM_ROLE!E9</f>
-        <v>role/site/default/developer</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="F10" s="51" t="str">
+        <f>IAM_ROLE!E11</f>
+        <v>role/orgainzation/default/administrator</v>
+      </c>
+      <c r="G10" s="37" t="str">
         <f>IAM_LABEL!E12</f>
         <v>organization.wiki.admin</v>
       </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="51" t="str">
+        <f>IAM_ROLE!E12</f>
+        <v>role/organization/default/organization-member</v>
+      </c>
+      <c r="G11" s="37" t="str">
+        <f>IAM_LABEL!E13</f>
+        <v>organization.wiki.user</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="E12" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="51" t="str">
+        <f>IAM_ROLE!E13</f>
+        <v>role/project/default/administrator</v>
+      </c>
+      <c r="G12" s="37" t="str">
+        <f>IAM_LABEL!E8</f>
+        <v>project.owner</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="E13" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="51" t="str">
+        <f>IAM_ROLE!E16</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="G13" s="37" t="str">
+        <f>IAM_LABEL!E14</f>
+        <v>project.wiki.admin</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="E14" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="51" t="str">
+        <f>IAM_ROLE!E15</f>
+        <v>role/project/default/project-member</v>
+      </c>
+      <c r="G14" s="37" t="str">
+        <f>IAM_LABEL!E15</f>
+        <v>project.wiki.user</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="E15" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="51" t="str">
+        <f>IAM_ROLE!E16</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="G15" s="37" t="str">
+        <f>IAM_LABEL!E8</f>
+        <v>project.owner</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="E16" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="51" t="str">
+        <f>IAM_ROLE!E16</f>
+        <v>role/project/default/project-owner</v>
+      </c>
+      <c r="G16" s="37" t="str">
+        <f>IAM_LABEL!E16</f>
+        <v>project.gitlab.owner</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="51" t="str">
+        <f>IAM_ROLE!E15</f>
+        <v>role/project/default/project-member</v>
+      </c>
+      <c r="G17" s="37" t="str">
+        <f>IAM_LABEL!E11</f>
+        <v>project.gitlab.developer</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="51" t="str">
         <f>IAM_ROLE!E14</f>
         <v>role/project/default/deploy-administrator</v>
       </c>
-      <c r="G11" t="str">
-        <f>IAM_LABEL!E13</f>
-        <v>organization.wiki.user</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9">
-      <c r="E12" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" t="str">
-        <f>IAM_ROLE!E13</f>
-        <v>role/project/default/administrator</v>
-      </c>
-      <c r="G12" t="str">
-        <f>IAM_LABEL!E14</f>
-        <v>project.wiki.admin</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9">
-      <c r="E13" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" t="str">
-        <f>IAM_ROLE!E12</f>
-        <v>role/organization/default/organization-member</v>
-      </c>
-      <c r="G13" t="str">
-        <f>IAM_LABEL!E15</f>
-        <v>project.wiki.user</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9">
-      <c r="E14" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" t="str">
-        <f>IAM_ROLE!E13</f>
-        <v>role/project/default/administrator</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="G18" s="37" t="str">
+        <f>IAM_LABEL!E17</f>
+        <v>project.deploy.admin</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="51" t="str">
+        <f>IAM_ROLE!E14</f>
+        <v>role/project/default/deploy-administrator</v>
+      </c>
+      <c r="G19" s="37" t="str">
         <f>IAM_LABEL!E8</f>
         <v>project.owner</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
-      <c r="E15" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="str">
-        <f>IAM_ROLE!E13</f>
-        <v>role/project/default/administrator</v>
-      </c>
-      <c r="G15" t="str">
-        <f>IAM_LABEL!E16</f>
-        <v>project.gitlab.owner</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="E16" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" t="str">
-        <f>IAM_ROLE!E12</f>
-        <v>role/organization/default/organization-member</v>
-      </c>
-      <c r="G16" t="str">
-        <f>IAM_LABEL!E11</f>
-        <v>project.gitlab.developer</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="28" t="s">
+    <row r="20" spans="5:7">
+      <c r="E20" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F20" s="51" t="str">
         <f>IAM_ROLE!E8</f>
         <v>role/site/default/administrator</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G20" s="37" t="str">
         <f>IAM_LABEL!E18</f>
         <v>site.admin</v>
       </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
